--- a/file/data.xlsx
+++ b/file/data.xlsx
@@ -22,7 +22,7 @@
     <numFmt numFmtId="167" formatCode="0.0"/>
     <numFmt numFmtId="168" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="27">
+  <fonts count="28">
     <font>
       <name val="Arial"/>
       <color rgb="FF000000"/>
@@ -176,6 +176,10 @@
     <font>
       <name val="Arial"/>
       <color rgb="FFB7B7B7"/>
+    </font>
+    <font>
+      <color rgb="000000FF"/>
+      <u val="single"/>
     </font>
   </fonts>
   <fills count="6">
@@ -620,7 +624,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="186">
+  <cellXfs count="189">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="bottom"/>
     </xf>
@@ -1099,6 +1103,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="32" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="28" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="22" fillId="2" borderId="15" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -39725,7 +39732,7 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:Z33"/>
+  <dimension ref="A2:Z67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="10" topLeftCell="B11" activePane="bottomRight" state="frozen"/>
@@ -40020,599 +40027,3517 @@
       <c r="A11" s="139" t="n">
         <v>1</v>
       </c>
-      <c r="B11" s="140" t="n"/>
-      <c r="C11" s="140" t="n"/>
-      <c r="D11" s="140" t="n"/>
-      <c r="E11" s="140" t="n"/>
+      <c r="B11" s="184" t="inlineStr">
+        <is>
+          <t>Gladak House 6
+Pantry and swim-pool</t>
+        </is>
+      </c>
+      <c r="C11" s="184" t="inlineStr">
+        <is>
+          <t>map</t>
+        </is>
+      </c>
+      <c r="D11" s="140" t="inlineStr">
+        <is>
+          <t>House</t>
+        </is>
+      </c>
+      <c r="E11" s="140" t="n">
+        <v>1</v>
+      </c>
       <c r="F11" s="140" t="n"/>
       <c r="G11" s="140" t="n"/>
       <c r="H11" s="140" t="n"/>
       <c r="I11" s="140" t="n"/>
-      <c r="J11" s="140" t="n"/>
+      <c r="J11" s="140" t="n">
+        <v>34650</v>
+      </c>
       <c r="K11" s="140" t="n"/>
-      <c r="L11" s="140" t="n"/>
-      <c r="M11" s="140" t="n"/>
-      <c r="N11" s="140" t="n"/>
-      <c r="O11" s="140" t="n"/>
-      <c r="P11" s="140" t="n"/>
-      <c r="Q11" s="140" t="n"/>
-      <c r="R11" s="140" t="n"/>
-      <c r="S11" s="140" t="n"/>
-      <c r="T11" s="140" t="n"/>
-      <c r="U11" s="140" t="n"/>
-      <c r="V11" s="140" t="n"/>
+      <c r="L11" s="140" t="inlineStr"/>
+      <c r="M11" s="140" t="inlineStr">
+        <is>
+          <t>Free parking on premises</t>
+        </is>
+      </c>
+      <c r="N11" s="140" t="inlineStr"/>
+      <c r="O11" s="140" t="n">
+        <v>1</v>
+      </c>
+      <c r="P11" s="140" t="inlineStr">
+        <is>
+          <t>kitchen</t>
+        </is>
+      </c>
+      <c r="Q11" s="140" t="inlineStr"/>
+      <c r="R11" s="140" t="inlineStr"/>
+      <c r="S11" s="140" t="inlineStr">
+        <is>
+          <t>Patio or balcony</t>
+        </is>
+      </c>
+      <c r="T11" s="140" t="inlineStr"/>
+      <c r="U11" s="140" t="inlineStr">
+        <is>
+          <t>4.83 stars, 35 reviews</t>
+        </is>
+      </c>
+      <c r="V11" s="140" t="inlineStr">
+        <is>
+          <t>Источник данных</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="139" t="n">
         <v>2</v>
       </c>
-      <c r="B12" s="141" t="n"/>
-      <c r="C12" s="141" t="n"/>
-      <c r="D12" s="141" t="n"/>
-      <c r="E12" s="141" t="n"/>
-      <c r="F12" s="141" t="n"/>
-      <c r="G12" s="141" t="n"/>
-      <c r="H12" s="141" t="n"/>
-      <c r="I12" s="141" t="n"/>
-      <c r="J12" s="141" t="n"/>
+      <c r="B12" s="185" t="inlineStr">
+        <is>
+          <t>Bahtera Guest House 1</t>
+        </is>
+      </c>
+      <c r="C12" s="185" t="inlineStr">
+        <is>
+          <t>map</t>
+        </is>
+      </c>
+      <c r="D12" s="141" t="inlineStr">
+        <is>
+          <t>House</t>
+        </is>
+      </c>
+      <c r="E12" s="141" t="n">
+        <v>1</v>
+      </c>
+      <c r="F12" s="141" t="n">
+        <v>360</v>
+      </c>
+      <c r="G12" s="141" t="n">
+        <v>3014024</v>
+      </c>
+      <c r="H12" s="141" t="n">
+        <v>97.5</v>
+      </c>
+      <c r="I12" s="141" t="n">
+        <v>1057925600</v>
+      </c>
+      <c r="J12" s="141" t="n">
+        <v>330</v>
+      </c>
       <c r="K12" s="141" t="n"/>
-      <c r="L12" s="141" t="n"/>
-      <c r="M12" s="141" t="n"/>
-      <c r="N12" s="141" t="n"/>
-      <c r="O12" s="140" t="n"/>
-      <c r="P12" s="141" t="n"/>
-      <c r="Q12" s="141" t="n"/>
-      <c r="R12" s="141" t="n"/>
-      <c r="S12" s="141" t="n"/>
-      <c r="T12" s="141" t="n"/>
-      <c r="U12" s="140" t="n"/>
-      <c r="V12" s="140" t="n"/>
+      <c r="L12" s="141" t="inlineStr">
+        <is>
+          <t>Garden view</t>
+        </is>
+      </c>
+      <c r="M12" s="141" t="inlineStr">
+        <is>
+          <t>Free parking on premises</t>
+        </is>
+      </c>
+      <c r="N12" s="141" t="inlineStr"/>
+      <c r="O12" s="140" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="P12" s="141" t="inlineStr"/>
+      <c r="Q12" s="141" t="inlineStr"/>
+      <c r="R12" s="141" t="inlineStr"/>
+      <c r="S12" s="141" t="inlineStr"/>
+      <c r="T12" s="141" t="inlineStr">
+        <is>
+          <t>Safe</t>
+        </is>
+      </c>
+      <c r="U12" s="140" t="inlineStr">
+        <is>
+          <t>2.0 stars, 2 reviews</t>
+        </is>
+      </c>
+      <c r="V12" s="140" t="inlineStr">
+        <is>
+          <t>Источник данных</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="139" t="n">
         <v>3</v>
       </c>
-      <c r="B13" s="141" t="n"/>
-      <c r="C13" s="141" t="n"/>
-      <c r="D13" s="141" t="n"/>
-      <c r="E13" s="141" t="n"/>
+      <c r="B13" s="185" t="inlineStr">
+        <is>
+          <t>Special guest house and stay in Balinese compound</t>
+        </is>
+      </c>
+      <c r="C13" s="185" t="inlineStr">
+        <is>
+          <t>map</t>
+        </is>
+      </c>
+      <c r="D13" s="141" t="inlineStr">
+        <is>
+          <t>House</t>
+        </is>
+      </c>
+      <c r="E13" s="141" t="n">
+        <v>1</v>
+      </c>
       <c r="F13" s="141" t="n"/>
       <c r="G13" s="141" t="n"/>
       <c r="H13" s="141" t="n"/>
       <c r="I13" s="141" t="n"/>
-      <c r="J13" s="141" t="n"/>
+      <c r="J13" s="141" t="n">
+        <v>330</v>
+      </c>
       <c r="K13" s="141" t="n"/>
-      <c r="L13" s="141" t="n"/>
-      <c r="M13" s="141" t="n"/>
-      <c r="N13" s="141" t="n"/>
-      <c r="O13" s="141" t="n"/>
-      <c r="P13" s="141" t="n"/>
-      <c r="Q13" s="141" t="n"/>
-      <c r="R13" s="141" t="n"/>
-      <c r="S13" s="141" t="n"/>
-      <c r="T13" s="141" t="n"/>
-      <c r="U13" s="140" t="n"/>
-      <c r="V13" s="140" t="n"/>
+      <c r="L13" s="141" t="inlineStr"/>
+      <c r="M13" s="141" t="inlineStr">
+        <is>
+          <t>Free parking on premises, Street parking</t>
+        </is>
+      </c>
+      <c r="N13" s="141" t="inlineStr"/>
+      <c r="O13" s="141" t="n">
+        <v>1</v>
+      </c>
+      <c r="P13" s="141" t="inlineStr">
+        <is>
+          <t>kitchen</t>
+        </is>
+      </c>
+      <c r="Q13" s="141" t="inlineStr">
+        <is>
+          <t>Dedicated workspace</t>
+        </is>
+      </c>
+      <c r="R13" s="141" t="inlineStr"/>
+      <c r="S13" s="141" t="inlineStr">
+        <is>
+          <t>Patio or balcony, Backyard</t>
+        </is>
+      </c>
+      <c r="T13" s="141" t="inlineStr"/>
+      <c r="U13" s="140" t="inlineStr">
+        <is>
+          <t>4.945 stars, 17 reviews</t>
+        </is>
+      </c>
+      <c r="V13" s="140" t="inlineStr">
+        <is>
+          <t>Источник данных</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="139" t="n">
         <v>4</v>
       </c>
-      <c r="B14" s="141" t="n"/>
-      <c r="C14" s="141" t="n"/>
-      <c r="D14" s="141" t="n"/>
-      <c r="E14" s="141" t="n"/>
-      <c r="F14" s="141" t="n"/>
-      <c r="G14" s="141" t="n"/>
-      <c r="H14" s="141" t="n"/>
-      <c r="I14" s="141" t="n"/>
-      <c r="J14" s="141" t="n"/>
+      <c r="B14" s="185" t="inlineStr">
+        <is>
+          <t>Kadek homeatay on the beach</t>
+        </is>
+      </c>
+      <c r="C14" s="185" t="inlineStr">
+        <is>
+          <t>map</t>
+        </is>
+      </c>
+      <c r="D14" s="141" t="inlineStr">
+        <is>
+          <t>Home</t>
+        </is>
+      </c>
+      <c r="E14" s="141" t="n">
+        <v>4</v>
+      </c>
+      <c r="F14" s="141" t="n">
+        <v>353</v>
+      </c>
+      <c r="G14" s="141" t="n">
+        <v>3176158</v>
+      </c>
+      <c r="H14" s="141" t="n">
+        <v>82.44</v>
+      </c>
+      <c r="I14" s="141" t="n">
+        <v>924263640</v>
+      </c>
+      <c r="J14" s="141" t="n">
+        <v>300</v>
+      </c>
       <c r="K14" s="141" t="n"/>
-      <c r="L14" s="141" t="n"/>
-      <c r="M14" s="141" t="n"/>
-      <c r="N14" s="141" t="n"/>
-      <c r="O14" s="141" t="n"/>
-      <c r="P14" s="141" t="n"/>
-      <c r="Q14" s="141" t="n"/>
-      <c r="R14" s="141" t="n"/>
-      <c r="S14" s="141" t="n"/>
-      <c r="T14" s="141" t="n"/>
-      <c r="U14" s="140" t="n"/>
-      <c r="V14" s="140" t="n"/>
+      <c r="L14" s="141" t="inlineStr"/>
+      <c r="M14" s="141" t="inlineStr">
+        <is>
+          <t>Free parking on premises</t>
+        </is>
+      </c>
+      <c r="N14" s="141" t="inlineStr"/>
+      <c r="O14" s="141" t="n">
+        <v>5</v>
+      </c>
+      <c r="P14" s="141" t="inlineStr">
+        <is>
+          <t>kitchen</t>
+        </is>
+      </c>
+      <c r="Q14" s="141" t="inlineStr">
+        <is>
+          <t>Dedicated workspace</t>
+        </is>
+      </c>
+      <c r="R14" s="141" t="inlineStr"/>
+      <c r="S14" s="141" t="inlineStr">
+        <is>
+          <t>Outdoor dining area</t>
+        </is>
+      </c>
+      <c r="T14" s="141" t="inlineStr">
+        <is>
+          <t>Safe</t>
+        </is>
+      </c>
+      <c r="U14" s="140" t="inlineStr">
+        <is>
+          <t>2.33 stars, 3 reviews</t>
+        </is>
+      </c>
+      <c r="V14" s="140" t="inlineStr">
+        <is>
+          <t>Источник данных</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="139" t="n">
         <v>5</v>
       </c>
-      <c r="B15" s="141" t="n"/>
-      <c r="C15" s="141" t="n"/>
-      <c r="D15" s="141" t="n"/>
-      <c r="E15" s="141" t="n"/>
+      <c r="B15" s="185" t="inlineStr">
+        <is>
+          <t>Private Room with in Denpasar</t>
+        </is>
+      </c>
+      <c r="C15" s="185" t="inlineStr">
+        <is>
+          <t>map</t>
+        </is>
+      </c>
+      <c r="D15" s="141" t="inlineStr">
+        <is>
+          <t>Villa</t>
+        </is>
+      </c>
+      <c r="E15" s="141" t="n">
+        <v>0</v>
+      </c>
       <c r="F15" s="141" t="n"/>
       <c r="G15" s="141" t="n"/>
       <c r="H15" s="141" t="n"/>
       <c r="I15" s="141" t="n"/>
-      <c r="J15" s="141" t="n"/>
+      <c r="J15" s="141" t="n">
+        <v>300</v>
+      </c>
       <c r="K15" s="141" t="n"/>
-      <c r="L15" s="141" t="n"/>
-      <c r="M15" s="141" t="n"/>
-      <c r="N15" s="141" t="n"/>
-      <c r="O15" s="141" t="n"/>
-      <c r="P15" s="141" t="n"/>
-      <c r="Q15" s="141" t="n"/>
-      <c r="R15" s="141" t="n"/>
-      <c r="S15" s="141" t="n"/>
-      <c r="T15" s="141" t="n"/>
-      <c r="U15" s="140" t="n"/>
-      <c r="V15" s="140" t="n"/>
+      <c r="L15" s="141" t="inlineStr"/>
+      <c r="M15" s="141" t="inlineStr">
+        <is>
+          <t>Free parking on premises</t>
+        </is>
+      </c>
+      <c r="N15" s="141" t="inlineStr"/>
+      <c r="O15" s="141" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="P15" s="141" t="inlineStr">
+        <is>
+          <t>kitchen</t>
+        </is>
+      </c>
+      <c r="Q15" s="141" t="inlineStr"/>
+      <c r="R15" s="141" t="inlineStr"/>
+      <c r="S15" s="141" t="inlineStr"/>
+      <c r="T15" s="141" t="inlineStr"/>
+      <c r="U15" s="140" t="inlineStr">
+        <is>
+          <t>0.0 stars, 0 reviews</t>
+        </is>
+      </c>
+      <c r="V15" s="140" t="inlineStr">
+        <is>
+          <t>Источник данных</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="139" t="n">
         <v>6</v>
       </c>
-      <c r="B16" s="141" t="n"/>
-      <c r="C16" s="141" t="n"/>
-      <c r="D16" s="141" t="n"/>
-      <c r="E16" s="141" t="n"/>
+      <c r="B16" s="185" t="inlineStr">
+        <is>
+          <t>Homey place in Ubud</t>
+        </is>
+      </c>
+      <c r="C16" s="185" t="inlineStr">
+        <is>
+          <t>map</t>
+        </is>
+      </c>
+      <c r="D16" s="141" t="inlineStr">
+        <is>
+          <t>Home</t>
+        </is>
+      </c>
+      <c r="E16" s="141" t="n">
+        <v>1</v>
+      </c>
       <c r="F16" s="141" t="n"/>
       <c r="G16" s="141" t="n"/>
       <c r="H16" s="141" t="n"/>
       <c r="I16" s="141" t="n"/>
-      <c r="J16" s="141" t="n"/>
+      <c r="J16" s="141" t="n">
+        <v>360</v>
+      </c>
       <c r="K16" s="141" t="n"/>
-      <c r="L16" s="141" t="n"/>
-      <c r="M16" s="141" t="n"/>
-      <c r="N16" s="141" t="n"/>
-      <c r="O16" s="141" t="n"/>
-      <c r="P16" s="141" t="n"/>
-      <c r="Q16" s="141" t="n"/>
-      <c r="R16" s="141" t="n"/>
-      <c r="S16" s="141" t="n"/>
-      <c r="T16" s="141" t="n"/>
-      <c r="U16" s="140" t="n"/>
-      <c r="V16" s="140" t="n"/>
+      <c r="L16" s="141" t="inlineStr">
+        <is>
+          <t>Garden view</t>
+        </is>
+      </c>
+      <c r="M16" s="141" t="inlineStr">
+        <is>
+          <t>Free parking on premises</t>
+        </is>
+      </c>
+      <c r="N16" s="141" t="inlineStr"/>
+      <c r="O16" s="141" t="n">
+        <v>1</v>
+      </c>
+      <c r="P16" s="141" t="inlineStr">
+        <is>
+          <t>kitchen</t>
+        </is>
+      </c>
+      <c r="Q16" s="141" t="inlineStr">
+        <is>
+          <t>Dedicated workspace</t>
+        </is>
+      </c>
+      <c r="R16" s="141" t="inlineStr"/>
+      <c r="S16" s="141" t="inlineStr">
+        <is>
+          <t>Outdoor dining area, Patio or balcony</t>
+        </is>
+      </c>
+      <c r="T16" s="141" t="inlineStr">
+        <is>
+          <t>Safe</t>
+        </is>
+      </c>
+      <c r="U16" s="140" t="inlineStr">
+        <is>
+          <t>5.05 stars, 10 reviews</t>
+        </is>
+      </c>
+      <c r="V16" s="140" t="inlineStr">
+        <is>
+          <t>Источник данных</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="139" t="n">
         <v>7</v>
       </c>
-      <c r="B17" s="141" t="n"/>
-      <c r="C17" s="141" t="n"/>
-      <c r="D17" s="141" t="n"/>
-      <c r="E17" s="141" t="n"/>
+      <c r="B17" s="185" t="inlineStr">
+        <is>
+          <t>mini apartment near Padma beach</t>
+        </is>
+      </c>
+      <c r="C17" s="185" t="inlineStr">
+        <is>
+          <t>map</t>
+        </is>
+      </c>
+      <c r="D17" s="141" t="inlineStr">
+        <is>
+          <t>Apartment</t>
+        </is>
+      </c>
+      <c r="E17" s="141" t="n">
+        <v>1</v>
+      </c>
       <c r="F17" s="141" t="n"/>
       <c r="G17" s="141" t="n"/>
       <c r="H17" s="141" t="n"/>
       <c r="I17" s="141" t="n"/>
-      <c r="J17" s="141" t="n"/>
+      <c r="J17" s="141" t="n">
+        <v>390</v>
+      </c>
       <c r="K17" s="141" t="n"/>
-      <c r="L17" s="141" t="n"/>
-      <c r="M17" s="141" t="n"/>
-      <c r="N17" s="141" t="n"/>
-      <c r="O17" s="141" t="n"/>
-      <c r="P17" s="141" t="n"/>
-      <c r="Q17" s="141" t="n"/>
-      <c r="R17" s="141" t="n"/>
-      <c r="S17" s="141" t="n"/>
-      <c r="T17" s="141" t="n"/>
-      <c r="U17" s="140" t="n"/>
-      <c r="V17" s="140" t="n"/>
+      <c r="L17" s="141" t="inlineStr"/>
+      <c r="M17" s="141" t="inlineStr">
+        <is>
+          <t>Free parking on premises</t>
+        </is>
+      </c>
+      <c r="N17" s="141" t="inlineStr"/>
+      <c r="O17" s="141" t="n">
+        <v>1</v>
+      </c>
+      <c r="P17" s="141" t="inlineStr">
+        <is>
+          <t>kitchen</t>
+        </is>
+      </c>
+      <c r="Q17" s="141" t="inlineStr">
+        <is>
+          <t>Dedicated workspace</t>
+        </is>
+      </c>
+      <c r="R17" s="141" t="inlineStr"/>
+      <c r="S17" s="141" t="inlineStr">
+        <is>
+          <t>Outdoor dining area, Patio or balcony</t>
+        </is>
+      </c>
+      <c r="T17" s="141" t="inlineStr"/>
+      <c r="U17" s="140" t="inlineStr">
+        <is>
+          <t>0.0 stars, 0 reviews</t>
+        </is>
+      </c>
+      <c r="V17" s="140" t="inlineStr">
+        <is>
+          <t>Источник данных</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="139" t="n">
         <v>8</v>
       </c>
-      <c r="B18" s="141" t="n"/>
-      <c r="C18" s="141" t="n"/>
-      <c r="D18" s="141" t="n"/>
-      <c r="E18" s="141" t="n"/>
+      <c r="B18" s="185" t="inlineStr">
+        <is>
+          <t>Comfy small place in sanur</t>
+        </is>
+      </c>
+      <c r="C18" s="185" t="inlineStr">
+        <is>
+          <t>map</t>
+        </is>
+      </c>
+      <c r="D18" s="141" t="inlineStr">
+        <is>
+          <t>Place</t>
+        </is>
+      </c>
+      <c r="E18" s="141" t="n">
+        <v>1</v>
+      </c>
       <c r="F18" s="141" t="n"/>
       <c r="G18" s="141" t="n"/>
       <c r="H18" s="141" t="n"/>
       <c r="I18" s="141" t="n"/>
-      <c r="J18" s="141" t="n"/>
+      <c r="J18" s="141" t="n">
+        <v>34410</v>
+      </c>
       <c r="K18" s="141" t="n"/>
-      <c r="L18" s="141" t="n"/>
-      <c r="M18" s="141" t="n"/>
-      <c r="N18" s="141" t="n"/>
-      <c r="O18" s="141" t="n"/>
-      <c r="P18" s="141" t="n"/>
-      <c r="Q18" s="141" t="n"/>
-      <c r="R18" s="141" t="n"/>
-      <c r="S18" s="141" t="n"/>
-      <c r="T18" s="141" t="n"/>
-      <c r="U18" s="140" t="n"/>
-      <c r="V18" s="140" t="n"/>
+      <c r="L18" s="141" t="inlineStr"/>
+      <c r="M18" s="141" t="inlineStr"/>
+      <c r="N18" s="141" t="inlineStr"/>
+      <c r="O18" s="141" t="n">
+        <v>1</v>
+      </c>
+      <c r="P18" s="141" t="inlineStr"/>
+      <c r="Q18" s="141" t="inlineStr">
+        <is>
+          <t>Dedicated workspace</t>
+        </is>
+      </c>
+      <c r="R18" s="141" t="inlineStr"/>
+      <c r="S18" s="141" t="inlineStr">
+        <is>
+          <t>Patio or balcony</t>
+        </is>
+      </c>
+      <c r="T18" s="141" t="inlineStr">
+        <is>
+          <t>Safe</t>
+        </is>
+      </c>
+      <c r="U18" s="140" t="inlineStr">
+        <is>
+          <t>5.0 stars, 4 reviews</t>
+        </is>
+      </c>
+      <c r="V18" s="140" t="inlineStr">
+        <is>
+          <t>Источник данных</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="139" t="n">
         <v>9</v>
       </c>
-      <c r="B19" s="141" t="n"/>
-      <c r="C19" s="141" t="n"/>
-      <c r="D19" s="141" t="n"/>
-      <c r="E19" s="141" t="n"/>
+      <c r="B19" s="185" t="inlineStr">
+        <is>
+          <t>Lumbung Sari Sekumpul Fiji Waterfalls</t>
+        </is>
+      </c>
+      <c r="C19" s="185" t="inlineStr">
+        <is>
+          <t>map</t>
+        </is>
+      </c>
+      <c r="D19" s="141" t="inlineStr">
+        <is>
+          <t>Barn</t>
+        </is>
+      </c>
+      <c r="E19" s="141" t="n">
+        <v>1</v>
+      </c>
       <c r="F19" s="141" t="n"/>
       <c r="G19" s="141" t="n"/>
       <c r="H19" s="141" t="n"/>
       <c r="I19" s="141" t="n"/>
-      <c r="J19" s="141" t="n"/>
+      <c r="J19" s="141" t="n">
+        <v>270</v>
+      </c>
       <c r="K19" s="141" t="n"/>
-      <c r="L19" s="141" t="n"/>
-      <c r="M19" s="141" t="n"/>
-      <c r="N19" s="141" t="n"/>
+      <c r="L19" s="141" t="inlineStr"/>
+      <c r="M19" s="141" t="inlineStr">
+        <is>
+          <t>Free parking on premises</t>
+        </is>
+      </c>
+      <c r="N19" s="141" t="inlineStr"/>
       <c r="O19" s="141" t="n"/>
-      <c r="P19" s="141" t="n"/>
-      <c r="Q19" s="141" t="n"/>
-      <c r="R19" s="141" t="n"/>
-      <c r="S19" s="141" t="n"/>
-      <c r="T19" s="141" t="n"/>
-      <c r="U19" s="140" t="n"/>
-      <c r="V19" s="140" t="n"/>
+      <c r="P19" s="141" t="inlineStr">
+        <is>
+          <t>kitchen</t>
+        </is>
+      </c>
+      <c r="Q19" s="141" t="inlineStr"/>
+      <c r="R19" s="141" t="inlineStr"/>
+      <c r="S19" s="141" t="inlineStr"/>
+      <c r="T19" s="141" t="inlineStr">
+        <is>
+          <t>Safe</t>
+        </is>
+      </c>
+      <c r="U19" s="140" t="inlineStr">
+        <is>
+          <t>0.0 stars, 0 reviews</t>
+        </is>
+      </c>
+      <c r="V19" s="140" t="inlineStr">
+        <is>
+          <t>Источник данных</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="139" t="n">
         <v>10</v>
       </c>
-      <c r="B20" s="141" t="n"/>
-      <c r="C20" s="141" t="n"/>
-      <c r="D20" s="141" t="n"/>
-      <c r="E20" s="141" t="n"/>
+      <c r="B20" s="185" t="inlineStr">
+        <is>
+          <t>Low price guest house, comfy, relaxing</t>
+        </is>
+      </c>
+      <c r="C20" s="185" t="inlineStr">
+        <is>
+          <t>map</t>
+        </is>
+      </c>
+      <c r="D20" s="141" t="inlineStr">
+        <is>
+          <t>House</t>
+        </is>
+      </c>
+      <c r="E20" s="141" t="n">
+        <v>1</v>
+      </c>
       <c r="F20" s="141" t="n"/>
       <c r="G20" s="141" t="n"/>
       <c r="H20" s="141" t="n"/>
       <c r="I20" s="141" t="n"/>
-      <c r="J20" s="141" t="n"/>
+      <c r="J20" s="141" t="n">
+        <v>27720</v>
+      </c>
       <c r="K20" s="141" t="n"/>
-      <c r="L20" s="141" t="n"/>
-      <c r="M20" s="141" t="n"/>
-      <c r="N20" s="141" t="n"/>
-      <c r="O20" s="141" t="n"/>
-      <c r="P20" s="141" t="n"/>
-      <c r="Q20" s="141" t="n"/>
-      <c r="R20" s="141" t="n"/>
-      <c r="S20" s="141" t="n"/>
-      <c r="T20" s="141" t="n"/>
-      <c r="U20" s="140" t="n"/>
-      <c r="V20" s="140" t="n"/>
+      <c r="L20" s="141" t="inlineStr">
+        <is>
+          <t>Garden view, Mountain view</t>
+        </is>
+      </c>
+      <c r="M20" s="141" t="inlineStr">
+        <is>
+          <t>Free parking on premises</t>
+        </is>
+      </c>
+      <c r="N20" s="141" t="inlineStr"/>
+      <c r="O20" s="141" t="n">
+        <v>1</v>
+      </c>
+      <c r="P20" s="141" t="inlineStr">
+        <is>
+          <t>kitchen</t>
+        </is>
+      </c>
+      <c r="Q20" s="141" t="inlineStr">
+        <is>
+          <t>Dedicated workspace</t>
+        </is>
+      </c>
+      <c r="R20" s="141" t="inlineStr"/>
+      <c r="S20" s="141" t="inlineStr">
+        <is>
+          <t>Outdoor dining area, Patio or balcony</t>
+        </is>
+      </c>
+      <c r="T20" s="141" t="inlineStr">
+        <is>
+          <t>Lockbox, Safe</t>
+        </is>
+      </c>
+      <c r="U20" s="140" t="inlineStr">
+        <is>
+          <t>1.0 stars, 0 reviews</t>
+        </is>
+      </c>
+      <c r="V20" s="140" t="inlineStr">
+        <is>
+          <t>Источник данных</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="139" t="n">
         <v>11</v>
       </c>
-      <c r="B21" s="141" t="n"/>
-      <c r="C21" s="141" t="n"/>
-      <c r="D21" s="141" t="n"/>
-      <c r="E21" s="141" t="n"/>
+      <c r="B21" s="185" t="inlineStr">
+        <is>
+          <t>Lumbung Taman Sekumpul  Hidden Waterfall</t>
+        </is>
+      </c>
+      <c r="C21" s="185" t="inlineStr">
+        <is>
+          <t>map</t>
+        </is>
+      </c>
+      <c r="D21" s="141" t="inlineStr">
+        <is>
+          <t>Barn</t>
+        </is>
+      </c>
+      <c r="E21" s="141" t="n">
+        <v>1</v>
+      </c>
       <c r="F21" s="141" t="n"/>
       <c r="G21" s="141" t="n"/>
       <c r="H21" s="141" t="n"/>
       <c r="I21" s="141" t="n"/>
-      <c r="J21" s="141" t="n"/>
+      <c r="J21" s="141" t="n">
+        <v>240</v>
+      </c>
       <c r="K21" s="141" t="n"/>
-      <c r="L21" s="141" t="n"/>
-      <c r="M21" s="141" t="n"/>
-      <c r="N21" s="141" t="n"/>
+      <c r="L21" s="141" t="inlineStr"/>
+      <c r="M21" s="141" t="inlineStr">
+        <is>
+          <t>Free parking on premises</t>
+        </is>
+      </c>
+      <c r="N21" s="141" t="inlineStr"/>
       <c r="O21" s="141" t="n"/>
-      <c r="P21" s="141" t="n"/>
-      <c r="Q21" s="141" t="n"/>
-      <c r="R21" s="141" t="n"/>
-      <c r="S21" s="141" t="n"/>
-      <c r="T21" s="141" t="n"/>
-      <c r="U21" s="140" t="n"/>
-      <c r="V21" s="140" t="n"/>
+      <c r="P21" s="141" t="inlineStr">
+        <is>
+          <t>kitchen</t>
+        </is>
+      </c>
+      <c r="Q21" s="141" t="inlineStr"/>
+      <c r="R21" s="141" t="inlineStr"/>
+      <c r="S21" s="141" t="inlineStr"/>
+      <c r="T21" s="141" t="inlineStr">
+        <is>
+          <t>Safe</t>
+        </is>
+      </c>
+      <c r="U21" s="140" t="inlineStr">
+        <is>
+          <t>1.0 stars, 0 reviews</t>
+        </is>
+      </c>
+      <c r="V21" s="140" t="inlineStr">
+        <is>
+          <t>Источник данных</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="139" t="n">
         <v>12</v>
       </c>
-      <c r="B22" s="141" t="n"/>
-      <c r="C22" s="141" t="n"/>
-      <c r="D22" s="141" t="n"/>
-      <c r="E22" s="141" t="n"/>
+      <c r="B22" s="185" t="inlineStr">
+        <is>
+          <t>Near Batu Bolong Beach Only 350M</t>
+        </is>
+      </c>
+      <c r="C22" s="185" t="inlineStr">
+        <is>
+          <t>map</t>
+        </is>
+      </c>
+      <c r="D22" s="141" t="inlineStr">
+        <is>
+          <t>Home</t>
+        </is>
+      </c>
+      <c r="E22" s="141" t="n">
+        <v>10</v>
+      </c>
       <c r="F22" s="141" t="n"/>
       <c r="G22" s="141" t="n"/>
       <c r="H22" s="141" t="n"/>
       <c r="I22" s="141" t="n"/>
-      <c r="J22" s="141" t="n"/>
+      <c r="J22" s="141" t="n">
+        <v>330</v>
+      </c>
       <c r="K22" s="141" t="n"/>
-      <c r="L22" s="141" t="n"/>
-      <c r="M22" s="141" t="n"/>
-      <c r="N22" s="141" t="n"/>
-      <c r="O22" s="141" t="n"/>
-      <c r="P22" s="141" t="n"/>
-      <c r="Q22" s="141" t="n"/>
-      <c r="R22" s="141" t="n"/>
-      <c r="S22" s="141" t="n"/>
-      <c r="T22" s="141" t="n"/>
-      <c r="U22" s="140" t="n"/>
-      <c r="V22" s="140" t="n"/>
+      <c r="L22" s="141" t="inlineStr"/>
+      <c r="M22" s="141" t="inlineStr">
+        <is>
+          <t>Free parking on premises</t>
+        </is>
+      </c>
+      <c r="N22" s="141" t="inlineStr"/>
+      <c r="O22" s="141" t="n">
+        <v>10</v>
+      </c>
+      <c r="P22" s="141" t="inlineStr">
+        <is>
+          <t>kitchen</t>
+        </is>
+      </c>
+      <c r="Q22" s="141" t="inlineStr"/>
+      <c r="R22" s="141" t="inlineStr"/>
+      <c r="S22" s="141" t="inlineStr">
+        <is>
+          <t>Outdoor dining area</t>
+        </is>
+      </c>
+      <c r="T22" s="141" t="inlineStr"/>
+      <c r="U22" s="140" t="inlineStr">
+        <is>
+          <t>0.0 stars, 0 reviews</t>
+        </is>
+      </c>
+      <c r="V22" s="140" t="inlineStr">
+        <is>
+          <t>Источник данных</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="139" t="n">
         <v>13</v>
       </c>
-      <c r="B23" s="141" t="n"/>
-      <c r="C23" s="141" t="n"/>
-      <c r="D23" s="141" t="n"/>
-      <c r="E23" s="141" t="n"/>
+      <c r="B23" s="185" t="inlineStr">
+        <is>
+          <t>apartament (Ungasan) kecamatan kuta selatam.</t>
+        </is>
+      </c>
+      <c r="C23" s="185" t="inlineStr">
+        <is>
+          <t>map</t>
+        </is>
+      </c>
+      <c r="D23" s="141" t="inlineStr">
+        <is>
+          <t>Place</t>
+        </is>
+      </c>
+      <c r="E23" s="141" t="n">
+        <v>1</v>
+      </c>
       <c r="F23" s="141" t="n"/>
       <c r="G23" s="141" t="n"/>
       <c r="H23" s="141" t="n"/>
       <c r="I23" s="141" t="n"/>
-      <c r="J23" s="141" t="n"/>
+      <c r="J23" s="141" t="n">
+        <v>300</v>
+      </c>
       <c r="K23" s="141" t="n"/>
-      <c r="L23" s="141" t="n"/>
-      <c r="M23" s="141" t="n"/>
-      <c r="N23" s="141" t="n"/>
-      <c r="O23" s="141" t="n"/>
-      <c r="P23" s="141" t="n"/>
-      <c r="Q23" s="141" t="n"/>
-      <c r="R23" s="141" t="n"/>
-      <c r="S23" s="141" t="n"/>
-      <c r="T23" s="141" t="n"/>
-      <c r="U23" s="140" t="n"/>
-      <c r="V23" s="140" t="n"/>
+      <c r="L23" s="141" t="inlineStr"/>
+      <c r="M23" s="141" t="inlineStr">
+        <is>
+          <t>Free parking on premises</t>
+        </is>
+      </c>
+      <c r="N23" s="141" t="inlineStr"/>
+      <c r="O23" s="141" t="n">
+        <v>1</v>
+      </c>
+      <c r="P23" s="141" t="inlineStr">
+        <is>
+          <t>kitchen</t>
+        </is>
+      </c>
+      <c r="Q23" s="141" t="inlineStr"/>
+      <c r="R23" s="141" t="inlineStr"/>
+      <c r="S23" s="141" t="inlineStr"/>
+      <c r="T23" s="141" t="inlineStr"/>
+      <c r="U23" s="140" t="inlineStr">
+        <is>
+          <t>4.67 stars, 3 reviews</t>
+        </is>
+      </c>
+      <c r="V23" s="140" t="inlineStr">
+        <is>
+          <t>Источник данных</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="139" t="n">
         <v>14</v>
       </c>
-      <c r="B24" s="141" t="n"/>
-      <c r="C24" s="141" t="n"/>
-      <c r="D24" s="141" t="n"/>
-      <c r="E24" s="141" t="n"/>
+      <c r="B24" s="185" t="inlineStr">
+        <is>
+          <t>Munduktemu guest house</t>
+        </is>
+      </c>
+      <c r="C24" s="185" t="inlineStr">
+        <is>
+          <t>map</t>
+        </is>
+      </c>
+      <c r="D24" s="141" t="inlineStr">
+        <is>
+          <t>House</t>
+        </is>
+      </c>
+      <c r="E24" s="141" t="n">
+        <v>1</v>
+      </c>
       <c r="F24" s="141" t="n"/>
       <c r="G24" s="141" t="n"/>
       <c r="H24" s="141" t="n"/>
       <c r="I24" s="141" t="n"/>
-      <c r="J24" s="141" t="n"/>
+      <c r="J24" s="141" t="n">
+        <v>300</v>
+      </c>
       <c r="K24" s="141" t="n"/>
-      <c r="L24" s="141" t="n"/>
-      <c r="M24" s="141" t="n"/>
-      <c r="N24" s="141" t="n"/>
-      <c r="O24" s="141" t="n"/>
-      <c r="P24" s="141" t="n"/>
-      <c r="Q24" s="141" t="n"/>
-      <c r="R24" s="141" t="n"/>
-      <c r="S24" s="141" t="n"/>
-      <c r="T24" s="141" t="n"/>
-      <c r="U24" s="140" t="n"/>
-      <c r="V24" s="140" t="n"/>
+      <c r="L24" s="141" t="inlineStr"/>
+      <c r="M24" s="141" t="inlineStr">
+        <is>
+          <t>Free parking on premises</t>
+        </is>
+      </c>
+      <c r="N24" s="141" t="inlineStr"/>
+      <c r="O24" s="141" t="n">
+        <v>1</v>
+      </c>
+      <c r="P24" s="141" t="inlineStr"/>
+      <c r="Q24" s="141" t="inlineStr"/>
+      <c r="R24" s="141" t="inlineStr"/>
+      <c r="S24" s="141" t="inlineStr"/>
+      <c r="T24" s="141" t="inlineStr"/>
+      <c r="U24" s="140" t="inlineStr">
+        <is>
+          <t>0.0 stars, 0 reviews</t>
+        </is>
+      </c>
+      <c r="V24" s="140" t="inlineStr">
+        <is>
+          <t>Источник данных</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="139" t="n">
         <v>15</v>
       </c>
-      <c r="B25" s="141" t="n"/>
-      <c r="C25" s="141" t="n"/>
-      <c r="D25" s="141" t="n"/>
-      <c r="E25" s="141" t="n"/>
+      <c r="B25" s="185" t="inlineStr">
+        <is>
+          <t>Ubud Snug 1BR Studio</t>
+        </is>
+      </c>
+      <c r="C25" s="185" t="inlineStr">
+        <is>
+          <t>map</t>
+        </is>
+      </c>
+      <c r="D25" s="141" t="inlineStr">
+        <is>
+          <t>Place</t>
+        </is>
+      </c>
+      <c r="E25" s="141" t="n">
+        <v>1</v>
+      </c>
       <c r="F25" s="141" t="n"/>
       <c r="G25" s="141" t="n"/>
       <c r="H25" s="141" t="n"/>
       <c r="I25" s="141" t="n"/>
-      <c r="J25" s="141" t="n"/>
+      <c r="J25" s="141" t="n">
+        <v>27030</v>
+      </c>
       <c r="K25" s="141" t="n"/>
-      <c r="L25" s="141" t="n"/>
-      <c r="M25" s="141" t="n"/>
-      <c r="N25" s="141" t="n"/>
-      <c r="O25" s="141" t="n"/>
-      <c r="P25" s="141" t="n"/>
-      <c r="Q25" s="141" t="n"/>
-      <c r="R25" s="141" t="n"/>
-      <c r="S25" s="141" t="n"/>
-      <c r="T25" s="141" t="n"/>
-      <c r="U25" s="140" t="n"/>
-      <c r="V25" s="140" t="n"/>
+      <c r="L25" s="141" t="inlineStr"/>
+      <c r="M25" s="141" t="inlineStr">
+        <is>
+          <t>Free parking on premises</t>
+        </is>
+      </c>
+      <c r="N25" s="141" t="inlineStr"/>
+      <c r="O25" s="141" t="n">
+        <v>1</v>
+      </c>
+      <c r="P25" s="141" t="inlineStr">
+        <is>
+          <t>kitchen</t>
+        </is>
+      </c>
+      <c r="Q25" s="141" t="inlineStr">
+        <is>
+          <t>Dedicated workspace</t>
+        </is>
+      </c>
+      <c r="R25" s="141" t="inlineStr"/>
+      <c r="S25" s="141" t="inlineStr"/>
+      <c r="T25" s="141" t="inlineStr"/>
+      <c r="U25" s="140" t="inlineStr">
+        <is>
+          <t>0.0 stars, 0 reviews</t>
+        </is>
+      </c>
+      <c r="V25" s="140" t="inlineStr">
+        <is>
+          <t>Источник данных</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="139" t="n">
         <v>16</v>
       </c>
-      <c r="B26" s="141" t="n"/>
-      <c r="C26" s="141" t="n"/>
-      <c r="D26" s="141" t="n"/>
-      <c r="E26" s="141" t="n"/>
+      <c r="B26" s="185" t="inlineStr">
+        <is>
+          <t>Backpacker Homestay Denpasar</t>
+        </is>
+      </c>
+      <c r="C26" s="185" t="inlineStr">
+        <is>
+          <t>map</t>
+        </is>
+      </c>
+      <c r="D26" s="141" t="inlineStr">
+        <is>
+          <t>Home</t>
+        </is>
+      </c>
+      <c r="E26" s="141" t="n">
+        <v>1</v>
+      </c>
       <c r="F26" s="141" t="n"/>
       <c r="G26" s="141" t="n"/>
       <c r="H26" s="141" t="n"/>
       <c r="I26" s="141" t="n"/>
-      <c r="J26" s="141" t="n"/>
+      <c r="J26" s="141" t="n">
+        <v>300</v>
+      </c>
       <c r="K26" s="141" t="n"/>
-      <c r="L26" s="141" t="n"/>
-      <c r="M26" s="141" t="n"/>
-      <c r="N26" s="141" t="n"/>
-      <c r="O26" s="141" t="n"/>
-      <c r="P26" s="141" t="n"/>
-      <c r="Q26" s="141" t="n"/>
-      <c r="R26" s="141" t="n"/>
-      <c r="S26" s="141" t="n"/>
-      <c r="T26" s="141" t="n"/>
-      <c r="U26" s="140" t="n"/>
-      <c r="V26" s="140" t="n"/>
+      <c r="L26" s="141" t="inlineStr"/>
+      <c r="M26" s="141" t="inlineStr"/>
+      <c r="N26" s="141" t="inlineStr"/>
+      <c r="O26" s="141" t="n">
+        <v>2</v>
+      </c>
+      <c r="P26" s="141" t="inlineStr">
+        <is>
+          <t>kitchen</t>
+        </is>
+      </c>
+      <c r="Q26" s="141" t="inlineStr"/>
+      <c r="R26" s="141" t="inlineStr"/>
+      <c r="S26" s="141" t="inlineStr"/>
+      <c r="T26" s="141" t="inlineStr"/>
+      <c r="U26" s="140" t="inlineStr">
+        <is>
+          <t>0.0 stars, 0 reviews</t>
+        </is>
+      </c>
+      <c r="V26" s="140" t="inlineStr">
+        <is>
+          <t>Источник данных</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="139" t="n">
         <v>17</v>
       </c>
-      <c r="B27" s="141" t="n"/>
-      <c r="C27" s="141" t="n"/>
-      <c r="D27" s="141" t="n"/>
-      <c r="E27" s="141" t="n"/>
+      <c r="B27" s="185" t="inlineStr">
+        <is>
+          <t>Nike house</t>
+        </is>
+      </c>
+      <c r="C27" s="185" t="inlineStr">
+        <is>
+          <t>map</t>
+        </is>
+      </c>
+      <c r="D27" s="141" t="inlineStr">
+        <is>
+          <t>Guesthouse</t>
+        </is>
+      </c>
+      <c r="E27" s="141" t="n">
+        <v>1</v>
+      </c>
       <c r="F27" s="141" t="n"/>
       <c r="G27" s="141" t="n"/>
       <c r="H27" s="141" t="n"/>
       <c r="I27" s="141" t="n"/>
-      <c r="J27" s="141" t="n"/>
+      <c r="J27" s="141" t="n">
+        <v>300</v>
+      </c>
       <c r="K27" s="141" t="n"/>
-      <c r="L27" s="141" t="n"/>
-      <c r="M27" s="141" t="n"/>
-      <c r="N27" s="141" t="n"/>
-      <c r="O27" s="141" t="n"/>
-      <c r="P27" s="141" t="n"/>
-      <c r="Q27" s="141" t="n"/>
-      <c r="R27" s="141" t="n"/>
-      <c r="S27" s="141" t="n"/>
-      <c r="T27" s="141" t="n"/>
-      <c r="U27" s="140" t="n"/>
-      <c r="V27" s="140" t="n"/>
+      <c r="L27" s="141" t="inlineStr"/>
+      <c r="M27" s="141" t="inlineStr">
+        <is>
+          <t>Street parking</t>
+        </is>
+      </c>
+      <c r="N27" s="141" t="inlineStr"/>
+      <c r="O27" s="141" t="n">
+        <v>1</v>
+      </c>
+      <c r="P27" s="141" t="inlineStr"/>
+      <c r="Q27" s="141" t="inlineStr"/>
+      <c r="R27" s="141" t="inlineStr"/>
+      <c r="S27" s="141" t="inlineStr"/>
+      <c r="T27" s="141" t="inlineStr"/>
+      <c r="U27" s="140" t="inlineStr">
+        <is>
+          <t>4.43 stars, 21 reviews</t>
+        </is>
+      </c>
+      <c r="V27" s="140" t="inlineStr">
+        <is>
+          <t>Источник данных</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="139" t="n">
         <v>18</v>
       </c>
-      <c r="B28" s="141" t="n"/>
-      <c r="C28" s="141" t="n"/>
-      <c r="D28" s="141" t="n"/>
-      <c r="E28" s="141" t="n"/>
+      <c r="B28" s="185" t="inlineStr">
+        <is>
+          <t>not avaible</t>
+        </is>
+      </c>
+      <c r="C28" s="185" t="inlineStr">
+        <is>
+          <t>map</t>
+        </is>
+      </c>
+      <c r="D28" s="141" t="inlineStr">
+        <is>
+          <t>Guesthouse</t>
+        </is>
+      </c>
+      <c r="E28" s="141" t="n">
+        <v>1</v>
+      </c>
       <c r="F28" s="141" t="n"/>
       <c r="G28" s="141" t="n"/>
       <c r="H28" s="141" t="n"/>
       <c r="I28" s="141" t="n"/>
-      <c r="J28" s="141" t="n"/>
+      <c r="J28" s="141" t="n">
+        <v>300</v>
+      </c>
       <c r="K28" s="141" t="n"/>
-      <c r="L28" s="141" t="n"/>
-      <c r="M28" s="141" t="n"/>
-      <c r="N28" s="141" t="n"/>
-      <c r="O28" s="141" t="n"/>
-      <c r="P28" s="141" t="n"/>
-      <c r="Q28" s="141" t="n"/>
-      <c r="R28" s="141" t="n"/>
-      <c r="S28" s="141" t="n"/>
-      <c r="T28" s="141" t="n"/>
-      <c r="U28" s="140" t="n"/>
-      <c r="V28" s="140" t="n"/>
+      <c r="L28" s="141" t="inlineStr"/>
+      <c r="M28" s="141" t="inlineStr">
+        <is>
+          <t>Free parking on premises</t>
+        </is>
+      </c>
+      <c r="N28" s="141" t="inlineStr"/>
+      <c r="O28" s="141" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="P28" s="141" t="inlineStr">
+        <is>
+          <t>kitchen</t>
+        </is>
+      </c>
+      <c r="Q28" s="141" t="inlineStr">
+        <is>
+          <t>Dedicated workspace</t>
+        </is>
+      </c>
+      <c r="R28" s="141" t="inlineStr"/>
+      <c r="S28" s="141" t="inlineStr"/>
+      <c r="T28" s="141" t="inlineStr"/>
+      <c r="U28" s="140" t="inlineStr">
+        <is>
+          <t>0.0 stars, 0 reviews</t>
+        </is>
+      </c>
+      <c r="V28" s="140" t="inlineStr">
+        <is>
+          <t>Источник данных</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="139" t="n">
         <v>19</v>
       </c>
-      <c r="B29" s="141" t="n"/>
-      <c r="C29" s="141" t="n"/>
-      <c r="D29" s="141" t="n"/>
-      <c r="E29" s="141" t="n"/>
+      <c r="B29" s="185" t="inlineStr">
+        <is>
+          <t>Head Priest and Balinese Healer</t>
+        </is>
+      </c>
+      <c r="C29" s="185" t="inlineStr">
+        <is>
+          <t>map</t>
+        </is>
+      </c>
+      <c r="D29" s="141" t="inlineStr">
+        <is>
+          <t>Guesthouse</t>
+        </is>
+      </c>
+      <c r="E29" s="141" t="n">
+        <v>1</v>
+      </c>
       <c r="F29" s="141" t="n"/>
       <c r="G29" s="141" t="n"/>
       <c r="H29" s="141" t="n"/>
       <c r="I29" s="141" t="n"/>
-      <c r="J29" s="141" t="n"/>
+      <c r="J29" s="141" t="n">
+        <v>300</v>
+      </c>
       <c r="K29" s="141" t="n"/>
-      <c r="L29" s="141" t="n"/>
-      <c r="M29" s="141" t="n"/>
-      <c r="N29" s="141" t="n"/>
-      <c r="O29" s="141" t="n"/>
-      <c r="P29" s="141" t="n"/>
-      <c r="Q29" s="141" t="n"/>
-      <c r="R29" s="141" t="n"/>
-      <c r="S29" s="141" t="n"/>
-      <c r="T29" s="141" t="n"/>
-      <c r="U29" s="140" t="n"/>
-      <c r="V29" s="140" t="n"/>
+      <c r="L29" s="141" t="inlineStr"/>
+      <c r="M29" s="141" t="inlineStr">
+        <is>
+          <t>Free parking on premises</t>
+        </is>
+      </c>
+      <c r="N29" s="141" t="inlineStr"/>
+      <c r="O29" s="141" t="n">
+        <v>1</v>
+      </c>
+      <c r="P29" s="141" t="inlineStr">
+        <is>
+          <t>kitchen</t>
+        </is>
+      </c>
+      <c r="Q29" s="141" t="inlineStr"/>
+      <c r="R29" s="141" t="inlineStr"/>
+      <c r="S29" s="141" t="inlineStr"/>
+      <c r="T29" s="141" t="inlineStr">
+        <is>
+          <t>Safe</t>
+        </is>
+      </c>
+      <c r="U29" s="140" t="inlineStr">
+        <is>
+          <t>0.0 stars, 0 reviews</t>
+        </is>
+      </c>
+      <c r="V29" s="140" t="inlineStr">
+        <is>
+          <t>Источник данных</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="139" t="n">
         <v>20</v>
       </c>
-      <c r="B30" s="141" t="n"/>
-      <c r="C30" s="141" t="n"/>
-      <c r="D30" s="141" t="n"/>
-      <c r="E30" s="141" t="n"/>
+      <c r="B30" s="185" t="inlineStr">
+        <is>
+          <t>camping</t>
+        </is>
+      </c>
+      <c r="C30" s="185" t="inlineStr">
+        <is>
+          <t>map</t>
+        </is>
+      </c>
+      <c r="D30" s="141" t="inlineStr">
+        <is>
+          <t>Tent</t>
+        </is>
+      </c>
+      <c r="E30" s="141" t="n">
+        <v>0</v>
+      </c>
       <c r="F30" s="141" t="n"/>
       <c r="G30" s="141" t="n"/>
       <c r="H30" s="141" t="n"/>
       <c r="I30" s="141" t="n"/>
-      <c r="J30" s="141" t="n"/>
+      <c r="J30" s="141" t="n">
+        <v>300</v>
+      </c>
       <c r="K30" s="141" t="n"/>
-      <c r="L30" s="141" t="n"/>
-      <c r="M30" s="141" t="n"/>
-      <c r="N30" s="141" t="n"/>
-      <c r="O30" s="141" t="n"/>
-      <c r="P30" s="141" t="n"/>
-      <c r="Q30" s="141" t="n"/>
-      <c r="R30" s="141" t="n"/>
-      <c r="S30" s="141" t="n"/>
-      <c r="T30" s="141" t="n"/>
-      <c r="U30" s="140" t="n"/>
-      <c r="V30" s="140" t="n"/>
+      <c r="L30" s="141" t="inlineStr"/>
+      <c r="M30" s="141" t="inlineStr"/>
+      <c r="N30" s="141" t="inlineStr"/>
+      <c r="O30" s="141" t="n">
+        <v>1</v>
+      </c>
+      <c r="P30" s="141" t="inlineStr"/>
+      <c r="Q30" s="141" t="inlineStr"/>
+      <c r="R30" s="141" t="inlineStr"/>
+      <c r="S30" s="141" t="inlineStr">
+        <is>
+          <t>Outdoor dining area</t>
+        </is>
+      </c>
+      <c r="T30" s="141" t="inlineStr">
+        <is>
+          <t>Safe</t>
+        </is>
+      </c>
+      <c r="U30" s="140" t="inlineStr">
+        <is>
+          <t>0.0 stars, 0 reviews</t>
+        </is>
+      </c>
+      <c r="V30" s="140" t="inlineStr">
+        <is>
+          <t>Источник данных</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="139" t="n">
         <v>21</v>
       </c>
-      <c r="B31" s="141" t="n"/>
-      <c r="C31" s="141" t="n"/>
-      <c r="D31" s="141" t="n"/>
-      <c r="E31" s="141" t="n"/>
+      <c r="B31" s="185" t="inlineStr">
+        <is>
+          <t>BALIÀN JUNGLE  SURF  ACCOMODATION 3</t>
+        </is>
+      </c>
+      <c r="C31" s="185" t="inlineStr">
+        <is>
+          <t>map</t>
+        </is>
+      </c>
+      <c r="D31" s="141" t="inlineStr">
+        <is>
+          <t>Bungalow</t>
+        </is>
+      </c>
+      <c r="E31" s="141" t="n">
+        <v>1</v>
+      </c>
       <c r="F31" s="141" t="n"/>
       <c r="G31" s="141" t="n"/>
       <c r="H31" s="141" t="n"/>
       <c r="I31" s="141" t="n"/>
-      <c r="J31" s="141" t="n"/>
+      <c r="J31" s="141" t="n">
+        <v>300</v>
+      </c>
       <c r="K31" s="141" t="n"/>
-      <c r="L31" s="141" t="n"/>
-      <c r="M31" s="141" t="n"/>
-      <c r="N31" s="141" t="n"/>
-      <c r="O31" s="141" t="n"/>
-      <c r="P31" s="141" t="n"/>
-      <c r="Q31" s="141" t="n"/>
-      <c r="R31" s="141" t="n"/>
-      <c r="S31" s="141" t="n"/>
-      <c r="T31" s="141" t="n"/>
-      <c r="U31" s="140" t="n"/>
-      <c r="V31" s="140" t="n"/>
+      <c r="L31" s="141" t="inlineStr"/>
+      <c r="M31" s="141" t="inlineStr">
+        <is>
+          <t>Free parking on premises</t>
+        </is>
+      </c>
+      <c r="N31" s="141" t="inlineStr"/>
+      <c r="O31" s="141" t="n">
+        <v>1</v>
+      </c>
+      <c r="P31" s="141" t="inlineStr">
+        <is>
+          <t>kitchen</t>
+        </is>
+      </c>
+      <c r="Q31" s="141" t="inlineStr">
+        <is>
+          <t>Dedicated workspace</t>
+        </is>
+      </c>
+      <c r="R31" s="141" t="inlineStr"/>
+      <c r="S31" s="141" t="inlineStr">
+        <is>
+          <t>Outdoor dining area, Backyard</t>
+        </is>
+      </c>
+      <c r="T31" s="141" t="inlineStr">
+        <is>
+          <t>Safe</t>
+        </is>
+      </c>
+      <c r="U31" s="140" t="inlineStr">
+        <is>
+          <t>2.0 stars, 2 reviews</t>
+        </is>
+      </c>
+      <c r="V31" s="140" t="inlineStr">
+        <is>
+          <t>Источник данных</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="139" t="n">
         <v>22</v>
       </c>
-      <c r="B32" s="141" t="n"/>
-      <c r="C32" s="141" t="n"/>
-      <c r="D32" s="141" t="n"/>
-      <c r="E32" s="141" t="n"/>
+      <c r="B32" s="185" t="inlineStr">
+        <is>
+          <t>Angels Bali Homestay (Andělé Bali)</t>
+        </is>
+      </c>
+      <c r="C32" s="185" t="inlineStr">
+        <is>
+          <t>map</t>
+        </is>
+      </c>
+      <c r="D32" s="141" t="inlineStr">
+        <is>
+          <t>Guesthouse</t>
+        </is>
+      </c>
+      <c r="E32" s="141" t="n">
+        <v>1</v>
+      </c>
       <c r="F32" s="141" t="n"/>
       <c r="G32" s="141" t="n"/>
       <c r="H32" s="141" t="n"/>
       <c r="I32" s="141" t="n"/>
-      <c r="J32" s="141" t="n"/>
+      <c r="J32" s="141" t="n">
+        <v>300</v>
+      </c>
       <c r="K32" s="141" t="n"/>
-      <c r="L32" s="141" t="n"/>
-      <c r="M32" s="141" t="n"/>
-      <c r="N32" s="141" t="n"/>
-      <c r="O32" s="141" t="n"/>
-      <c r="P32" s="141" t="n"/>
-      <c r="Q32" s="141" t="n"/>
-      <c r="R32" s="141" t="n"/>
-      <c r="S32" s="141" t="n"/>
-      <c r="T32" s="141" t="n"/>
-      <c r="U32" s="140" t="n"/>
-      <c r="V32" s="140" t="n"/>
+      <c r="L32" s="141" t="inlineStr"/>
+      <c r="M32" s="141" t="inlineStr"/>
+      <c r="N32" s="141" t="inlineStr"/>
+      <c r="O32" s="141" t="n">
+        <v>1</v>
+      </c>
+      <c r="P32" s="141" t="inlineStr"/>
+      <c r="Q32" s="141" t="inlineStr"/>
+      <c r="R32" s="141" t="inlineStr"/>
+      <c r="S32" s="141" t="inlineStr"/>
+      <c r="T32" s="141" t="inlineStr"/>
+      <c r="U32" s="140" t="inlineStr">
+        <is>
+          <t>4.2 stars, 5 reviews</t>
+        </is>
+      </c>
+      <c r="V32" s="140" t="inlineStr">
+        <is>
+          <t>Источник данных</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="139" t="n">
         <v>23</v>
       </c>
-      <c r="B33" s="141" t="n"/>
-      <c r="C33" s="141" t="n"/>
-      <c r="D33" s="141" t="n"/>
-      <c r="E33" s="141" t="n"/>
-      <c r="F33" s="141" t="n"/>
-      <c r="G33" s="141" t="n"/>
-      <c r="H33" s="141" t="n"/>
-      <c r="I33" s="141" t="n"/>
-      <c r="J33" s="141" t="n"/>
+      <c r="B33" s="185" t="inlineStr">
+        <is>
+          <t>Astiti Graha Cottage</t>
+        </is>
+      </c>
+      <c r="C33" s="185" t="inlineStr">
+        <is>
+          <t>map</t>
+        </is>
+      </c>
+      <c r="D33" s="141" t="inlineStr">
+        <is>
+          <t>Guesthouse</t>
+        </is>
+      </c>
+      <c r="E33" s="141" t="n">
+        <v>1</v>
+      </c>
+      <c r="F33" s="141" t="n">
+        <v>309</v>
+      </c>
+      <c r="G33" s="141" t="n">
+        <v>2601461</v>
+      </c>
+      <c r="H33" s="141" t="n">
+        <v>99.03</v>
+      </c>
+      <c r="I33" s="141" t="n">
+        <v>796064400</v>
+      </c>
+      <c r="J33" s="141" t="n">
+        <v>28410</v>
+      </c>
       <c r="K33" s="141" t="n"/>
-      <c r="L33" s="141" t="n"/>
-      <c r="M33" s="141" t="n"/>
-      <c r="N33" s="141" t="n"/>
-      <c r="O33" s="141" t="n"/>
-      <c r="P33" s="141" t="n"/>
-      <c r="Q33" s="141" t="n"/>
-      <c r="R33" s="141" t="n"/>
-      <c r="S33" s="141" t="n"/>
-      <c r="T33" s="141" t="n"/>
-      <c r="U33" s="140" t="n"/>
-      <c r="V33" s="140" t="n"/>
+      <c r="L33" s="141" t="inlineStr"/>
+      <c r="M33" s="141" t="inlineStr">
+        <is>
+          <t>Free parking on premises</t>
+        </is>
+      </c>
+      <c r="N33" s="141" t="inlineStr"/>
+      <c r="O33" s="141" t="n">
+        <v>1</v>
+      </c>
+      <c r="P33" s="141" t="inlineStr"/>
+      <c r="Q33" s="141" t="inlineStr"/>
+      <c r="R33" s="141" t="inlineStr"/>
+      <c r="S33" s="141" t="inlineStr"/>
+      <c r="T33" s="141" t="inlineStr">
+        <is>
+          <t>Safe</t>
+        </is>
+      </c>
+      <c r="U33" s="140" t="inlineStr">
+        <is>
+          <t>0.0 stars, 0 reviews</t>
+        </is>
+      </c>
+      <c r="V33" s="140" t="inlineStr">
+        <is>
+          <t>Источник данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>24</v>
+      </c>
+      <c r="B34" s="186" t="inlineStr">
+        <is>
+          <t>trisna garden room upstair 2</t>
+        </is>
+      </c>
+      <c r="C34" s="186" t="inlineStr">
+        <is>
+          <t>map</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>Place</t>
+        </is>
+      </c>
+      <c r="E34" t="n">
+        <v>1</v>
+      </c>
+      <c r="J34" t="n">
+        <v>300</v>
+      </c>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>Courtyard view, Garden view, Park view</t>
+        </is>
+      </c>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>Free parking on premises</t>
+        </is>
+      </c>
+      <c r="N34" t="inlineStr"/>
+      <c r="O34" t="n">
+        <v>1</v>
+      </c>
+      <c r="P34" t="inlineStr">
+        <is>
+          <t>kitchen</t>
+        </is>
+      </c>
+      <c r="Q34" t="inlineStr">
+        <is>
+          <t>Dedicated workspace</t>
+        </is>
+      </c>
+      <c r="R34" t="inlineStr"/>
+      <c r="S34" t="inlineStr">
+        <is>
+          <t>Outdoor dining area, Patio or balcony, Backyard</t>
+        </is>
+      </c>
+      <c r="T34" t="inlineStr">
+        <is>
+          <t>Safe</t>
+        </is>
+      </c>
+      <c r="U34" t="inlineStr">
+        <is>
+          <t>3.67 stars, 3 reviews</t>
+        </is>
+      </c>
+      <c r="V34" t="inlineStr">
+        <is>
+          <t>Источник данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>25</v>
+      </c>
+      <c r="B35" s="186" t="inlineStr">
+        <is>
+          <t>Promo last minute Studio in heart of Denpasar</t>
+        </is>
+      </c>
+      <c r="C35" s="186" t="inlineStr">
+        <is>
+          <t>map</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>Place</t>
+        </is>
+      </c>
+      <c r="E35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>300</v>
+      </c>
+      <c r="L35" t="inlineStr"/>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>Free parking on premises</t>
+        </is>
+      </c>
+      <c r="N35" t="inlineStr"/>
+      <c r="O35" t="n">
+        <v>1</v>
+      </c>
+      <c r="P35" t="inlineStr"/>
+      <c r="Q35" t="inlineStr"/>
+      <c r="R35" t="inlineStr"/>
+      <c r="S35" t="inlineStr">
+        <is>
+          <t>Patio or balcony</t>
+        </is>
+      </c>
+      <c r="T35" t="inlineStr"/>
+      <c r="U35" t="inlineStr">
+        <is>
+          <t>0.0 stars, 0 reviews</t>
+        </is>
+      </c>
+      <c r="V35" t="inlineStr">
+        <is>
+          <t>Источник данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>26</v>
+      </c>
+      <c r="B36" s="186" t="inlineStr">
+        <is>
+          <t>Stay With Pure local People in Balinese community</t>
+        </is>
+      </c>
+      <c r="C36" s="186" t="inlineStr">
+        <is>
+          <t>map</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>Home</t>
+        </is>
+      </c>
+      <c r="E36" t="n">
+        <v>1</v>
+      </c>
+      <c r="J36" t="n">
+        <v>300</v>
+      </c>
+      <c r="L36" t="inlineStr"/>
+      <c r="M36" t="inlineStr"/>
+      <c r="N36" t="inlineStr"/>
+      <c r="O36" t="n">
+        <v>1</v>
+      </c>
+      <c r="P36" t="inlineStr">
+        <is>
+          <t>kitchen</t>
+        </is>
+      </c>
+      <c r="Q36" t="inlineStr">
+        <is>
+          <t>Dedicated workspace</t>
+        </is>
+      </c>
+      <c r="R36" t="inlineStr"/>
+      <c r="S36" t="inlineStr">
+        <is>
+          <t>Patio or balcony, Backyard</t>
+        </is>
+      </c>
+      <c r="T36" t="inlineStr"/>
+      <c r="U36" t="inlineStr">
+        <is>
+          <t>5.0 stars, 5 reviews</t>
+        </is>
+      </c>
+      <c r="V36" t="inlineStr">
+        <is>
+          <t>Источник данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>27</v>
+      </c>
+      <c r="B37" s="186" t="inlineStr">
+        <is>
+          <t>kecag kecog guest house no:2</t>
+        </is>
+      </c>
+      <c r="C37" s="186" t="inlineStr">
+        <is>
+          <t>map</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>House</t>
+        </is>
+      </c>
+      <c r="E37" t="n">
+        <v>1</v>
+      </c>
+      <c r="J37" t="n">
+        <v>330</v>
+      </c>
+      <c r="L37" t="inlineStr"/>
+      <c r="M37" t="inlineStr"/>
+      <c r="N37" t="inlineStr"/>
+      <c r="O37" t="n">
+        <v>1</v>
+      </c>
+      <c r="P37" t="inlineStr"/>
+      <c r="Q37" t="inlineStr"/>
+      <c r="R37" t="inlineStr"/>
+      <c r="S37" t="inlineStr"/>
+      <c r="T37" t="inlineStr"/>
+      <c r="U37" t="inlineStr">
+        <is>
+          <t>1.0 stars, 0 reviews</t>
+        </is>
+      </c>
+      <c r="V37" t="inlineStr">
+        <is>
+          <t>Источник данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>28</v>
+      </c>
+      <c r="B38" s="186" t="inlineStr">
+        <is>
+          <t>Bahtera Guest House 2</t>
+        </is>
+      </c>
+      <c r="C38" s="186" t="inlineStr">
+        <is>
+          <t>map</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>House</t>
+        </is>
+      </c>
+      <c r="E38" t="n">
+        <v>1</v>
+      </c>
+      <c r="J38" t="n">
+        <v>330</v>
+      </c>
+      <c r="L38" t="inlineStr"/>
+      <c r="M38" t="inlineStr"/>
+      <c r="N38" t="inlineStr"/>
+      <c r="O38" t="n">
+        <v>1</v>
+      </c>
+      <c r="P38" t="inlineStr"/>
+      <c r="Q38" t="inlineStr">
+        <is>
+          <t>Dedicated workspace</t>
+        </is>
+      </c>
+      <c r="R38" t="inlineStr"/>
+      <c r="S38" t="inlineStr"/>
+      <c r="T38" t="inlineStr">
+        <is>
+          <t>Safe</t>
+        </is>
+      </c>
+      <c r="U38" t="inlineStr">
+        <is>
+          <t>5.0 stars, 3 reviews</t>
+        </is>
+      </c>
+      <c r="V38" t="inlineStr">
+        <is>
+          <t>Источник данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>29</v>
+      </c>
+      <c r="B39" s="186" t="inlineStr">
+        <is>
+          <t>Canggu 77 Guest House (1)</t>
+        </is>
+      </c>
+      <c r="C39" s="186" t="inlineStr">
+        <is>
+          <t>map</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>House</t>
+        </is>
+      </c>
+      <c r="E39" t="n">
+        <v>1</v>
+      </c>
+      <c r="J39" t="n">
+        <v>31170</v>
+      </c>
+      <c r="L39" t="inlineStr"/>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>Free parking on premises</t>
+        </is>
+      </c>
+      <c r="N39" t="inlineStr"/>
+      <c r="O39" t="n">
+        <v>1</v>
+      </c>
+      <c r="P39" t="inlineStr">
+        <is>
+          <t>kitchen</t>
+        </is>
+      </c>
+      <c r="Q39" t="inlineStr"/>
+      <c r="R39" t="inlineStr"/>
+      <c r="S39" t="inlineStr"/>
+      <c r="T39" t="inlineStr">
+        <is>
+          <t>Safe</t>
+        </is>
+      </c>
+      <c r="U39" t="inlineStr">
+        <is>
+          <t>3.6 stars, 5 reviews</t>
+        </is>
+      </c>
+      <c r="V39" t="inlineStr">
+        <is>
+          <t>Источник данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>30</v>
+      </c>
+      <c r="B40" s="186" t="inlineStr">
+        <is>
+          <t>Private artsy place in sanur</t>
+        </is>
+      </c>
+      <c r="C40" s="186" t="inlineStr">
+        <is>
+          <t>map</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>Place</t>
+        </is>
+      </c>
+      <c r="E40" t="n">
+        <v>1</v>
+      </c>
+      <c r="J40" t="n">
+        <v>330</v>
+      </c>
+      <c r="L40" t="inlineStr"/>
+      <c r="M40" t="inlineStr"/>
+      <c r="N40" t="inlineStr"/>
+      <c r="O40" t="n">
+        <v>1</v>
+      </c>
+      <c r="P40" t="inlineStr"/>
+      <c r="Q40" t="inlineStr">
+        <is>
+          <t>Dedicated workspace</t>
+        </is>
+      </c>
+      <c r="R40" t="inlineStr"/>
+      <c r="S40" t="inlineStr">
+        <is>
+          <t>Patio or balcony</t>
+        </is>
+      </c>
+      <c r="T40" t="inlineStr"/>
+      <c r="U40" t="inlineStr">
+        <is>
+          <t>5.0 stars, 3 reviews</t>
+        </is>
+      </c>
+      <c r="V40" t="inlineStr">
+        <is>
+          <t>Источник данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>31</v>
+      </c>
+      <c r="B41" s="186" t="inlineStr">
+        <is>
+          <t>Kamar Murah Tince</t>
+        </is>
+      </c>
+      <c r="C41" s="186" t="inlineStr">
+        <is>
+          <t>map</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>Home</t>
+        </is>
+      </c>
+      <c r="E41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>300</v>
+      </c>
+      <c r="L41" t="inlineStr"/>
+      <c r="M41" t="inlineStr"/>
+      <c r="N41" t="inlineStr"/>
+      <c r="O41" t="n">
+        <v>1</v>
+      </c>
+      <c r="P41" t="inlineStr"/>
+      <c r="Q41" t="inlineStr"/>
+      <c r="R41" t="inlineStr"/>
+      <c r="S41" t="inlineStr"/>
+      <c r="T41" t="inlineStr"/>
+      <c r="U41" t="inlineStr">
+        <is>
+          <t>0.0 stars, 0 reviews</t>
+        </is>
+      </c>
+      <c r="V41" t="inlineStr">
+        <is>
+          <t>Источник данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>32</v>
+      </c>
+      <c r="B42" s="186" t="inlineStr">
+        <is>
+          <t>OMAN House - 1 BR house in Balinese compound</t>
+        </is>
+      </c>
+      <c r="C42" s="186" t="inlineStr">
+        <is>
+          <t>map</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>House</t>
+        </is>
+      </c>
+      <c r="E42" t="n">
+        <v>1</v>
+      </c>
+      <c r="J42" t="n">
+        <v>30270</v>
+      </c>
+      <c r="L42" t="inlineStr"/>
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>Free parking on premises, Street parking</t>
+        </is>
+      </c>
+      <c r="N42" t="inlineStr"/>
+      <c r="O42" t="n">
+        <v>1</v>
+      </c>
+      <c r="P42" t="inlineStr">
+        <is>
+          <t>kitchen</t>
+        </is>
+      </c>
+      <c r="Q42" t="inlineStr"/>
+      <c r="R42" t="inlineStr"/>
+      <c r="S42" t="inlineStr">
+        <is>
+          <t>Patio or balcony, Backyard</t>
+        </is>
+      </c>
+      <c r="T42" t="inlineStr">
+        <is>
+          <t>Safe</t>
+        </is>
+      </c>
+      <c r="U42" t="inlineStr">
+        <is>
+          <t>4.56 stars, 39 reviews</t>
+        </is>
+      </c>
+      <c r="V42" t="inlineStr">
+        <is>
+          <t>Источник данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>33</v>
+      </c>
+      <c r="B43" s="186" t="inlineStr">
+        <is>
+          <t>Ketut's House</t>
+        </is>
+      </c>
+      <c r="C43" s="186" t="inlineStr">
+        <is>
+          <t>map</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>House</t>
+        </is>
+      </c>
+      <c r="E43" t="n">
+        <v>1</v>
+      </c>
+      <c r="J43" t="n">
+        <v>30270</v>
+      </c>
+      <c r="L43" t="inlineStr"/>
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>Free parking on premises</t>
+        </is>
+      </c>
+      <c r="N43" t="inlineStr"/>
+      <c r="O43" t="n">
+        <v>1</v>
+      </c>
+      <c r="P43" t="inlineStr">
+        <is>
+          <t>kitchen</t>
+        </is>
+      </c>
+      <c r="Q43" t="inlineStr">
+        <is>
+          <t>Dedicated workspace</t>
+        </is>
+      </c>
+      <c r="R43" t="inlineStr"/>
+      <c r="S43" t="inlineStr"/>
+      <c r="T43" t="inlineStr"/>
+      <c r="U43" t="inlineStr">
+        <is>
+          <t>1.0 stars, 0 reviews</t>
+        </is>
+      </c>
+      <c r="V43" t="inlineStr">
+        <is>
+          <t>Источник данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>34</v>
+      </c>
+      <c r="B44" s="186" t="inlineStr">
+        <is>
+          <t>Canggu 77 Guest House (2)</t>
+        </is>
+      </c>
+      <c r="C44" s="186" t="inlineStr">
+        <is>
+          <t>map</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>House</t>
+        </is>
+      </c>
+      <c r="E44" t="n">
+        <v>1</v>
+      </c>
+      <c r="J44" t="n">
+        <v>330</v>
+      </c>
+      <c r="L44" t="inlineStr"/>
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>Free parking on premises</t>
+        </is>
+      </c>
+      <c r="N44" t="inlineStr"/>
+      <c r="O44" t="n">
+        <v>1</v>
+      </c>
+      <c r="P44" t="inlineStr">
+        <is>
+          <t>kitchen</t>
+        </is>
+      </c>
+      <c r="Q44" t="inlineStr"/>
+      <c r="R44" t="inlineStr"/>
+      <c r="S44" t="inlineStr"/>
+      <c r="T44" t="inlineStr">
+        <is>
+          <t>Safe</t>
+        </is>
+      </c>
+      <c r="U44" t="inlineStr">
+        <is>
+          <t>3.4 stars, 5 reviews</t>
+        </is>
+      </c>
+      <c r="V44" t="inlineStr">
+        <is>
+          <t>Источник данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>35</v>
+      </c>
+      <c r="B45" s="186" t="inlineStr">
+        <is>
+          <t>Rajapala garden bungalow #1</t>
+        </is>
+      </c>
+      <c r="C45" s="186" t="inlineStr">
+        <is>
+          <t>map</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>Bungalow</t>
+        </is>
+      </c>
+      <c r="E45" t="n">
+        <v>1</v>
+      </c>
+      <c r="J45" t="n">
+        <v>360</v>
+      </c>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>Garden view, Beach view, Ocean view</t>
+        </is>
+      </c>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>Free parking on premises</t>
+        </is>
+      </c>
+      <c r="N45" t="inlineStr"/>
+      <c r="O45" t="n">
+        <v>1</v>
+      </c>
+      <c r="P45" t="inlineStr">
+        <is>
+          <t>kitchen</t>
+        </is>
+      </c>
+      <c r="Q45" t="inlineStr">
+        <is>
+          <t>Dedicated workspace</t>
+        </is>
+      </c>
+      <c r="R45" t="inlineStr"/>
+      <c r="S45" t="inlineStr">
+        <is>
+          <t>Outdoor dining area, Patio or balcony, Backyard</t>
+        </is>
+      </c>
+      <c r="T45" t="inlineStr"/>
+      <c r="U45" t="inlineStr">
+        <is>
+          <t>4.45 stars, 11 reviews</t>
+        </is>
+      </c>
+      <c r="V45" t="inlineStr">
+        <is>
+          <t>Источник данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>36</v>
+      </c>
+      <c r="B46" s="186" t="inlineStr">
+        <is>
+          <t>Rajapala Garden Bamboo Bungalow #2</t>
+        </is>
+      </c>
+      <c r="C46" s="186" t="inlineStr">
+        <is>
+          <t>map</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>Bungalow</t>
+        </is>
+      </c>
+      <c r="E46" t="n">
+        <v>2</v>
+      </c>
+      <c r="J46" t="n">
+        <v>31560</v>
+      </c>
+      <c r="L46" t="inlineStr"/>
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>Free parking on premises</t>
+        </is>
+      </c>
+      <c r="N46" t="inlineStr"/>
+      <c r="O46" t="n">
+        <v>1</v>
+      </c>
+      <c r="P46" t="inlineStr">
+        <is>
+          <t>kitchen</t>
+        </is>
+      </c>
+      <c r="Q46" t="inlineStr">
+        <is>
+          <t>Dedicated workspace</t>
+        </is>
+      </c>
+      <c r="R46" t="inlineStr"/>
+      <c r="S46" t="inlineStr">
+        <is>
+          <t>Patio or balcony, Backyard</t>
+        </is>
+      </c>
+      <c r="T46" t="inlineStr"/>
+      <c r="U46" t="inlineStr">
+        <is>
+          <t>4.72 stars, 36 reviews</t>
+        </is>
+      </c>
+      <c r="V46" t="inlineStr">
+        <is>
+          <t>Источник данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>37</v>
+      </c>
+      <c r="B47" s="186" t="inlineStr">
+        <is>
+          <t>Sinar Bali 3</t>
+        </is>
+      </c>
+      <c r="C47" s="186" t="inlineStr">
+        <is>
+          <t>map</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>Home</t>
+        </is>
+      </c>
+      <c r="E47" t="n">
+        <v>1</v>
+      </c>
+      <c r="J47" t="n">
+        <v>28680</v>
+      </c>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>Garden view, Sea view, Beach view, Ocean view</t>
+        </is>
+      </c>
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>Free parking on premises, Street parking</t>
+        </is>
+      </c>
+      <c r="N47" t="inlineStr"/>
+      <c r="O47" t="n">
+        <v>1</v>
+      </c>
+      <c r="P47" t="inlineStr"/>
+      <c r="Q47" t="inlineStr"/>
+      <c r="R47" t="inlineStr"/>
+      <c r="S47" t="inlineStr">
+        <is>
+          <t>Patio or balcony, Backyard</t>
+        </is>
+      </c>
+      <c r="T47" t="inlineStr"/>
+      <c r="U47" t="inlineStr">
+        <is>
+          <t>0.0 stars, 0 reviews</t>
+        </is>
+      </c>
+      <c r="V47" t="inlineStr">
+        <is>
+          <t>Источник данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>38</v>
+      </c>
+      <c r="B48" s="186" t="inlineStr">
+        <is>
+          <t>DS Apartment ( under contruction)</t>
+        </is>
+      </c>
+      <c r="C48" s="186" t="inlineStr">
+        <is>
+          <t>map</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>Apartment</t>
+        </is>
+      </c>
+      <c r="E48" t="n">
+        <v>1</v>
+      </c>
+      <c r="J48" t="n">
+        <v>33030</v>
+      </c>
+      <c r="L48" t="inlineStr"/>
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>Free parking on premises</t>
+        </is>
+      </c>
+      <c r="N48" t="inlineStr"/>
+      <c r="O48" t="n">
+        <v>1</v>
+      </c>
+      <c r="P48" t="inlineStr">
+        <is>
+          <t>kitchen</t>
+        </is>
+      </c>
+      <c r="Q48" t="inlineStr"/>
+      <c r="R48" t="inlineStr"/>
+      <c r="S48" t="inlineStr">
+        <is>
+          <t>Outdoor dining area, Patio or balcony</t>
+        </is>
+      </c>
+      <c r="T48" t="inlineStr"/>
+      <c r="U48" t="inlineStr">
+        <is>
+          <t>1.0 stars, 0 reviews</t>
+        </is>
+      </c>
+      <c r="V48" t="inlineStr">
+        <is>
+          <t>Источник данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>39</v>
+      </c>
+      <c r="B49" s="186" t="inlineStr">
+        <is>
+          <t>minimalist room with green view</t>
+        </is>
+      </c>
+      <c r="C49" s="186" t="inlineStr">
+        <is>
+          <t>map</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>Home</t>
+        </is>
+      </c>
+      <c r="E49" t="n">
+        <v>1</v>
+      </c>
+      <c r="J49" t="n">
+        <v>360</v>
+      </c>
+      <c r="L49" t="inlineStr"/>
+      <c r="M49" t="inlineStr">
+        <is>
+          <t>Free parking on premises</t>
+        </is>
+      </c>
+      <c r="N49" t="inlineStr"/>
+      <c r="O49" t="n">
+        <v>1</v>
+      </c>
+      <c r="P49" t="inlineStr">
+        <is>
+          <t>kitchen</t>
+        </is>
+      </c>
+      <c r="Q49" t="inlineStr">
+        <is>
+          <t>Dedicated workspace</t>
+        </is>
+      </c>
+      <c r="R49" t="inlineStr"/>
+      <c r="S49" t="inlineStr">
+        <is>
+          <t>Outdoor dining area</t>
+        </is>
+      </c>
+      <c r="T49" t="inlineStr">
+        <is>
+          <t>Lockbox, Safe</t>
+        </is>
+      </c>
+      <c r="U49" t="inlineStr">
+        <is>
+          <t>5.0 stars, 4 reviews</t>
+        </is>
+      </c>
+      <c r="V49" t="inlineStr">
+        <is>
+          <t>Источник данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>40</v>
+      </c>
+      <c r="B50" s="186" t="inlineStr">
+        <is>
+          <t>BALIAN JUNGLE SURF ACCOMADATION 1</t>
+        </is>
+      </c>
+      <c r="C50" s="186" t="inlineStr">
+        <is>
+          <t>map</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>Home</t>
+        </is>
+      </c>
+      <c r="E50" t="n">
+        <v>1</v>
+      </c>
+      <c r="J50" t="n">
+        <v>360</v>
+      </c>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>Garden view, River view, Valley view</t>
+        </is>
+      </c>
+      <c r="M50" t="inlineStr">
+        <is>
+          <t>Free parking on premises</t>
+        </is>
+      </c>
+      <c r="N50" t="inlineStr"/>
+      <c r="O50" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="P50" t="inlineStr">
+        <is>
+          <t>kitchen</t>
+        </is>
+      </c>
+      <c r="Q50" t="inlineStr">
+        <is>
+          <t>Dedicated workspace</t>
+        </is>
+      </c>
+      <c r="R50" t="inlineStr"/>
+      <c r="S50" t="inlineStr">
+        <is>
+          <t>Patio or balcony, Backyard</t>
+        </is>
+      </c>
+      <c r="T50" t="inlineStr">
+        <is>
+          <t>Safe</t>
+        </is>
+      </c>
+      <c r="U50" t="inlineStr">
+        <is>
+          <t>4.74 stars, 19 reviews</t>
+        </is>
+      </c>
+      <c r="V50" t="inlineStr">
+        <is>
+          <t>Источник данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>41</v>
+      </c>
+      <c r="B51" s="186" t="inlineStr">
+        <is>
+          <t>Strategic &amp; Comfy Studio Room#9 - Near Kuta&amp;Canggu</t>
+        </is>
+      </c>
+      <c r="C51" s="186" t="inlineStr">
+        <is>
+          <t>map</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>Place</t>
+        </is>
+      </c>
+      <c r="E51" t="n">
+        <v>1</v>
+      </c>
+      <c r="J51" t="n">
+        <v>330</v>
+      </c>
+      <c r="L51" t="inlineStr"/>
+      <c r="M51" t="inlineStr">
+        <is>
+          <t>Free parking on premises</t>
+        </is>
+      </c>
+      <c r="N51" t="inlineStr"/>
+      <c r="O51" t="n">
+        <v>1</v>
+      </c>
+      <c r="P51" t="inlineStr">
+        <is>
+          <t>kitchen</t>
+        </is>
+      </c>
+      <c r="Q51" t="inlineStr">
+        <is>
+          <t>Dedicated workspace</t>
+        </is>
+      </c>
+      <c r="R51" t="inlineStr"/>
+      <c r="S51" t="inlineStr"/>
+      <c r="T51" t="inlineStr">
+        <is>
+          <t>Safe</t>
+        </is>
+      </c>
+      <c r="U51" t="inlineStr">
+        <is>
+          <t>5.05 stars, 8 reviews</t>
+        </is>
+      </c>
+      <c r="V51" t="inlineStr">
+        <is>
+          <t>Источник данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>42</v>
+      </c>
+      <c r="B52" s="186" t="inlineStr">
+        <is>
+          <t>Balinese Room in Sanur #5 -Kubu Angkangan Homestay</t>
+        </is>
+      </c>
+      <c r="C52" s="186" t="inlineStr">
+        <is>
+          <t>map</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>Home</t>
+        </is>
+      </c>
+      <c r="E52" t="n">
+        <v>1</v>
+      </c>
+      <c r="J52" t="n">
+        <v>330</v>
+      </c>
+      <c r="L52" t="inlineStr"/>
+      <c r="M52" t="inlineStr">
+        <is>
+          <t>Free parking on premises, Street parking</t>
+        </is>
+      </c>
+      <c r="N52" t="inlineStr"/>
+      <c r="O52" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="P52" t="inlineStr">
+        <is>
+          <t>kitchen</t>
+        </is>
+      </c>
+      <c r="Q52" t="inlineStr"/>
+      <c r="R52" t="inlineStr"/>
+      <c r="S52" t="inlineStr">
+        <is>
+          <t>Backyard</t>
+        </is>
+      </c>
+      <c r="T52" t="inlineStr">
+        <is>
+          <t>Lockbox, Safe</t>
+        </is>
+      </c>
+      <c r="U52" t="inlineStr">
+        <is>
+          <t>4.85 stars, 62 reviews</t>
+        </is>
+      </c>
+      <c r="V52" t="inlineStr">
+        <is>
+          <t>Источник данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>43</v>
+      </c>
+      <c r="B53" s="186" t="inlineStr">
+        <is>
+          <t>Self-contained ocean-view room in Lipah!</t>
+        </is>
+      </c>
+      <c r="C53" s="186" t="inlineStr">
+        <is>
+          <t>map</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>Place</t>
+        </is>
+      </c>
+      <c r="E53" t="n">
+        <v>0</v>
+      </c>
+      <c r="J53" t="n">
+        <v>390</v>
+      </c>
+      <c r="L53" t="inlineStr"/>
+      <c r="M53" t="inlineStr">
+        <is>
+          <t>Free parking on premises</t>
+        </is>
+      </c>
+      <c r="N53" t="inlineStr"/>
+      <c r="O53" t="n">
+        <v>1</v>
+      </c>
+      <c r="P53" t="inlineStr">
+        <is>
+          <t>kitchen</t>
+        </is>
+      </c>
+      <c r="Q53" t="inlineStr"/>
+      <c r="R53" t="inlineStr"/>
+      <c r="S53" t="inlineStr">
+        <is>
+          <t>Patio or balcony</t>
+        </is>
+      </c>
+      <c r="T53" t="inlineStr">
+        <is>
+          <t>Safe</t>
+        </is>
+      </c>
+      <c r="U53" t="inlineStr">
+        <is>
+          <t>4.56 stars, 18 reviews</t>
+        </is>
+      </c>
+      <c r="V53" t="inlineStr">
+        <is>
+          <t>Источник данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>44</v>
+      </c>
+      <c r="B54" s="186" t="inlineStr">
+        <is>
+          <t>Mandala Bungalows Ubud (room 1)</t>
+        </is>
+      </c>
+      <c r="C54" s="186" t="inlineStr">
+        <is>
+          <t>map</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>Bungalow</t>
+        </is>
+      </c>
+      <c r="E54" t="n">
+        <v>1</v>
+      </c>
+      <c r="J54" t="n">
+        <v>34650</v>
+      </c>
+      <c r="L54" t="inlineStr"/>
+      <c r="M54" t="inlineStr">
+        <is>
+          <t>Free parking on premises</t>
+        </is>
+      </c>
+      <c r="N54" t="inlineStr"/>
+      <c r="O54" t="n">
+        <v>1</v>
+      </c>
+      <c r="P54" t="inlineStr"/>
+      <c r="Q54" t="inlineStr">
+        <is>
+          <t>Dedicated workspace</t>
+        </is>
+      </c>
+      <c r="R54" t="inlineStr"/>
+      <c r="S54" t="inlineStr"/>
+      <c r="T54" t="inlineStr">
+        <is>
+          <t>Safe</t>
+        </is>
+      </c>
+      <c r="U54" t="inlineStr">
+        <is>
+          <t>4.73 stars, 84 reviews</t>
+        </is>
+      </c>
+      <c r="V54" t="inlineStr">
+        <is>
+          <t>Источник данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>45</v>
+      </c>
+      <c r="B55" s="186" t="inlineStr">
+        <is>
+          <t>Private room queen size bed* with garden view</t>
+        </is>
+      </c>
+      <c r="C55" s="186" t="inlineStr">
+        <is>
+          <t>map</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>Guesthouse</t>
+        </is>
+      </c>
+      <c r="E55" t="n">
+        <v>1</v>
+      </c>
+      <c r="J55" t="n">
+        <v>390</v>
+      </c>
+      <c r="L55" t="inlineStr"/>
+      <c r="M55" t="inlineStr">
+        <is>
+          <t>Free parking on premises</t>
+        </is>
+      </c>
+      <c r="N55" t="inlineStr"/>
+      <c r="O55" t="n">
+        <v>1</v>
+      </c>
+      <c r="P55" t="inlineStr"/>
+      <c r="Q55" t="inlineStr"/>
+      <c r="R55" t="inlineStr"/>
+      <c r="S55" t="inlineStr"/>
+      <c r="T55" t="inlineStr">
+        <is>
+          <t>Safe</t>
+        </is>
+      </c>
+      <c r="U55" t="inlineStr">
+        <is>
+          <t>4.83 stars, 36 reviews</t>
+        </is>
+      </c>
+      <c r="V55" t="inlineStr">
+        <is>
+          <t>Источник данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>46</v>
+      </c>
+      <c r="B56" s="186" t="inlineStr">
+        <is>
+          <t>Rumah Pelangi- Taman Mesari</t>
+        </is>
+      </c>
+      <c r="C56" s="186" t="inlineStr">
+        <is>
+          <t>map</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>Guesthouse</t>
+        </is>
+      </c>
+      <c r="E56" t="n">
+        <v>1</v>
+      </c>
+      <c r="J56" t="n">
+        <v>390</v>
+      </c>
+      <c r="L56" t="inlineStr"/>
+      <c r="M56" t="inlineStr"/>
+      <c r="N56" t="inlineStr"/>
+      <c r="O56" t="n">
+        <v>1</v>
+      </c>
+      <c r="P56" t="inlineStr">
+        <is>
+          <t>kitchen</t>
+        </is>
+      </c>
+      <c r="Q56" t="inlineStr"/>
+      <c r="R56" t="inlineStr"/>
+      <c r="S56" t="inlineStr"/>
+      <c r="T56" t="inlineStr"/>
+      <c r="U56" t="inlineStr">
+        <is>
+          <t>4.53 stars, 86 reviews</t>
+        </is>
+      </c>
+      <c r="V56" t="inlineStr">
+        <is>
+          <t>Источник данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>47</v>
+      </c>
+      <c r="B57" s="186" t="inlineStr">
+        <is>
+          <t>Sedana Apartemen</t>
+        </is>
+      </c>
+      <c r="C57" s="186" t="inlineStr">
+        <is>
+          <t>map</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>Place</t>
+        </is>
+      </c>
+      <c r="E57" t="n">
+        <v>1</v>
+      </c>
+      <c r="J57" t="n">
+        <v>390</v>
+      </c>
+      <c r="L57" t="inlineStr"/>
+      <c r="M57" t="inlineStr">
+        <is>
+          <t>Free parking on premises</t>
+        </is>
+      </c>
+      <c r="N57" t="inlineStr"/>
+      <c r="O57" t="n">
+        <v>1</v>
+      </c>
+      <c r="P57" t="inlineStr">
+        <is>
+          <t>kitchen</t>
+        </is>
+      </c>
+      <c r="Q57" t="inlineStr">
+        <is>
+          <t>Dedicated workspace</t>
+        </is>
+      </c>
+      <c r="R57" t="inlineStr"/>
+      <c r="S57" t="inlineStr"/>
+      <c r="T57" t="inlineStr"/>
+      <c r="U57" t="inlineStr">
+        <is>
+          <t>0.0 stars, 0 reviews</t>
+        </is>
+      </c>
+      <c r="V57" t="inlineStr">
+        <is>
+          <t>Источник данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>48</v>
+      </c>
+      <c r="B58" s="186" t="inlineStr">
+        <is>
+          <t>Jungle House - Budget Double room</t>
+        </is>
+      </c>
+      <c r="C58" s="186" t="inlineStr">
+        <is>
+          <t>map</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>House</t>
+        </is>
+      </c>
+      <c r="E58" t="n">
+        <v>1</v>
+      </c>
+      <c r="J58" t="n">
+        <v>390</v>
+      </c>
+      <c r="L58" t="inlineStr"/>
+      <c r="M58" t="inlineStr">
+        <is>
+          <t>Free parking on premises, Street parking</t>
+        </is>
+      </c>
+      <c r="N58" t="inlineStr"/>
+      <c r="O58" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="P58" t="inlineStr">
+        <is>
+          <t>kitchen</t>
+        </is>
+      </c>
+      <c r="Q58" t="inlineStr"/>
+      <c r="R58" t="inlineStr"/>
+      <c r="S58" t="inlineStr">
+        <is>
+          <t>Outdoor dining area, Patio or balcony, Backyard</t>
+        </is>
+      </c>
+      <c r="T58" t="inlineStr">
+        <is>
+          <t>Safe</t>
+        </is>
+      </c>
+      <c r="U58" t="inlineStr">
+        <is>
+          <t>4.5 stars, 10 reviews</t>
+        </is>
+      </c>
+      <c r="V58" t="inlineStr">
+        <is>
+          <t>Источник данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>49</v>
+      </c>
+      <c r="B59" s="186" t="inlineStr">
+        <is>
+          <t>Green sadri with wifi ,AC and kitchen</t>
+        </is>
+      </c>
+      <c r="C59" s="186" t="inlineStr">
+        <is>
+          <t>map</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>Bungalow</t>
+        </is>
+      </c>
+      <c r="E59" t="n">
+        <v>1</v>
+      </c>
+      <c r="J59" t="n">
+        <v>390</v>
+      </c>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>Courtyard view</t>
+        </is>
+      </c>
+      <c r="M59" t="inlineStr">
+        <is>
+          <t>Free parking on premises</t>
+        </is>
+      </c>
+      <c r="N59" t="inlineStr"/>
+      <c r="O59" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="P59" t="inlineStr">
+        <is>
+          <t>kitchen</t>
+        </is>
+      </c>
+      <c r="Q59" t="inlineStr">
+        <is>
+          <t>Dedicated workspace</t>
+        </is>
+      </c>
+      <c r="R59" t="inlineStr"/>
+      <c r="S59" t="inlineStr"/>
+      <c r="T59" t="inlineStr">
+        <is>
+          <t>Safe</t>
+        </is>
+      </c>
+      <c r="U59" t="inlineStr">
+        <is>
+          <t>4.71 stars, 21 reviews</t>
+        </is>
+      </c>
+      <c r="V59" t="inlineStr">
+        <is>
+          <t>Источник данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>50</v>
+      </c>
+      <c r="B60" s="186" t="inlineStr">
+        <is>
+          <t>Seaside Villa Bungallow Seraya</t>
+        </is>
+      </c>
+      <c r="C60" s="186" t="inlineStr">
+        <is>
+          <t>map</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>Guesthouse</t>
+        </is>
+      </c>
+      <c r="E60" t="n">
+        <v>1</v>
+      </c>
+      <c r="J60" t="n">
+        <v>34230</v>
+      </c>
+      <c r="L60" t="inlineStr"/>
+      <c r="M60" t="inlineStr"/>
+      <c r="N60" t="inlineStr"/>
+      <c r="O60" t="n">
+        <v>1</v>
+      </c>
+      <c r="P60" t="inlineStr">
+        <is>
+          <t>kitchen</t>
+        </is>
+      </c>
+      <c r="Q60" t="inlineStr"/>
+      <c r="R60" t="inlineStr"/>
+      <c r="S60" t="inlineStr">
+        <is>
+          <t>Outdoor dining area</t>
+        </is>
+      </c>
+      <c r="T60" t="inlineStr"/>
+      <c r="U60" t="inlineStr">
+        <is>
+          <t>1.0 stars, 0 reviews</t>
+        </is>
+      </c>
+      <c r="V60" t="inlineStr">
+        <is>
+          <t>Источник данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>51</v>
+      </c>
+      <c r="B61" s="186" t="inlineStr">
+        <is>
+          <t>Svaka Homestay Room No.1</t>
+        </is>
+      </c>
+      <c r="C61" s="186" t="inlineStr">
+        <is>
+          <t>map</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>Home</t>
+        </is>
+      </c>
+      <c r="E61" t="n">
+        <v>1</v>
+      </c>
+      <c r="J61" t="n">
+        <v>390</v>
+      </c>
+      <c r="L61" t="inlineStr"/>
+      <c r="M61" t="inlineStr"/>
+      <c r="N61" t="inlineStr"/>
+      <c r="O61" t="n">
+        <v>1</v>
+      </c>
+      <c r="P61" t="inlineStr">
+        <is>
+          <t>kitchen</t>
+        </is>
+      </c>
+      <c r="Q61" t="inlineStr">
+        <is>
+          <t>Dedicated workspace</t>
+        </is>
+      </c>
+      <c r="R61" t="inlineStr"/>
+      <c r="S61" t="inlineStr">
+        <is>
+          <t>Outdoor dining area</t>
+        </is>
+      </c>
+      <c r="T61" t="inlineStr">
+        <is>
+          <t>Safe</t>
+        </is>
+      </c>
+      <c r="U61" t="inlineStr">
+        <is>
+          <t>1.0 stars, 0 reviews</t>
+        </is>
+      </c>
+      <c r="V61" t="inlineStr">
+        <is>
+          <t>Источник данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>52</v>
+      </c>
+      <c r="B62" s="186" t="inlineStr">
+        <is>
+          <t>Private Guest House Near GWK</t>
+        </is>
+      </c>
+      <c r="C62" s="186" t="inlineStr">
+        <is>
+          <t>map</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>Guesthouse</t>
+        </is>
+      </c>
+      <c r="E62" t="n">
+        <v>1</v>
+      </c>
+      <c r="J62" t="n">
+        <v>390</v>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="L62" t="inlineStr"/>
+      <c r="M62" t="inlineStr">
+        <is>
+          <t>Free parking on premises</t>
+        </is>
+      </c>
+      <c r="N62" t="inlineStr"/>
+      <c r="O62" t="n">
+        <v>1</v>
+      </c>
+      <c r="P62" t="inlineStr"/>
+      <c r="Q62" t="inlineStr">
+        <is>
+          <t>Dedicated workspace</t>
+        </is>
+      </c>
+      <c r="R62" t="inlineStr"/>
+      <c r="S62" t="inlineStr"/>
+      <c r="T62" t="inlineStr">
+        <is>
+          <t>Safe</t>
+        </is>
+      </c>
+      <c r="U62" t="inlineStr">
+        <is>
+          <t>5.05 stars, 7 reviews</t>
+        </is>
+      </c>
+      <c r="V62" t="inlineStr">
+        <is>
+          <t>Источник данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>53</v>
+      </c>
+      <c r="B63" s="186" t="inlineStr">
+        <is>
+          <t>Coliving in Seminyak Oberoi</t>
+        </is>
+      </c>
+      <c r="C63" s="186" t="inlineStr">
+        <is>
+          <t>map</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>Place</t>
+        </is>
+      </c>
+      <c r="E63" t="n">
+        <v>1</v>
+      </c>
+      <c r="J63" t="n">
+        <v>34650</v>
+      </c>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>Garden view</t>
+        </is>
+      </c>
+      <c r="M63" t="inlineStr"/>
+      <c r="N63" t="inlineStr"/>
+      <c r="O63" t="n">
+        <v>1</v>
+      </c>
+      <c r="P63" t="inlineStr">
+        <is>
+          <t>kitchen</t>
+        </is>
+      </c>
+      <c r="Q63" t="inlineStr">
+        <is>
+          <t>Dedicated workspace</t>
+        </is>
+      </c>
+      <c r="R63" t="inlineStr"/>
+      <c r="S63" t="inlineStr">
+        <is>
+          <t>Outdoor dining area, Patio or balcony</t>
+        </is>
+      </c>
+      <c r="T63" t="inlineStr">
+        <is>
+          <t>Lockbox, Safe</t>
+        </is>
+      </c>
+      <c r="U63" t="inlineStr">
+        <is>
+          <t>1.0 stars, 0 reviews</t>
+        </is>
+      </c>
+      <c r="V63" t="inlineStr">
+        <is>
+          <t>Источник данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>54</v>
+      </c>
+      <c r="B64" s="186" t="inlineStr">
+        <is>
+          <t>Gladak House 2 Pantry and swim-pool</t>
+        </is>
+      </c>
+      <c r="C64" s="186" t="inlineStr">
+        <is>
+          <t>map</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>House</t>
+        </is>
+      </c>
+      <c r="E64" t="n">
+        <v>1</v>
+      </c>
+      <c r="J64" t="n">
+        <v>390</v>
+      </c>
+      <c r="L64" t="inlineStr"/>
+      <c r="M64" t="inlineStr">
+        <is>
+          <t>Free parking on premises</t>
+        </is>
+      </c>
+      <c r="N64" t="inlineStr"/>
+      <c r="O64" t="n">
+        <v>1</v>
+      </c>
+      <c r="P64" t="inlineStr">
+        <is>
+          <t>kitchen</t>
+        </is>
+      </c>
+      <c r="Q64" t="inlineStr"/>
+      <c r="R64" t="inlineStr"/>
+      <c r="S64" t="inlineStr">
+        <is>
+          <t>Patio or balcony, Backyard</t>
+        </is>
+      </c>
+      <c r="T64" t="inlineStr"/>
+      <c r="U64" t="inlineStr">
+        <is>
+          <t>4.79 stars, 58 reviews</t>
+        </is>
+      </c>
+      <c r="V64" t="inlineStr">
+        <is>
+          <t>Источник данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>55</v>
+      </c>
+      <c r="B65" s="186" t="inlineStr">
+        <is>
+          <t>Apartment cool in Ungassan 2</t>
+        </is>
+      </c>
+      <c r="C65" s="186" t="inlineStr">
+        <is>
+          <t>map</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>Apartment</t>
+        </is>
+      </c>
+      <c r="E65" t="n">
+        <v>1</v>
+      </c>
+      <c r="J65" t="n">
+        <v>34650</v>
+      </c>
+      <c r="L65" t="inlineStr"/>
+      <c r="M65" t="inlineStr">
+        <is>
+          <t>Free parking on premises</t>
+        </is>
+      </c>
+      <c r="N65" t="inlineStr"/>
+      <c r="O65" t="n">
+        <v>1</v>
+      </c>
+      <c r="P65" t="inlineStr">
+        <is>
+          <t>kitchen</t>
+        </is>
+      </c>
+      <c r="Q65" t="inlineStr"/>
+      <c r="R65" t="inlineStr"/>
+      <c r="S65" t="inlineStr"/>
+      <c r="T65" t="inlineStr"/>
+      <c r="U65" t="inlineStr">
+        <is>
+          <t>0.0 stars, 0 reviews</t>
+        </is>
+      </c>
+      <c r="V65" t="inlineStr">
+        <is>
+          <t>Источник данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>56</v>
+      </c>
+      <c r="B66" s="186" t="inlineStr">
+        <is>
+          <t>Double Bedroom with Private Bathroom</t>
+        </is>
+      </c>
+      <c r="C66" s="186" t="inlineStr">
+        <is>
+          <t>map</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>Guesthouse</t>
+        </is>
+      </c>
+      <c r="E66" t="n">
+        <v>1</v>
+      </c>
+      <c r="J66" t="n">
+        <v>330</v>
+      </c>
+      <c r="L66" t="inlineStr"/>
+      <c r="M66" t="inlineStr">
+        <is>
+          <t>Free parking on premises</t>
+        </is>
+      </c>
+      <c r="N66" t="inlineStr"/>
+      <c r="O66" t="n">
+        <v>1</v>
+      </c>
+      <c r="P66" t="inlineStr"/>
+      <c r="Q66" t="inlineStr"/>
+      <c r="R66" t="inlineStr"/>
+      <c r="S66" t="inlineStr"/>
+      <c r="T66" t="inlineStr">
+        <is>
+          <t>Safe</t>
+        </is>
+      </c>
+      <c r="U66" t="inlineStr">
+        <is>
+          <t>0.0 stars, 0 reviews</t>
+        </is>
+      </c>
+      <c r="V66" t="inlineStr">
+        <is>
+          <t>Источник данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>57</v>
+      </c>
+      <c r="B67" s="186" t="inlineStr">
+        <is>
+          <t>Reiko's small private house</t>
+        </is>
+      </c>
+      <c r="C67" s="186" t="inlineStr">
+        <is>
+          <t>map</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>House</t>
+        </is>
+      </c>
+      <c r="E67" t="n">
+        <v>1</v>
+      </c>
+      <c r="J67" t="n">
+        <v>360</v>
+      </c>
+      <c r="L67" t="inlineStr"/>
+      <c r="M67" t="inlineStr"/>
+      <c r="N67" t="inlineStr"/>
+      <c r="O67" t="n">
+        <v>1</v>
+      </c>
+      <c r="P67" t="inlineStr">
+        <is>
+          <t>kitchen</t>
+        </is>
+      </c>
+      <c r="Q67" t="inlineStr"/>
+      <c r="R67" t="inlineStr"/>
+      <c r="S67" t="inlineStr"/>
+      <c r="T67" t="inlineStr"/>
+      <c r="U67" t="inlineStr">
+        <is>
+          <t>4.13 stars, 8 reviews</t>
+        </is>
+      </c>
+      <c r="V67" t="inlineStr">
+        <is>
+          <t>Источник данных</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <dataValidations count="1">
@@ -40620,6 +43545,122 @@
       <formula1>"Airbnb,Booking,FB Marketplace,Telegram,BnB profits"</formula1>
     </dataValidation>
   </dataValidations>
+  <hyperlinks>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B11" r:id="rId1"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C11" r:id="rId2"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B12" r:id="rId3"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C12" r:id="rId4"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B13" r:id="rId5"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C13" r:id="rId6"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B14" r:id="rId7"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C14" r:id="rId8"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B15" r:id="rId9"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C15" r:id="rId10"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B16" r:id="rId11"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C16" r:id="rId12"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B17" r:id="rId13"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C17" r:id="rId14"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B18" r:id="rId15"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C18" r:id="rId16"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B19" r:id="rId17"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C19" r:id="rId18"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B20" r:id="rId19"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C20" r:id="rId20"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B21" r:id="rId21"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C21" r:id="rId22"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B22" r:id="rId23"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C22" r:id="rId24"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B23" r:id="rId25"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C23" r:id="rId26"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B24" r:id="rId27"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C24" r:id="rId28"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B25" r:id="rId29"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C25" r:id="rId30"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B26" r:id="rId31"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C26" r:id="rId32"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B27" r:id="rId33"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C27" r:id="rId34"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B28" r:id="rId35"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C28" r:id="rId36"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B29" r:id="rId37"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C29" r:id="rId38"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B30" r:id="rId39"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C30" r:id="rId40"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B31" r:id="rId41"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C31" r:id="rId42"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B32" r:id="rId43"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C32" r:id="rId44"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B33" r:id="rId45"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C33" r:id="rId46"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B34" r:id="rId47"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C34" r:id="rId48"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B35" r:id="rId49"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C35" r:id="rId50"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B36" r:id="rId51"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C36" r:id="rId52"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B37" r:id="rId53"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C37" r:id="rId54"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B38" r:id="rId55"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C38" r:id="rId56"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B39" r:id="rId57"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C39" r:id="rId58"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B40" r:id="rId59"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C40" r:id="rId60"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B41" r:id="rId61"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C41" r:id="rId62"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B42" r:id="rId63"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C42" r:id="rId64"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B43" r:id="rId65"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C43" r:id="rId66"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B44" r:id="rId67"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C44" r:id="rId68"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B45" r:id="rId69"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C45" r:id="rId70"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B46" r:id="rId71"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C46" r:id="rId72"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B47" r:id="rId73"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C47" r:id="rId74"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B48" r:id="rId75"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C48" r:id="rId76"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B49" r:id="rId77"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C49" r:id="rId78"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B50" r:id="rId79"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C50" r:id="rId80"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B51" r:id="rId81"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C51" r:id="rId82"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B52" r:id="rId83"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C52" r:id="rId84"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B53" r:id="rId85"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C53" r:id="rId86"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B54" r:id="rId87"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C54" r:id="rId88"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B55" r:id="rId89"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C55" r:id="rId90"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B56" r:id="rId91"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C56" r:id="rId92"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B57" r:id="rId93"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C57" r:id="rId94"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B58" r:id="rId95"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C58" r:id="rId96"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B59" r:id="rId97"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C59" r:id="rId98"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B60" r:id="rId99"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C60" r:id="rId100"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B61" r:id="rId101"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C61" r:id="rId102"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B62" r:id="rId103"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C62" r:id="rId104"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B63" r:id="rId105"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C63" r:id="rId106"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B64" r:id="rId107"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C64" r:id="rId108"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B65" r:id="rId109"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C65" r:id="rId110"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B66" r:id="rId111"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C66" r:id="rId112"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B67" r:id="rId113"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C67" r:id="rId114"/>
+  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -40793,30 +43834,30 @@
           <t>Остаточная стоимость / Residual value, %</t>
         </is>
       </c>
-      <c r="H6" s="184" t="inlineStr">
+      <c r="H6" s="187" t="inlineStr">
         <is>
           <t xml:space="preserve">ROI - инфляция - срок строительства </t>
         </is>
       </c>
-      <c r="I6" s="185" t="n"/>
-      <c r="J6" s="184" t="inlineStr">
+      <c r="I6" s="188" t="n"/>
+      <c r="J6" s="187" t="inlineStr">
         <is>
           <t>ROI + инфляция - срок строительства -  амортизация</t>
         </is>
       </c>
-      <c r="K6" s="185" t="n"/>
-      <c r="O6" s="184" t="inlineStr">
+      <c r="K6" s="188" t="n"/>
+      <c r="O6" s="187" t="inlineStr">
         <is>
           <t>ROI + инфляция - срок строительства накопительно</t>
         </is>
       </c>
-      <c r="P6" s="185" t="n"/>
-      <c r="Q6" s="184" t="inlineStr">
+      <c r="P6" s="188" t="n"/>
+      <c r="Q6" s="187" t="inlineStr">
         <is>
           <t>ROI + инфляция - срок строительства накопительно - амортизация</t>
         </is>
       </c>
-      <c r="R6" s="185" t="n"/>
+      <c r="R6" s="188" t="n"/>
     </row>
     <row r="7" ht="20.25" customHeight="1" s="160">
       <c r="B7" s="153">

--- a/file/data.xlsx
+++ b/file/data.xlsx
@@ -39732,7 +39732,7 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:Z67"/>
+  <dimension ref="A2:Z151"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="10" topLeftCell="B11" activePane="bottomRight" state="frozen"/>
@@ -40029,8 +40029,7 @@
       </c>
       <c r="B11" s="184" t="inlineStr">
         <is>
-          <t>Gladak House 6
-Pantry and swim-pool</t>
+          <t>Private Room centrally located close to berawa</t>
         </is>
       </c>
       <c r="C11" s="184" t="inlineStr">
@@ -40040,7 +40039,7 @@
       </c>
       <c r="D11" s="140" t="inlineStr">
         <is>
-          <t>House</t>
+          <t>Hotel</t>
         </is>
       </c>
       <c r="E11" s="140" t="n">
@@ -40051,7 +40050,7 @@
       <c r="H11" s="140" t="n"/>
       <c r="I11" s="140" t="n"/>
       <c r="J11" s="140" t="n">
-        <v>34650</v>
+        <v>480</v>
       </c>
       <c r="K11" s="140" t="n"/>
       <c r="L11" s="140" t="inlineStr"/>
@@ -40076,10 +40075,14 @@
           <t>Patio or balcony</t>
         </is>
       </c>
-      <c r="T11" s="140" t="inlineStr"/>
+      <c r="T11" s="140" t="inlineStr">
+        <is>
+          <t>Lockbox, Safe</t>
+        </is>
+      </c>
       <c r="U11" s="140" t="inlineStr">
         <is>
-          <t>4.83 stars, 35 reviews</t>
+          <t>4.51 stars, 55 reviews</t>
         </is>
       </c>
       <c r="V11" s="140" t="inlineStr">
@@ -40094,7 +40097,7 @@
       </c>
       <c r="B12" s="185" t="inlineStr">
         <is>
-          <t>Bahtera Guest House 1</t>
+          <t>Sea View Self Contained Apartment in Lipah</t>
         </is>
       </c>
       <c r="C12" s="185" t="inlineStr">
@@ -40104,33 +40107,21 @@
       </c>
       <c r="D12" s="141" t="inlineStr">
         <is>
-          <t>House</t>
+          <t>Apartment</t>
         </is>
       </c>
       <c r="E12" s="141" t="n">
-        <v>1</v>
-      </c>
-      <c r="F12" s="141" t="n">
-        <v>360</v>
-      </c>
-      <c r="G12" s="141" t="n">
-        <v>3014024</v>
-      </c>
-      <c r="H12" s="141" t="n">
-        <v>97.5</v>
-      </c>
-      <c r="I12" s="141" t="n">
-        <v>1057925600</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="F12" s="141" t="n"/>
+      <c r="G12" s="141" t="n"/>
+      <c r="H12" s="141" t="n"/>
+      <c r="I12" s="141" t="n"/>
       <c r="J12" s="141" t="n">
-        <v>330</v>
+        <v>43290</v>
       </c>
       <c r="K12" s="141" t="n"/>
-      <c r="L12" s="141" t="inlineStr">
-        <is>
-          <t>Garden view</t>
-        </is>
-      </c>
+      <c r="L12" s="141" t="inlineStr"/>
       <c r="M12" s="141" t="inlineStr">
         <is>
           <t>Free parking on premises</t>
@@ -40138,12 +40129,24 @@
       </c>
       <c r="N12" s="141" t="inlineStr"/>
       <c r="O12" s="140" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="P12" s="141" t="inlineStr"/>
-      <c r="Q12" s="141" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="P12" s="141" t="inlineStr">
+        <is>
+          <t>kitchen</t>
+        </is>
+      </c>
+      <c r="Q12" s="141" t="inlineStr">
+        <is>
+          <t>Dedicated workspace</t>
+        </is>
+      </c>
       <c r="R12" s="141" t="inlineStr"/>
-      <c r="S12" s="141" t="inlineStr"/>
+      <c r="S12" s="141" t="inlineStr">
+        <is>
+          <t>Patio or balcony</t>
+        </is>
+      </c>
       <c r="T12" s="141" t="inlineStr">
         <is>
           <t>Safe</t>
@@ -40151,7 +40154,7 @@
       </c>
       <c r="U12" s="140" t="inlineStr">
         <is>
-          <t>2.0 stars, 2 reviews</t>
+          <t>4.72 stars, 61 reviews</t>
         </is>
       </c>
       <c r="V12" s="140" t="inlineStr">
@@ -40166,7 +40169,7 @@
       </c>
       <c r="B13" s="185" t="inlineStr">
         <is>
-          <t>Special guest house and stay in Balinese compound</t>
+          <t>Sun flower guest house</t>
         </is>
       </c>
       <c r="C13" s="185" t="inlineStr">
@@ -40187,13 +40190,13 @@
       <c r="H13" s="141" t="n"/>
       <c r="I13" s="141" t="n"/>
       <c r="J13" s="141" t="n">
-        <v>330</v>
+        <v>34650</v>
       </c>
       <c r="K13" s="141" t="n"/>
       <c r="L13" s="141" t="inlineStr"/>
       <c r="M13" s="141" t="inlineStr">
         <is>
-          <t>Free parking on premises, Street parking</t>
+          <t>Free parking on premises</t>
         </is>
       </c>
       <c r="N13" s="141" t="inlineStr"/>
@@ -40205,21 +40208,21 @@
           <t>kitchen</t>
         </is>
       </c>
-      <c r="Q13" s="141" t="inlineStr">
-        <is>
-          <t>Dedicated workspace</t>
-        </is>
-      </c>
+      <c r="Q13" s="141" t="inlineStr"/>
       <c r="R13" s="141" t="inlineStr"/>
       <c r="S13" s="141" t="inlineStr">
         <is>
-          <t>Patio or balcony, Backyard</t>
-        </is>
-      </c>
-      <c r="T13" s="141" t="inlineStr"/>
+          <t>Outdoor dining area</t>
+        </is>
+      </c>
+      <c r="T13" s="141" t="inlineStr">
+        <is>
+          <t>Safe</t>
+        </is>
+      </c>
       <c r="U13" s="140" t="inlineStr">
         <is>
-          <t>4.945 stars, 17 reviews</t>
+          <t>0.0 stars, 0 reviews</t>
         </is>
       </c>
       <c r="V13" s="140" t="inlineStr">
@@ -40234,7 +40237,7 @@
       </c>
       <c r="B14" s="185" t="inlineStr">
         <is>
-          <t>Kadek homeatay on the beach</t>
+          <t>Bali Dive Time is Homestay</t>
         </is>
       </c>
       <c r="C14" s="185" t="inlineStr">
@@ -40244,26 +40247,18 @@
       </c>
       <c r="D14" s="141" t="inlineStr">
         <is>
-          <t>Home</t>
+          <t>Guesthouse</t>
         </is>
       </c>
       <c r="E14" s="141" t="n">
-        <v>4</v>
-      </c>
-      <c r="F14" s="141" t="n">
-        <v>353</v>
-      </c>
-      <c r="G14" s="141" t="n">
-        <v>3176158</v>
-      </c>
-      <c r="H14" s="141" t="n">
-        <v>82.44</v>
-      </c>
-      <c r="I14" s="141" t="n">
-        <v>924263640</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="F14" s="141" t="n"/>
+      <c r="G14" s="141" t="n"/>
+      <c r="H14" s="141" t="n"/>
+      <c r="I14" s="141" t="n"/>
       <c r="J14" s="141" t="n">
-        <v>300</v>
+        <v>34650</v>
       </c>
       <c r="K14" s="141" t="n"/>
       <c r="L14" s="141" t="inlineStr"/>
@@ -40274,18 +40269,10 @@
       </c>
       <c r="N14" s="141" t="inlineStr"/>
       <c r="O14" s="141" t="n">
-        <v>5</v>
-      </c>
-      <c r="P14" s="141" t="inlineStr">
-        <is>
-          <t>kitchen</t>
-        </is>
-      </c>
-      <c r="Q14" s="141" t="inlineStr">
-        <is>
-          <t>Dedicated workspace</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="P14" s="141" t="inlineStr"/>
+      <c r="Q14" s="141" t="inlineStr"/>
       <c r="R14" s="141" t="inlineStr"/>
       <c r="S14" s="141" t="inlineStr">
         <is>
@@ -40299,7 +40286,7 @@
       </c>
       <c r="U14" s="140" t="inlineStr">
         <is>
-          <t>2.33 stars, 3 reviews</t>
+          <t>0.0 stars, 0 reviews</t>
         </is>
       </c>
       <c r="V14" s="140" t="inlineStr">
@@ -40314,7 +40301,7 @@
       </c>
       <c r="B15" s="185" t="inlineStr">
         <is>
-          <t>Private Room with in Denpasar</t>
+          <t>Hotel Indra Pura. Lovina Beach-Bali..🙏🇮🇩</t>
         </is>
       </c>
       <c r="C15" s="185" t="inlineStr">
@@ -40324,18 +40311,18 @@
       </c>
       <c r="D15" s="141" t="inlineStr">
         <is>
-          <t>Villa</t>
+          <t>Hotel</t>
         </is>
       </c>
       <c r="E15" s="141" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F15" s="141" t="n"/>
       <c r="G15" s="141" t="n"/>
       <c r="H15" s="141" t="n"/>
       <c r="I15" s="141" t="n"/>
       <c r="J15" s="141" t="n">
-        <v>300</v>
+        <v>34650</v>
       </c>
       <c r="K15" s="141" t="n"/>
       <c r="L15" s="141" t="inlineStr"/>
@@ -40346,7 +40333,7 @@
       </c>
       <c r="N15" s="141" t="inlineStr"/>
       <c r="O15" s="141" t="n">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="P15" s="141" t="inlineStr">
         <is>
@@ -40359,7 +40346,7 @@
       <c r="T15" s="141" t="inlineStr"/>
       <c r="U15" s="140" t="inlineStr">
         <is>
-          <t>0.0 stars, 0 reviews</t>
+          <t>1.0 stars, 0 reviews</t>
         </is>
       </c>
       <c r="V15" s="140" t="inlineStr">
@@ -40374,7 +40361,7 @@
       </c>
       <c r="B16" s="185" t="inlineStr">
         <is>
-          <t>Homey place in Ubud</t>
+          <t>Secret Garden Ubud</t>
         </is>
       </c>
       <c r="C16" s="185" t="inlineStr">
@@ -40384,7 +40371,7 @@
       </c>
       <c r="D16" s="141" t="inlineStr">
         <is>
-          <t>Home</t>
+          <t>Guesthouse</t>
         </is>
       </c>
       <c r="E16" s="141" t="n">
@@ -40395,14 +40382,10 @@
       <c r="H16" s="141" t="n"/>
       <c r="I16" s="141" t="n"/>
       <c r="J16" s="141" t="n">
-        <v>360</v>
+        <v>41310</v>
       </c>
       <c r="K16" s="141" t="n"/>
-      <c r="L16" s="141" t="inlineStr">
-        <is>
-          <t>Garden view</t>
-        </is>
-      </c>
+      <c r="L16" s="141" t="inlineStr"/>
       <c r="M16" s="141" t="inlineStr">
         <is>
           <t>Free parking on premises</t>
@@ -40410,32 +40393,20 @@
       </c>
       <c r="N16" s="141" t="inlineStr"/>
       <c r="O16" s="141" t="n">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="P16" s="141" t="inlineStr">
         <is>
           <t>kitchen</t>
         </is>
       </c>
-      <c r="Q16" s="141" t="inlineStr">
-        <is>
-          <t>Dedicated workspace</t>
-        </is>
-      </c>
+      <c r="Q16" s="141" t="inlineStr"/>
       <c r="R16" s="141" t="inlineStr"/>
-      <c r="S16" s="141" t="inlineStr">
-        <is>
-          <t>Outdoor dining area, Patio or balcony</t>
-        </is>
-      </c>
-      <c r="T16" s="141" t="inlineStr">
-        <is>
-          <t>Safe</t>
-        </is>
-      </c>
+      <c r="S16" s="141" t="inlineStr"/>
+      <c r="T16" s="141" t="inlineStr"/>
       <c r="U16" s="140" t="inlineStr">
         <is>
-          <t>5.05 stars, 10 reviews</t>
+          <t>0.0 stars, 0 reviews</t>
         </is>
       </c>
       <c r="V16" s="140" t="inlineStr">
@@ -40450,7 +40421,7 @@
       </c>
       <c r="B17" s="185" t="inlineStr">
         <is>
-          <t>mini apartment near Padma beach</t>
+          <t>Denpasar Cheap Rental Homes</t>
         </is>
       </c>
       <c r="C17" s="185" t="inlineStr">
@@ -40460,7 +40431,7 @@
       </c>
       <c r="D17" s="141" t="inlineStr">
         <is>
-          <t>Apartment</t>
+          <t>Home</t>
         </is>
       </c>
       <c r="E17" s="141" t="n">
@@ -40471,7 +40442,7 @@
       <c r="H17" s="141" t="n"/>
       <c r="I17" s="141" t="n"/>
       <c r="J17" s="141" t="n">
-        <v>390</v>
+        <v>34890</v>
       </c>
       <c r="K17" s="141" t="n"/>
       <c r="L17" s="141" t="inlineStr"/>
@@ -40482,24 +40453,16 @@
       </c>
       <c r="N17" s="141" t="inlineStr"/>
       <c r="O17" s="141" t="n">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="P17" s="141" t="inlineStr">
         <is>
           <t>kitchen</t>
         </is>
       </c>
-      <c r="Q17" s="141" t="inlineStr">
-        <is>
-          <t>Dedicated workspace</t>
-        </is>
-      </c>
+      <c r="Q17" s="141" t="inlineStr"/>
       <c r="R17" s="141" t="inlineStr"/>
-      <c r="S17" s="141" t="inlineStr">
-        <is>
-          <t>Outdoor dining area, Patio or balcony</t>
-        </is>
-      </c>
+      <c r="S17" s="141" t="inlineStr"/>
       <c r="T17" s="141" t="inlineStr"/>
       <c r="U17" s="140" t="inlineStr">
         <is>
@@ -40518,7 +40481,7 @@
       </c>
       <c r="B18" s="185" t="inlineStr">
         <is>
-          <t>Comfy small place in sanur</t>
+          <t>ECO Bedugul adventurer camp</t>
         </is>
       </c>
       <c r="C18" s="185" t="inlineStr">
@@ -40528,7 +40491,7 @@
       </c>
       <c r="D18" s="141" t="inlineStr">
         <is>
-          <t>Place</t>
+          <t>Hut</t>
         </is>
       </c>
       <c r="E18" s="141" t="n">
@@ -40539,27 +40502,27 @@
       <c r="H18" s="141" t="n"/>
       <c r="I18" s="141" t="n"/>
       <c r="J18" s="141" t="n">
-        <v>34410</v>
+        <v>37230</v>
       </c>
       <c r="K18" s="141" t="n"/>
       <c r="L18" s="141" t="inlineStr"/>
-      <c r="M18" s="141" t="inlineStr"/>
+      <c r="M18" s="141" t="inlineStr">
+        <is>
+          <t>Free parking on premises, Street parking</t>
+        </is>
+      </c>
       <c r="N18" s="141" t="inlineStr"/>
       <c r="O18" s="141" t="n">
-        <v>1</v>
-      </c>
-      <c r="P18" s="141" t="inlineStr"/>
-      <c r="Q18" s="141" t="inlineStr">
-        <is>
-          <t>Dedicated workspace</t>
-        </is>
-      </c>
+        <v>1.5</v>
+      </c>
+      <c r="P18" s="141" t="inlineStr">
+        <is>
+          <t>kitchen</t>
+        </is>
+      </c>
+      <c r="Q18" s="141" t="inlineStr"/>
       <c r="R18" s="141" t="inlineStr"/>
-      <c r="S18" s="141" t="inlineStr">
-        <is>
-          <t>Patio or balcony</t>
-        </is>
-      </c>
+      <c r="S18" s="141" t="inlineStr"/>
       <c r="T18" s="141" t="inlineStr">
         <is>
           <t>Safe</t>
@@ -40567,7 +40530,7 @@
       </c>
       <c r="U18" s="140" t="inlineStr">
         <is>
-          <t>5.0 stars, 4 reviews</t>
+          <t>4.945 stars, 48 reviews</t>
         </is>
       </c>
       <c r="V18" s="140" t="inlineStr">
@@ -40582,7 +40545,7 @@
       </c>
       <c r="B19" s="185" t="inlineStr">
         <is>
-          <t>Lumbung Sari Sekumpul Fiji Waterfalls</t>
+          <t>Cozy Loft A @ Sunset Road Kuta</t>
         </is>
       </c>
       <c r="C19" s="185" t="inlineStr">
@@ -40592,7 +40555,7 @@
       </c>
       <c r="D19" s="141" t="inlineStr">
         <is>
-          <t>Barn</t>
+          <t>Place</t>
         </is>
       </c>
       <c r="E19" s="141" t="n">
@@ -40603,7 +40566,7 @@
       <c r="H19" s="141" t="n"/>
       <c r="I19" s="141" t="n"/>
       <c r="J19" s="141" t="n">
-        <v>270</v>
+        <v>38280</v>
       </c>
       <c r="K19" s="141" t="n"/>
       <c r="L19" s="141" t="inlineStr"/>
@@ -40613,7 +40576,9 @@
         </is>
       </c>
       <c r="N19" s="141" t="inlineStr"/>
-      <c r="O19" s="141" t="n"/>
+      <c r="O19" s="141" t="n">
+        <v>1</v>
+      </c>
       <c r="P19" s="141" t="inlineStr">
         <is>
           <t>kitchen</t>
@@ -40621,7 +40586,11 @@
       </c>
       <c r="Q19" s="141" t="inlineStr"/>
       <c r="R19" s="141" t="inlineStr"/>
-      <c r="S19" s="141" t="inlineStr"/>
+      <c r="S19" s="141" t="inlineStr">
+        <is>
+          <t>Backyard</t>
+        </is>
+      </c>
       <c r="T19" s="141" t="inlineStr">
         <is>
           <t>Safe</t>
@@ -40629,7 +40598,7 @@
       </c>
       <c r="U19" s="140" t="inlineStr">
         <is>
-          <t>0.0 stars, 0 reviews</t>
+          <t>4.51 stars, 39 reviews</t>
         </is>
       </c>
       <c r="V19" s="140" t="inlineStr">
@@ -40644,7 +40613,7 @@
       </c>
       <c r="B20" s="185" t="inlineStr">
         <is>
-          <t>Low price guest house, comfy, relaxing</t>
+          <t>Air Sanih Homestay, Bungalow 2</t>
         </is>
       </c>
       <c r="C20" s="185" t="inlineStr">
@@ -40654,7 +40623,7 @@
       </c>
       <c r="D20" s="141" t="inlineStr">
         <is>
-          <t>House</t>
+          <t>Bungalow</t>
         </is>
       </c>
       <c r="E20" s="141" t="n">
@@ -40665,12 +40634,12 @@
       <c r="H20" s="141" t="n"/>
       <c r="I20" s="141" t="n"/>
       <c r="J20" s="141" t="n">
-        <v>27720</v>
+        <v>480</v>
       </c>
       <c r="K20" s="141" t="n"/>
       <c r="L20" s="141" t="inlineStr">
         <is>
-          <t>Garden view, Mountain view</t>
+          <t>Garden view, Park view, Pool view</t>
         </is>
       </c>
       <c r="M20" s="141" t="inlineStr">
@@ -40693,19 +40662,11 @@
         </is>
       </c>
       <c r="R20" s="141" t="inlineStr"/>
-      <c r="S20" s="141" t="inlineStr">
-        <is>
-          <t>Outdoor dining area, Patio or balcony</t>
-        </is>
-      </c>
-      <c r="T20" s="141" t="inlineStr">
-        <is>
-          <t>Lockbox, Safe</t>
-        </is>
-      </c>
+      <c r="S20" s="141" t="inlineStr"/>
+      <c r="T20" s="141" t="inlineStr"/>
       <c r="U20" s="140" t="inlineStr">
         <is>
-          <t>1.0 stars, 0 reviews</t>
+          <t>4.865 stars, 37 reviews</t>
         </is>
       </c>
       <c r="V20" s="140" t="inlineStr">
@@ -40720,7 +40681,7 @@
       </c>
       <c r="B21" s="185" t="inlineStr">
         <is>
-          <t>Lumbung Taman Sekumpul  Hidden Waterfall</t>
+          <t>Very strategic place ,in the center of nusa dua</t>
         </is>
       </c>
       <c r="C21" s="185" t="inlineStr">
@@ -40730,7 +40691,7 @@
       </c>
       <c r="D21" s="141" t="inlineStr">
         <is>
-          <t>Barn</t>
+          <t>Place</t>
         </is>
       </c>
       <c r="E21" s="141" t="n">
@@ -40741,7 +40702,7 @@
       <c r="H21" s="141" t="n"/>
       <c r="I21" s="141" t="n"/>
       <c r="J21" s="141" t="n">
-        <v>240</v>
+        <v>41310</v>
       </c>
       <c r="K21" s="141" t="n"/>
       <c r="L21" s="141" t="inlineStr"/>
@@ -40751,7 +40712,9 @@
         </is>
       </c>
       <c r="N21" s="141" t="inlineStr"/>
-      <c r="O21" s="141" t="n"/>
+      <c r="O21" s="141" t="n">
+        <v>1</v>
+      </c>
       <c r="P21" s="141" t="inlineStr">
         <is>
           <t>kitchen</t>
@@ -40762,12 +40725,12 @@
       <c r="S21" s="141" t="inlineStr"/>
       <c r="T21" s="141" t="inlineStr">
         <is>
-          <t>Safe</t>
+          <t>Lockbox</t>
         </is>
       </c>
       <c r="U21" s="140" t="inlineStr">
         <is>
-          <t>1.0 stars, 0 reviews</t>
+          <t>0.0 stars, 0 reviews</t>
         </is>
       </c>
       <c r="V21" s="140" t="inlineStr">
@@ -40782,7 +40745,7 @@
       </c>
       <c r="B22" s="185" t="inlineStr">
         <is>
-          <t>Near Batu Bolong Beach Only 350M</t>
+          <t>Cute Cabin at Nusa ceningan</t>
         </is>
       </c>
       <c r="C22" s="185" t="inlineStr">
@@ -40792,18 +40755,18 @@
       </c>
       <c r="D22" s="141" t="inlineStr">
         <is>
-          <t>Home</t>
+          <t>Cabin</t>
         </is>
       </c>
       <c r="E22" s="141" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="F22" s="141" t="n"/>
       <c r="G22" s="141" t="n"/>
       <c r="H22" s="141" t="n"/>
       <c r="I22" s="141" t="n"/>
       <c r="J22" s="141" t="n">
-        <v>330</v>
+        <v>420</v>
       </c>
       <c r="K22" s="141" t="n"/>
       <c r="L22" s="141" t="inlineStr"/>
@@ -40814,24 +40777,20 @@
       </c>
       <c r="N22" s="141" t="inlineStr"/>
       <c r="O22" s="141" t="n">
-        <v>10</v>
-      </c>
-      <c r="P22" s="141" t="inlineStr">
-        <is>
-          <t>kitchen</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="P22" s="141" t="inlineStr"/>
       <c r="Q22" s="141" t="inlineStr"/>
       <c r="R22" s="141" t="inlineStr"/>
-      <c r="S22" s="141" t="inlineStr">
-        <is>
-          <t>Outdoor dining area</t>
-        </is>
-      </c>
-      <c r="T22" s="141" t="inlineStr"/>
+      <c r="S22" s="141" t="inlineStr"/>
+      <c r="T22" s="141" t="inlineStr">
+        <is>
+          <t>Lockbox, Safe</t>
+        </is>
+      </c>
       <c r="U22" s="140" t="inlineStr">
         <is>
-          <t>0.0 stars, 0 reviews</t>
+          <t>2.0 stars, 2 reviews</t>
         </is>
       </c>
       <c r="V22" s="140" t="inlineStr">
@@ -40846,7 +40805,7 @@
       </c>
       <c r="B23" s="185" t="inlineStr">
         <is>
-          <t>apartament (Ungasan) kecamatan kuta selatam.</t>
+          <t>Setapak Camp Site</t>
         </is>
       </c>
       <c r="C23" s="185" t="inlineStr">
@@ -40856,7 +40815,7 @@
       </c>
       <c r="D23" s="141" t="inlineStr">
         <is>
-          <t>Place</t>
+          <t>Tent</t>
         </is>
       </c>
       <c r="E23" s="141" t="n">
@@ -40867,7 +40826,7 @@
       <c r="H23" s="141" t="n"/>
       <c r="I23" s="141" t="n"/>
       <c r="J23" s="141" t="n">
-        <v>300</v>
+        <v>34290</v>
       </c>
       <c r="K23" s="141" t="n"/>
       <c r="L23" s="141" t="inlineStr"/>
@@ -40880,18 +40839,18 @@
       <c r="O23" s="141" t="n">
         <v>1</v>
       </c>
-      <c r="P23" s="141" t="inlineStr">
-        <is>
-          <t>kitchen</t>
-        </is>
-      </c>
+      <c r="P23" s="141" t="inlineStr"/>
       <c r="Q23" s="141" t="inlineStr"/>
       <c r="R23" s="141" t="inlineStr"/>
       <c r="S23" s="141" t="inlineStr"/>
-      <c r="T23" s="141" t="inlineStr"/>
+      <c r="T23" s="141" t="inlineStr">
+        <is>
+          <t>Safe</t>
+        </is>
+      </c>
       <c r="U23" s="140" t="inlineStr">
         <is>
-          <t>4.67 stars, 3 reviews</t>
+          <t>4.67 stars, 12 reviews</t>
         </is>
       </c>
       <c r="V23" s="140" t="inlineStr">
@@ -40906,7 +40865,7 @@
       </c>
       <c r="B24" s="185" t="inlineStr">
         <is>
-          <t>Munduktemu guest house</t>
+          <t>Pangkung House 2</t>
         </is>
       </c>
       <c r="C24" s="185" t="inlineStr">
@@ -40916,7 +40875,7 @@
       </c>
       <c r="D24" s="141" t="inlineStr">
         <is>
-          <t>House</t>
+          <t>Guesthouse</t>
         </is>
       </c>
       <c r="E24" s="141" t="n">
@@ -40927,27 +40886,31 @@
       <c r="H24" s="141" t="n"/>
       <c r="I24" s="141" t="n"/>
       <c r="J24" s="141" t="n">
-        <v>300</v>
+        <v>44040</v>
       </c>
       <c r="K24" s="141" t="n"/>
       <c r="L24" s="141" t="inlineStr"/>
-      <c r="M24" s="141" t="inlineStr">
-        <is>
-          <t>Free parking on premises</t>
-        </is>
-      </c>
+      <c r="M24" s="141" t="inlineStr"/>
       <c r="N24" s="141" t="inlineStr"/>
       <c r="O24" s="141" t="n">
         <v>1</v>
       </c>
       <c r="P24" s="141" t="inlineStr"/>
-      <c r="Q24" s="141" t="inlineStr"/>
+      <c r="Q24" s="141" t="inlineStr">
+        <is>
+          <t>Dedicated workspace</t>
+        </is>
+      </c>
       <c r="R24" s="141" t="inlineStr"/>
-      <c r="S24" s="141" t="inlineStr"/>
+      <c r="S24" s="141" t="inlineStr">
+        <is>
+          <t>Outdoor dining area</t>
+        </is>
+      </c>
       <c r="T24" s="141" t="inlineStr"/>
       <c r="U24" s="140" t="inlineStr">
         <is>
-          <t>0.0 stars, 0 reviews</t>
+          <t>4.895 stars, 76 reviews</t>
         </is>
       </c>
       <c r="V24" s="140" t="inlineStr">
@@ -40962,7 +40925,7 @@
       </c>
       <c r="B25" s="185" t="inlineStr">
         <is>
-          <t>Ubud Snug 1BR Studio</t>
+          <t>Appartment  Seminyak  Equipped Quiet Fiber optic</t>
         </is>
       </c>
       <c r="C25" s="185" t="inlineStr">
@@ -40983,7 +40946,7 @@
       <c r="H25" s="141" t="n"/>
       <c r="I25" s="141" t="n"/>
       <c r="J25" s="141" t="n">
-        <v>27030</v>
+        <v>38880</v>
       </c>
       <c r="K25" s="141" t="n"/>
       <c r="L25" s="141" t="inlineStr"/>
@@ -41001,17 +40964,17 @@
           <t>kitchen</t>
         </is>
       </c>
-      <c r="Q25" s="141" t="inlineStr">
-        <is>
-          <t>Dedicated workspace</t>
-        </is>
-      </c>
+      <c r="Q25" s="141" t="inlineStr"/>
       <c r="R25" s="141" t="inlineStr"/>
       <c r="S25" s="141" t="inlineStr"/>
-      <c r="T25" s="141" t="inlineStr"/>
+      <c r="T25" s="141" t="inlineStr">
+        <is>
+          <t>Safe</t>
+        </is>
+      </c>
       <c r="U25" s="140" t="inlineStr">
         <is>
-          <t>0.0 stars, 0 reviews</t>
+          <t>3.95 stars, 19 reviews</t>
         </is>
       </c>
       <c r="V25" s="140" t="inlineStr">
@@ -41026,7 +40989,7 @@
       </c>
       <c r="B26" s="185" t="inlineStr">
         <is>
-          <t>Backpacker Homestay Denpasar</t>
+          <t>Bahtera Guest House 1</t>
         </is>
       </c>
       <c r="C26" s="185" t="inlineStr">
@@ -41036,38 +40999,54 @@
       </c>
       <c r="D26" s="141" t="inlineStr">
         <is>
-          <t>Home</t>
+          <t>House</t>
         </is>
       </c>
       <c r="E26" s="141" t="n">
         <v>1</v>
       </c>
-      <c r="F26" s="141" t="n"/>
-      <c r="G26" s="141" t="n"/>
-      <c r="H26" s="141" t="n"/>
-      <c r="I26" s="141" t="n"/>
+      <c r="F26" s="141" t="n">
+        <v>360</v>
+      </c>
+      <c r="G26" s="141" t="n">
+        <v>3014024</v>
+      </c>
+      <c r="H26" s="141" t="n">
+        <v>97.5</v>
+      </c>
+      <c r="I26" s="141" t="n">
+        <v>1057925600</v>
+      </c>
       <c r="J26" s="141" t="n">
-        <v>300</v>
+        <v>31140</v>
       </c>
       <c r="K26" s="141" t="n"/>
-      <c r="L26" s="141" t="inlineStr"/>
-      <c r="M26" s="141" t="inlineStr"/>
+      <c r="L26" s="141" t="inlineStr">
+        <is>
+          <t>Garden view</t>
+        </is>
+      </c>
+      <c r="M26" s="141" t="inlineStr">
+        <is>
+          <t>Free parking on premises</t>
+        </is>
+      </c>
       <c r="N26" s="141" t="inlineStr"/>
       <c r="O26" s="141" t="n">
-        <v>2</v>
-      </c>
-      <c r="P26" s="141" t="inlineStr">
-        <is>
-          <t>kitchen</t>
-        </is>
-      </c>
+        <v>1.5</v>
+      </c>
+      <c r="P26" s="141" t="inlineStr"/>
       <c r="Q26" s="141" t="inlineStr"/>
       <c r="R26" s="141" t="inlineStr"/>
       <c r="S26" s="141" t="inlineStr"/>
-      <c r="T26" s="141" t="inlineStr"/>
+      <c r="T26" s="141" t="inlineStr">
+        <is>
+          <t>Safe</t>
+        </is>
+      </c>
       <c r="U26" s="140" t="inlineStr">
         <is>
-          <t>0.0 stars, 0 reviews</t>
+          <t>2.0 stars, 2 reviews</t>
         </is>
       </c>
       <c r="V26" s="140" t="inlineStr">
@@ -41082,7 +41061,8 @@
       </c>
       <c r="B27" s="185" t="inlineStr">
         <is>
-          <t>Nike house</t>
+          <t>Gladak House 3
+Pantry and swim-pool</t>
         </is>
       </c>
       <c r="C27" s="185" t="inlineStr">
@@ -41092,7 +41072,7 @@
       </c>
       <c r="D27" s="141" t="inlineStr">
         <is>
-          <t>Guesthouse</t>
+          <t>House</t>
         </is>
       </c>
       <c r="E27" s="141" t="n">
@@ -41103,27 +41083,35 @@
       <c r="H27" s="141" t="n"/>
       <c r="I27" s="141" t="n"/>
       <c r="J27" s="141" t="n">
-        <v>300</v>
+        <v>34650</v>
       </c>
       <c r="K27" s="141" t="n"/>
       <c r="L27" s="141" t="inlineStr"/>
       <c r="M27" s="141" t="inlineStr">
         <is>
-          <t>Street parking</t>
+          <t>Free parking on premises</t>
         </is>
       </c>
       <c r="N27" s="141" t="inlineStr"/>
       <c r="O27" s="141" t="n">
         <v>1</v>
       </c>
-      <c r="P27" s="141" t="inlineStr"/>
+      <c r="P27" s="141" t="inlineStr">
+        <is>
+          <t>kitchen</t>
+        </is>
+      </c>
       <c r="Q27" s="141" t="inlineStr"/>
       <c r="R27" s="141" t="inlineStr"/>
-      <c r="S27" s="141" t="inlineStr"/>
+      <c r="S27" s="141" t="inlineStr">
+        <is>
+          <t>Patio or balcony, Backyard</t>
+        </is>
+      </c>
       <c r="T27" s="141" t="inlineStr"/>
       <c r="U27" s="140" t="inlineStr">
         <is>
-          <t>4.43 stars, 21 reviews</t>
+          <t>4.93 stars, 29 reviews</t>
         </is>
       </c>
       <c r="V27" s="140" t="inlineStr">
@@ -41138,7 +41126,7 @@
       </c>
       <c r="B28" s="185" t="inlineStr">
         <is>
-          <t>not avaible</t>
+          <t>Stay with culture and tradision local life.</t>
         </is>
       </c>
       <c r="C28" s="185" t="inlineStr">
@@ -41148,18 +41136,18 @@
       </c>
       <c r="D28" s="141" t="inlineStr">
         <is>
-          <t>Guesthouse</t>
+          <t>Bungalow</t>
         </is>
       </c>
       <c r="E28" s="141" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F28" s="141" t="n"/>
       <c r="G28" s="141" t="n"/>
       <c r="H28" s="141" t="n"/>
       <c r="I28" s="141" t="n"/>
       <c r="J28" s="141" t="n">
-        <v>300</v>
+        <v>34650</v>
       </c>
       <c r="K28" s="141" t="n"/>
       <c r="L28" s="141" t="inlineStr"/>
@@ -41170,7 +41158,7 @@
       </c>
       <c r="N28" s="141" t="inlineStr"/>
       <c r="O28" s="141" t="n">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="P28" s="141" t="inlineStr">
         <is>
@@ -41183,8 +41171,16 @@
         </is>
       </c>
       <c r="R28" s="141" t="inlineStr"/>
-      <c r="S28" s="141" t="inlineStr"/>
-      <c r="T28" s="141" t="inlineStr"/>
+      <c r="S28" s="141" t="inlineStr">
+        <is>
+          <t>Outdoor dining area</t>
+        </is>
+      </c>
+      <c r="T28" s="141" t="inlineStr">
+        <is>
+          <t>Safe</t>
+        </is>
+      </c>
       <c r="U28" s="140" t="inlineStr">
         <is>
           <t>0.0 stars, 0 reviews</t>
@@ -41202,7 +41198,7 @@
       </c>
       <c r="B29" s="185" t="inlineStr">
         <is>
-          <t>Head Priest and Balinese Healer</t>
+          <t>Serenity Wooden House close Ubud</t>
         </is>
       </c>
       <c r="C29" s="185" t="inlineStr">
@@ -41212,7 +41208,7 @@
       </c>
       <c r="D29" s="141" t="inlineStr">
         <is>
-          <t>Guesthouse</t>
+          <t>House</t>
         </is>
       </c>
       <c r="E29" s="141" t="n">
@@ -41223,13 +41219,17 @@
       <c r="H29" s="141" t="n"/>
       <c r="I29" s="141" t="n"/>
       <c r="J29" s="141" t="n">
-        <v>300</v>
+        <v>480</v>
       </c>
       <c r="K29" s="141" t="n"/>
-      <c r="L29" s="141" t="inlineStr"/>
+      <c r="L29" s="141" t="inlineStr">
+        <is>
+          <t>Courtyard view</t>
+        </is>
+      </c>
       <c r="M29" s="141" t="inlineStr">
         <is>
-          <t>Free parking on premises</t>
+          <t>Free parking on premises, Street parking</t>
         </is>
       </c>
       <c r="N29" s="141" t="inlineStr"/>
@@ -41241,9 +41241,17 @@
           <t>kitchen</t>
         </is>
       </c>
-      <c r="Q29" s="141" t="inlineStr"/>
+      <c r="Q29" s="141" t="inlineStr">
+        <is>
+          <t>Dedicated workspace</t>
+        </is>
+      </c>
       <c r="R29" s="141" t="inlineStr"/>
-      <c r="S29" s="141" t="inlineStr"/>
+      <c r="S29" s="141" t="inlineStr">
+        <is>
+          <t>Outdoor dining area, Patio or balcony, Backyard</t>
+        </is>
+      </c>
       <c r="T29" s="141" t="inlineStr">
         <is>
           <t>Safe</t>
@@ -41251,7 +41259,7 @@
       </c>
       <c r="U29" s="140" t="inlineStr">
         <is>
-          <t>0.0 stars, 0 reviews</t>
+          <t>1.0 stars, 0 reviews</t>
         </is>
       </c>
       <c r="V29" s="140" t="inlineStr">
@@ -41266,7 +41274,8 @@
       </c>
       <c r="B30" s="185" t="inlineStr">
         <is>
-          <t>camping</t>
+          <t>Gladak House 6
+Pantry and swim-pool</t>
         </is>
       </c>
       <c r="C30" s="185" t="inlineStr">
@@ -41276,42 +41285,46 @@
       </c>
       <c r="D30" s="141" t="inlineStr">
         <is>
-          <t>Tent</t>
+          <t>House</t>
         </is>
       </c>
       <c r="E30" s="141" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F30" s="141" t="n"/>
       <c r="G30" s="141" t="n"/>
       <c r="H30" s="141" t="n"/>
       <c r="I30" s="141" t="n"/>
       <c r="J30" s="141" t="n">
-        <v>300</v>
+        <v>34650</v>
       </c>
       <c r="K30" s="141" t="n"/>
       <c r="L30" s="141" t="inlineStr"/>
-      <c r="M30" s="141" t="inlineStr"/>
+      <c r="M30" s="141" t="inlineStr">
+        <is>
+          <t>Free parking on premises</t>
+        </is>
+      </c>
       <c r="N30" s="141" t="inlineStr"/>
       <c r="O30" s="141" t="n">
         <v>1</v>
       </c>
-      <c r="P30" s="141" t="inlineStr"/>
+      <c r="P30" s="141" t="inlineStr">
+        <is>
+          <t>kitchen</t>
+        </is>
+      </c>
       <c r="Q30" s="141" t="inlineStr"/>
       <c r="R30" s="141" t="inlineStr"/>
       <c r="S30" s="141" t="inlineStr">
         <is>
-          <t>Outdoor dining area</t>
-        </is>
-      </c>
-      <c r="T30" s="141" t="inlineStr">
-        <is>
-          <t>Safe</t>
-        </is>
-      </c>
+          <t>Patio or balcony</t>
+        </is>
+      </c>
+      <c r="T30" s="141" t="inlineStr"/>
       <c r="U30" s="140" t="inlineStr">
         <is>
-          <t>0.0 stars, 0 reviews</t>
+          <t>4.83 stars, 35 reviews</t>
         </is>
       </c>
       <c r="V30" s="140" t="inlineStr">
@@ -41326,7 +41339,7 @@
       </c>
       <c r="B31" s="185" t="inlineStr">
         <is>
-          <t>BALIÀN JUNGLE  SURF  ACCOMODATION 3</t>
+          <t>D’mas Huts Lembongan</t>
         </is>
       </c>
       <c r="C31" s="185" t="inlineStr">
@@ -41336,7 +41349,7 @@
       </c>
       <c r="D31" s="141" t="inlineStr">
         <is>
-          <t>Bungalow</t>
+          <t>Barn</t>
         </is>
       </c>
       <c r="E31" s="141" t="n">
@@ -41347,7 +41360,7 @@
       <c r="H31" s="141" t="n"/>
       <c r="I31" s="141" t="n"/>
       <c r="J31" s="141" t="n">
-        <v>300</v>
+        <v>42960</v>
       </c>
       <c r="K31" s="141" t="n"/>
       <c r="L31" s="141" t="inlineStr"/>
@@ -41358,24 +41371,12 @@
       </c>
       <c r="N31" s="141" t="inlineStr"/>
       <c r="O31" s="141" t="n">
-        <v>1</v>
-      </c>
-      <c r="P31" s="141" t="inlineStr">
-        <is>
-          <t>kitchen</t>
-        </is>
-      </c>
-      <c r="Q31" s="141" t="inlineStr">
-        <is>
-          <t>Dedicated workspace</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="P31" s="141" t="inlineStr"/>
+      <c r="Q31" s="141" t="inlineStr"/>
       <c r="R31" s="141" t="inlineStr"/>
-      <c r="S31" s="141" t="inlineStr">
-        <is>
-          <t>Outdoor dining area, Backyard</t>
-        </is>
-      </c>
+      <c r="S31" s="141" t="inlineStr"/>
       <c r="T31" s="141" t="inlineStr">
         <is>
           <t>Safe</t>
@@ -41383,7 +41384,7 @@
       </c>
       <c r="U31" s="140" t="inlineStr">
         <is>
-          <t>2.0 stars, 2 reviews</t>
+          <t>0.0 stars, 0 reviews</t>
         </is>
       </c>
       <c r="V31" s="140" t="inlineStr">
@@ -41398,7 +41399,7 @@
       </c>
       <c r="B32" s="185" t="inlineStr">
         <is>
-          <t>Angels Bali Homestay (Andělé Bali)</t>
+          <t>Ketut Homestay #4</t>
         </is>
       </c>
       <c r="C32" s="185" t="inlineStr">
@@ -41408,7 +41409,7 @@
       </c>
       <c r="D32" s="141" t="inlineStr">
         <is>
-          <t>Guesthouse</t>
+          <t>Home</t>
         </is>
       </c>
       <c r="E32" s="141" t="n">
@@ -41419,23 +41420,31 @@
       <c r="H32" s="141" t="n"/>
       <c r="I32" s="141" t="n"/>
       <c r="J32" s="141" t="n">
-        <v>300</v>
+        <v>34650</v>
       </c>
       <c r="K32" s="141" t="n"/>
       <c r="L32" s="141" t="inlineStr"/>
-      <c r="M32" s="141" t="inlineStr"/>
+      <c r="M32" s="141" t="inlineStr">
+        <is>
+          <t>Free parking on premises</t>
+        </is>
+      </c>
       <c r="N32" s="141" t="inlineStr"/>
       <c r="O32" s="141" t="n">
         <v>1</v>
       </c>
-      <c r="P32" s="141" t="inlineStr"/>
+      <c r="P32" s="141" t="inlineStr">
+        <is>
+          <t>kitchen</t>
+        </is>
+      </c>
       <c r="Q32" s="141" t="inlineStr"/>
       <c r="R32" s="141" t="inlineStr"/>
       <c r="S32" s="141" t="inlineStr"/>
       <c r="T32" s="141" t="inlineStr"/>
       <c r="U32" s="140" t="inlineStr">
         <is>
-          <t>4.2 stars, 5 reviews</t>
+          <t>0.0 stars, 0 reviews</t>
         </is>
       </c>
       <c r="V32" s="140" t="inlineStr">
@@ -41450,7 +41459,7 @@
       </c>
       <c r="B33" s="185" t="inlineStr">
         <is>
-          <t>Astiti Graha Cottage</t>
+          <t>Peaceful private cottage with nature</t>
         </is>
       </c>
       <c r="C33" s="185" t="inlineStr">
@@ -41460,42 +41469,50 @@
       </c>
       <c r="D33" s="141" t="inlineStr">
         <is>
-          <t>Guesthouse</t>
+          <t>Cottage</t>
         </is>
       </c>
       <c r="E33" s="141" t="n">
         <v>1</v>
       </c>
-      <c r="F33" s="141" t="n">
-        <v>309</v>
-      </c>
-      <c r="G33" s="141" t="n">
-        <v>2601461</v>
-      </c>
-      <c r="H33" s="141" t="n">
-        <v>99.03</v>
-      </c>
-      <c r="I33" s="141" t="n">
-        <v>796064400</v>
-      </c>
+      <c r="F33" s="141" t="n"/>
+      <c r="G33" s="141" t="n"/>
+      <c r="H33" s="141" t="n"/>
+      <c r="I33" s="141" t="n"/>
       <c r="J33" s="141" t="n">
-        <v>28410</v>
+        <v>41220</v>
       </c>
       <c r="K33" s="141" t="n"/>
-      <c r="L33" s="141" t="inlineStr"/>
+      <c r="L33" s="141" t="inlineStr">
+        <is>
+          <t>Courtyard view, Garden view, River view, Valley view</t>
+        </is>
+      </c>
       <c r="M33" s="141" t="inlineStr">
         <is>
-          <t>Free parking on premises</t>
+          <t>Free parking on premises, Street parking</t>
         </is>
       </c>
       <c r="N33" s="141" t="inlineStr"/>
       <c r="O33" s="141" t="n">
-        <v>1</v>
-      </c>
-      <c r="P33" s="141" t="inlineStr"/>
-      <c r="Q33" s="141" t="inlineStr"/>
+        <v>1.5</v>
+      </c>
+      <c r="P33" s="141" t="inlineStr">
+        <is>
+          <t>kitchen</t>
+        </is>
+      </c>
+      <c r="Q33" s="141" t="inlineStr">
+        <is>
+          <t>Dedicated workspace</t>
+        </is>
+      </c>
       <c r="R33" s="141" t="inlineStr"/>
-      <c r="S33" s="141" t="inlineStr"/>
+      <c r="S33" s="141" t="inlineStr">
+        <is>
+          <t>Outdoor dining area, Patio or balcony, Backyard</t>
+        </is>
+      </c>
       <c r="T33" s="141" t="inlineStr">
         <is>
           <t>Safe</t>
@@ -41503,7 +41520,7 @@
       </c>
       <c r="U33" s="140" t="inlineStr">
         <is>
-          <t>0.0 stars, 0 reviews</t>
+          <t>4.63 stars, 8 reviews</t>
         </is>
       </c>
       <c r="V33" s="140" t="inlineStr">
@@ -41518,7 +41535,7 @@
       </c>
       <c r="B34" s="186" t="inlineStr">
         <is>
-          <t>trisna garden room upstair 2</t>
+          <t>Amed Cheerful 1-bedroom vacation home</t>
         </is>
       </c>
       <c r="C34" s="186" t="inlineStr">
@@ -41528,20 +41545,16 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Place</t>
+          <t>Home</t>
         </is>
       </c>
       <c r="E34" t="n">
         <v>1</v>
       </c>
       <c r="J34" t="n">
-        <v>300</v>
-      </c>
-      <c r="L34" t="inlineStr">
-        <is>
-          <t>Courtyard view, Garden view, Park view</t>
-        </is>
-      </c>
+        <v>43290</v>
+      </c>
+      <c r="L34" t="inlineStr"/>
       <c r="M34" t="inlineStr">
         <is>
           <t>Free parking on premises</t>
@@ -41549,13 +41562,9 @@
       </c>
       <c r="N34" t="inlineStr"/>
       <c r="O34" t="n">
-        <v>1</v>
-      </c>
-      <c r="P34" t="inlineStr">
-        <is>
-          <t>kitchen</t>
-        </is>
-      </c>
+        <v>1.5</v>
+      </c>
+      <c r="P34" t="inlineStr"/>
       <c r="Q34" t="inlineStr">
         <is>
           <t>Dedicated workspace</t>
@@ -41564,17 +41573,17 @@
       <c r="R34" t="inlineStr"/>
       <c r="S34" t="inlineStr">
         <is>
-          <t>Outdoor dining area, Patio or balcony, Backyard</t>
+          <t>Patio or balcony</t>
         </is>
       </c>
       <c r="T34" t="inlineStr">
         <is>
-          <t>Safe</t>
+          <t>Lockbox</t>
         </is>
       </c>
       <c r="U34" t="inlineStr">
         <is>
-          <t>3.67 stars, 3 reviews</t>
+          <t>4.78 stars, 9 reviews</t>
         </is>
       </c>
       <c r="V34" t="inlineStr">
@@ -41589,7 +41598,7 @@
       </c>
       <c r="B35" s="186" t="inlineStr">
         <is>
-          <t>Promo last minute Studio in heart of Denpasar</t>
+          <t>Jungle House - Budget Double room</t>
         </is>
       </c>
       <c r="C35" s="186" t="inlineStr">
@@ -41599,37 +41608,45 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Place</t>
+          <t>House</t>
         </is>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J35" t="n">
-        <v>300</v>
+        <v>390</v>
       </c>
       <c r="L35" t="inlineStr"/>
       <c r="M35" t="inlineStr">
         <is>
-          <t>Free parking on premises</t>
+          <t>Free parking on premises, Street parking</t>
         </is>
       </c>
       <c r="N35" t="inlineStr"/>
       <c r="O35" t="n">
-        <v>1</v>
-      </c>
-      <c r="P35" t="inlineStr"/>
+        <v>1.5</v>
+      </c>
+      <c r="P35" t="inlineStr">
+        <is>
+          <t>kitchen</t>
+        </is>
+      </c>
       <c r="Q35" t="inlineStr"/>
       <c r="R35" t="inlineStr"/>
       <c r="S35" t="inlineStr">
         <is>
-          <t>Patio or balcony</t>
-        </is>
-      </c>
-      <c r="T35" t="inlineStr"/>
+          <t>Outdoor dining area, Patio or balcony, Backyard</t>
+        </is>
+      </c>
+      <c r="T35" t="inlineStr">
+        <is>
+          <t>Safe</t>
+        </is>
+      </c>
       <c r="U35" t="inlineStr">
         <is>
-          <t>0.0 stars, 0 reviews</t>
+          <t>4.5 stars, 10 reviews</t>
         </is>
       </c>
       <c r="V35" t="inlineStr">
@@ -41644,7 +41661,7 @@
       </c>
       <c r="B36" s="186" t="inlineStr">
         <is>
-          <t>Stay With Pure local People in Balinese community</t>
+          <t>Private Guest House Near GWK</t>
         </is>
       </c>
       <c r="C36" s="186" t="inlineStr">
@@ -41654,41 +41671,46 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Home</t>
+          <t>Guesthouse</t>
         </is>
       </c>
       <c r="E36" t="n">
         <v>1</v>
       </c>
       <c r="J36" t="n">
-        <v>300</v>
+        <v>34650</v>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
       </c>
       <c r="L36" t="inlineStr"/>
-      <c r="M36" t="inlineStr"/>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>Free parking on premises</t>
+        </is>
+      </c>
       <c r="N36" t="inlineStr"/>
       <c r="O36" t="n">
         <v>1</v>
       </c>
-      <c r="P36" t="inlineStr">
-        <is>
-          <t>kitchen</t>
-        </is>
-      </c>
+      <c r="P36" t="inlineStr"/>
       <c r="Q36" t="inlineStr">
         <is>
           <t>Dedicated workspace</t>
         </is>
       </c>
       <c r="R36" t="inlineStr"/>
-      <c r="S36" t="inlineStr">
-        <is>
-          <t>Patio or balcony, Backyard</t>
-        </is>
-      </c>
-      <c r="T36" t="inlineStr"/>
+      <c r="S36" t="inlineStr"/>
+      <c r="T36" t="inlineStr">
+        <is>
+          <t>Safe</t>
+        </is>
+      </c>
       <c r="U36" t="inlineStr">
         <is>
-          <t>5.0 stars, 5 reviews</t>
+          <t>5.05 stars, 7 reviews</t>
         </is>
       </c>
       <c r="V36" t="inlineStr">
@@ -41703,7 +41725,7 @@
       </c>
       <c r="B37" s="186" t="inlineStr">
         <is>
-          <t>kecag kecog guest house no:2</t>
+          <t>Sinar Bali 5 Family room</t>
         </is>
       </c>
       <c r="C37" s="186" t="inlineStr">
@@ -41713,17 +41735,25 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>House</t>
+          <t>Home</t>
         </is>
       </c>
       <c r="E37" t="n">
         <v>1</v>
       </c>
       <c r="J37" t="n">
-        <v>330</v>
-      </c>
-      <c r="L37" t="inlineStr"/>
-      <c r="M37" t="inlineStr"/>
+        <v>38970</v>
+      </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>Garden view, Sea view, Beach view, Ocean view</t>
+        </is>
+      </c>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>Free parking on premises</t>
+        </is>
+      </c>
       <c r="N37" t="inlineStr"/>
       <c r="O37" t="n">
         <v>1</v>
@@ -41731,11 +41761,15 @@
       <c r="P37" t="inlineStr"/>
       <c r="Q37" t="inlineStr"/>
       <c r="R37" t="inlineStr"/>
-      <c r="S37" t="inlineStr"/>
+      <c r="S37" t="inlineStr">
+        <is>
+          <t>Patio or balcony, Backyard</t>
+        </is>
+      </c>
       <c r="T37" t="inlineStr"/>
       <c r="U37" t="inlineStr">
         <is>
-          <t>1.0 stars, 0 reviews</t>
+          <t>5.0 stars, 3 reviews</t>
         </is>
       </c>
       <c r="V37" t="inlineStr">
@@ -41750,7 +41784,7 @@
       </c>
       <c r="B38" s="186" t="inlineStr">
         <is>
-          <t>Bahtera Guest House 2</t>
+          <t>Orca</t>
         </is>
       </c>
       <c r="C38" s="186" t="inlineStr">
@@ -41760,20 +41794,24 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>House</t>
+          <t>Villa</t>
         </is>
       </c>
       <c r="E38" t="n">
         <v>1</v>
       </c>
       <c r="J38" t="n">
-        <v>330</v>
+        <v>34650</v>
       </c>
       <c r="L38" t="inlineStr"/>
-      <c r="M38" t="inlineStr"/>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>Free parking on premises</t>
+        </is>
+      </c>
       <c r="N38" t="inlineStr"/>
       <c r="O38" t="n">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="P38" t="inlineStr"/>
       <c r="Q38" t="inlineStr">
@@ -41782,15 +41820,15 @@
         </is>
       </c>
       <c r="R38" t="inlineStr"/>
-      <c r="S38" t="inlineStr"/>
-      <c r="T38" t="inlineStr">
-        <is>
-          <t>Safe</t>
-        </is>
-      </c>
+      <c r="S38" t="inlineStr">
+        <is>
+          <t>Patio or balcony, Backyard</t>
+        </is>
+      </c>
+      <c r="T38" t="inlineStr"/>
       <c r="U38" t="inlineStr">
         <is>
-          <t>5.0 stars, 3 reviews</t>
+          <t>4.7 stars, 10 reviews</t>
         </is>
       </c>
       <c r="V38" t="inlineStr">
@@ -41805,7 +41843,7 @@
       </c>
       <c r="B39" s="186" t="inlineStr">
         <is>
-          <t>Canggu 77 Guest House (1)</t>
+          <t>Cute house in center Penida with Panoramic View</t>
         </is>
       </c>
       <c r="C39" s="186" t="inlineStr">
@@ -41815,16 +41853,20 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>House</t>
+          <t>Guesthouse</t>
         </is>
       </c>
       <c r="E39" t="n">
         <v>1</v>
       </c>
       <c r="J39" t="n">
-        <v>31170</v>
-      </c>
-      <c r="L39" t="inlineStr"/>
+        <v>45420</v>
+      </c>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>Garden view, Mountain view, Ocean view</t>
+        </is>
+      </c>
       <c r="M39" t="inlineStr">
         <is>
           <t>Free parking on premises</t>
@@ -41841,15 +41883,15 @@
       </c>
       <c r="Q39" t="inlineStr"/>
       <c r="R39" t="inlineStr"/>
-      <c r="S39" t="inlineStr"/>
-      <c r="T39" t="inlineStr">
-        <is>
-          <t>Safe</t>
-        </is>
-      </c>
+      <c r="S39" t="inlineStr">
+        <is>
+          <t>Patio or balcony, Backyard</t>
+        </is>
+      </c>
+      <c r="T39" t="inlineStr"/>
       <c r="U39" t="inlineStr">
         <is>
-          <t>3.6 stars, 5 reviews</t>
+          <t>2.0 stars, 2 reviews</t>
         </is>
       </c>
       <c r="V39" t="inlineStr">
@@ -41864,7 +41906,7 @@
       </c>
       <c r="B40" s="186" t="inlineStr">
         <is>
-          <t>Private artsy place in sanur</t>
+          <t>Jimmy Hendrix dance school</t>
         </is>
       </c>
       <c r="C40" s="186" t="inlineStr">
@@ -41874,20 +41916,24 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Place</t>
+          <t>Cottage</t>
         </is>
       </c>
       <c r="E40" t="n">
         <v>1</v>
       </c>
       <c r="J40" t="n">
-        <v>330</v>
+        <v>36510</v>
       </c>
       <c r="L40" t="inlineStr"/>
-      <c r="M40" t="inlineStr"/>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>Free parking on premises, Street parking</t>
+        </is>
+      </c>
       <c r="N40" t="inlineStr"/>
       <c r="O40" t="n">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="P40" t="inlineStr"/>
       <c r="Q40" t="inlineStr">
@@ -41898,13 +41944,13 @@
       <c r="R40" t="inlineStr"/>
       <c r="S40" t="inlineStr">
         <is>
-          <t>Patio or balcony</t>
+          <t>Patio or balcony, Backyard</t>
         </is>
       </c>
       <c r="T40" t="inlineStr"/>
       <c r="U40" t="inlineStr">
         <is>
-          <t>5.0 stars, 3 reviews</t>
+          <t>4.61 stars, 33 reviews</t>
         </is>
       </c>
       <c r="V40" t="inlineStr">
@@ -41919,7 +41965,7 @@
       </c>
       <c r="B41" s="186" t="inlineStr">
         <is>
-          <t>Kamar Murah Tince</t>
+          <t>Hidden Coconut Jungle View House  Bali</t>
         </is>
       </c>
       <c r="C41" s="186" t="inlineStr">
@@ -41929,29 +41975,49 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Home</t>
+          <t>House</t>
         </is>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J41" t="n">
-        <v>300</v>
+        <v>38970</v>
       </c>
       <c r="L41" t="inlineStr"/>
-      <c r="M41" t="inlineStr"/>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>Free parking on premises</t>
+        </is>
+      </c>
       <c r="N41" t="inlineStr"/>
       <c r="O41" t="n">
-        <v>1</v>
-      </c>
-      <c r="P41" t="inlineStr"/>
-      <c r="Q41" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="P41" t="inlineStr">
+        <is>
+          <t>kitchen</t>
+        </is>
+      </c>
+      <c r="Q41" t="inlineStr">
+        <is>
+          <t>Dedicated workspace</t>
+        </is>
+      </c>
       <c r="R41" t="inlineStr"/>
-      <c r="S41" t="inlineStr"/>
-      <c r="T41" t="inlineStr"/>
+      <c r="S41" t="inlineStr">
+        <is>
+          <t>Outdoor dining area, Patio or balcony, Backyard</t>
+        </is>
+      </c>
+      <c r="T41" t="inlineStr">
+        <is>
+          <t>Safe</t>
+        </is>
+      </c>
       <c r="U41" t="inlineStr">
         <is>
-          <t>0.0 stars, 0 reviews</t>
+          <t>5.0 stars, 3 reviews</t>
         </is>
       </c>
       <c r="V41" t="inlineStr">
@@ -41966,7 +42032,7 @@
       </c>
       <c r="B42" s="186" t="inlineStr">
         <is>
-          <t>OMAN House - 1 BR house in Balinese compound</t>
+          <t>monik guest house</t>
         </is>
       </c>
       <c r="C42" s="186" t="inlineStr">
@@ -41980,41 +42046,25 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>30270</v>
+        <v>34650</v>
       </c>
       <c r="L42" t="inlineStr"/>
-      <c r="M42" t="inlineStr">
-        <is>
-          <t>Free parking on premises, Street parking</t>
-        </is>
-      </c>
+      <c r="M42" t="inlineStr"/>
       <c r="N42" t="inlineStr"/>
       <c r="O42" t="n">
         <v>1</v>
       </c>
-      <c r="P42" t="inlineStr">
-        <is>
-          <t>kitchen</t>
-        </is>
-      </c>
+      <c r="P42" t="inlineStr"/>
       <c r="Q42" t="inlineStr"/>
       <c r="R42" t="inlineStr"/>
-      <c r="S42" t="inlineStr">
-        <is>
-          <t>Patio or balcony, Backyard</t>
-        </is>
-      </c>
-      <c r="T42" t="inlineStr">
-        <is>
-          <t>Safe</t>
-        </is>
-      </c>
+      <c r="S42" t="inlineStr"/>
+      <c r="T42" t="inlineStr"/>
       <c r="U42" t="inlineStr">
         <is>
-          <t>4.56 stars, 39 reviews</t>
+          <t>1.0 stars, 0 reviews</t>
         </is>
       </c>
       <c r="V42" t="inlineStr">
@@ -42029,7 +42079,7 @@
       </c>
       <c r="B43" s="186" t="inlineStr">
         <is>
-          <t>Ketut's House</t>
+          <t>medewi good vibes  villages</t>
         </is>
       </c>
       <c r="C43" s="186" t="inlineStr">
@@ -42039,14 +42089,14 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>House</t>
+          <t>Villa</t>
         </is>
       </c>
       <c r="E43" t="n">
         <v>1</v>
       </c>
       <c r="J43" t="n">
-        <v>30270</v>
+        <v>43290</v>
       </c>
       <c r="L43" t="inlineStr"/>
       <c r="M43" t="inlineStr">
@@ -42073,7 +42123,7 @@
       <c r="T43" t="inlineStr"/>
       <c r="U43" t="inlineStr">
         <is>
-          <t>1.0 stars, 0 reviews</t>
+          <t>0.0 stars, 0 reviews</t>
         </is>
       </c>
       <c r="V43" t="inlineStr">
@@ -42088,7 +42138,7 @@
       </c>
       <c r="B44" s="186" t="inlineStr">
         <is>
-          <t>Canggu 77 Guest House (2)</t>
+          <t>Anish Homestay Doubled Bedroom</t>
         </is>
       </c>
       <c r="C44" s="186" t="inlineStr">
@@ -42098,14 +42148,14 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>House</t>
+          <t>Guesthouse</t>
         </is>
       </c>
       <c r="E44" t="n">
         <v>1</v>
       </c>
       <c r="J44" t="n">
-        <v>330</v>
+        <v>43290</v>
       </c>
       <c r="L44" t="inlineStr"/>
       <c r="M44" t="inlineStr">
@@ -42125,14 +42175,10 @@
       <c r="Q44" t="inlineStr"/>
       <c r="R44" t="inlineStr"/>
       <c r="S44" t="inlineStr"/>
-      <c r="T44" t="inlineStr">
-        <is>
-          <t>Safe</t>
-        </is>
-      </c>
+      <c r="T44" t="inlineStr"/>
       <c r="U44" t="inlineStr">
         <is>
-          <t>3.4 stars, 5 reviews</t>
+          <t>0.0 stars, 0 reviews</t>
         </is>
       </c>
       <c r="V44" t="inlineStr">
@@ -42147,7 +42193,7 @@
       </c>
       <c r="B45" s="186" t="inlineStr">
         <is>
-          <t>Rajapala garden bungalow #1</t>
+          <t>Exotic Studio Room in Kuta (203)</t>
         </is>
       </c>
       <c r="C45" s="186" t="inlineStr">
@@ -42157,23 +42203,24 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Bungalow</t>
+          <t>Place</t>
         </is>
       </c>
       <c r="E45" t="n">
         <v>1</v>
       </c>
       <c r="J45" t="n">
-        <v>360</v>
-      </c>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>Garden view, Beach view, Ocean view</t>
-        </is>
-      </c>
+        <v>43290</v>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="L45" t="inlineStr"/>
       <c r="M45" t="inlineStr">
         <is>
-          <t>Free parking on premises</t>
+          <t>Free parking on premises, Street parking</t>
         </is>
       </c>
       <c r="N45" t="inlineStr"/>
@@ -42185,21 +42232,17 @@
           <t>kitchen</t>
         </is>
       </c>
-      <c r="Q45" t="inlineStr">
-        <is>
-          <t>Dedicated workspace</t>
-        </is>
-      </c>
+      <c r="Q45" t="inlineStr"/>
       <c r="R45" t="inlineStr"/>
-      <c r="S45" t="inlineStr">
-        <is>
-          <t>Outdoor dining area, Patio or balcony, Backyard</t>
-        </is>
-      </c>
-      <c r="T45" t="inlineStr"/>
+      <c r="S45" t="inlineStr"/>
+      <c r="T45" t="inlineStr">
+        <is>
+          <t>Safe</t>
+        </is>
+      </c>
       <c r="U45" t="inlineStr">
         <is>
-          <t>4.45 stars, 11 reviews</t>
+          <t>4.8 stars, 10 reviews</t>
         </is>
       </c>
       <c r="V45" t="inlineStr">
@@ -42214,7 +42257,7 @@
       </c>
       <c r="B46" s="186" t="inlineStr">
         <is>
-          <t>Rajapala Garden Bamboo Bungalow #2</t>
+          <t>Private Rooms in Sayan Ubud</t>
         </is>
       </c>
       <c r="C46" s="186" t="inlineStr">
@@ -42224,14 +42267,14 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Bungalow</t>
+          <t>Guesthouse</t>
         </is>
       </c>
       <c r="E46" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J46" t="n">
-        <v>31560</v>
+        <v>41580</v>
       </c>
       <c r="L46" t="inlineStr"/>
       <c r="M46" t="inlineStr">
@@ -42243,26 +42286,14 @@
       <c r="O46" t="n">
         <v>1</v>
       </c>
-      <c r="P46" t="inlineStr">
-        <is>
-          <t>kitchen</t>
-        </is>
-      </c>
-      <c r="Q46" t="inlineStr">
-        <is>
-          <t>Dedicated workspace</t>
-        </is>
-      </c>
+      <c r="P46" t="inlineStr"/>
+      <c r="Q46" t="inlineStr"/>
       <c r="R46" t="inlineStr"/>
-      <c r="S46" t="inlineStr">
-        <is>
-          <t>Patio or balcony, Backyard</t>
-        </is>
-      </c>
+      <c r="S46" t="inlineStr"/>
       <c r="T46" t="inlineStr"/>
       <c r="U46" t="inlineStr">
         <is>
-          <t>4.72 stars, 36 reviews</t>
+          <t>3.67 stars, 3 reviews</t>
         </is>
       </c>
       <c r="V46" t="inlineStr">
@@ -42277,7 +42308,7 @@
       </c>
       <c r="B47" s="186" t="inlineStr">
         <is>
-          <t>Sinar Bali 3</t>
+          <t>Room On The Beach with Sea view</t>
         </is>
       </c>
       <c r="C47" s="186" t="inlineStr">
@@ -42291,19 +42322,15 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J47" t="n">
-        <v>28680</v>
-      </c>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>Garden view, Sea view, Beach view, Ocean view</t>
-        </is>
-      </c>
+        <v>480</v>
+      </c>
+      <c r="L47" t="inlineStr"/>
       <c r="M47" t="inlineStr">
         <is>
-          <t>Free parking on premises, Street parking</t>
+          <t>Free parking on premises</t>
         </is>
       </c>
       <c r="N47" t="inlineStr"/>
@@ -42315,13 +42342,17 @@
       <c r="R47" t="inlineStr"/>
       <c r="S47" t="inlineStr">
         <is>
-          <t>Patio or balcony, Backyard</t>
-        </is>
-      </c>
-      <c r="T47" t="inlineStr"/>
+          <t>Outdoor dining area, Patio or balcony</t>
+        </is>
+      </c>
+      <c r="T47" t="inlineStr">
+        <is>
+          <t>Safe</t>
+        </is>
+      </c>
       <c r="U47" t="inlineStr">
         <is>
-          <t>0.0 stars, 0 reviews</t>
+          <t>4.5 stars, 4 reviews</t>
         </is>
       </c>
       <c r="V47" t="inlineStr">
@@ -42336,7 +42367,7 @@
       </c>
       <c r="B48" s="186" t="inlineStr">
         <is>
-          <t>DS Apartment ( under contruction)</t>
+          <t>Cengkilung Guest House (No Balcony)</t>
         </is>
       </c>
       <c r="C48" s="186" t="inlineStr">
@@ -42346,19 +42377,19 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Apartment</t>
+          <t>Guesthouse</t>
         </is>
       </c>
       <c r="E48" t="n">
         <v>1</v>
       </c>
       <c r="J48" t="n">
-        <v>33030</v>
+        <v>44040</v>
       </c>
       <c r="L48" t="inlineStr"/>
       <c r="M48" t="inlineStr">
         <is>
-          <t>Free parking on premises</t>
+          <t>Free parking on premises, Street parking</t>
         </is>
       </c>
       <c r="N48" t="inlineStr"/>
@@ -42374,13 +42405,17 @@
       <c r="R48" t="inlineStr"/>
       <c r="S48" t="inlineStr">
         <is>
-          <t>Outdoor dining area, Patio or balcony</t>
-        </is>
-      </c>
-      <c r="T48" t="inlineStr"/>
+          <t>Outdoor dining area, Backyard</t>
+        </is>
+      </c>
+      <c r="T48" t="inlineStr">
+        <is>
+          <t>Safe</t>
+        </is>
+      </c>
       <c r="U48" t="inlineStr">
         <is>
-          <t>1.0 stars, 0 reviews</t>
+          <t>5.0 stars, 10 reviews</t>
         </is>
       </c>
       <c r="V48" t="inlineStr">
@@ -42395,7 +42430,7 @@
       </c>
       <c r="B49" s="186" t="inlineStr">
         <is>
-          <t>minimalist room with green view</t>
+          <t>Gladak House 5 Pantry and swim-pool</t>
         </is>
       </c>
       <c r="C49" s="186" t="inlineStr">
@@ -42405,14 +42440,14 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Home</t>
+          <t>Guesthouse</t>
         </is>
       </c>
       <c r="E49" t="n">
         <v>1</v>
       </c>
       <c r="J49" t="n">
-        <v>360</v>
+        <v>390</v>
       </c>
       <c r="L49" t="inlineStr"/>
       <c r="M49" t="inlineStr">
@@ -42429,25 +42464,17 @@
           <t>kitchen</t>
         </is>
       </c>
-      <c r="Q49" t="inlineStr">
-        <is>
-          <t>Dedicated workspace</t>
-        </is>
-      </c>
+      <c r="Q49" t="inlineStr"/>
       <c r="R49" t="inlineStr"/>
       <c r="S49" t="inlineStr">
         <is>
-          <t>Outdoor dining area</t>
-        </is>
-      </c>
-      <c r="T49" t="inlineStr">
-        <is>
-          <t>Lockbox, Safe</t>
-        </is>
-      </c>
+          <t>Patio or balcony, Backyard</t>
+        </is>
+      </c>
+      <c r="T49" t="inlineStr"/>
       <c r="U49" t="inlineStr">
         <is>
-          <t>5.0 stars, 4 reviews</t>
+          <t>4.84 stars, 25 reviews</t>
         </is>
       </c>
       <c r="V49" t="inlineStr">
@@ -42462,7 +42489,7 @@
       </c>
       <c r="B50" s="186" t="inlineStr">
         <is>
-          <t>BALIAN JUNGLE SURF ACCOMADATION 1</t>
+          <t>Sanur apartment with kitchen close to the beach</t>
         </is>
       </c>
       <c r="C50" s="186" t="inlineStr">
@@ -42479,46 +42506,26 @@
         <v>1</v>
       </c>
       <c r="J50" t="n">
-        <v>360</v>
-      </c>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>Garden view, River view, Valley view</t>
-        </is>
-      </c>
-      <c r="M50" t="inlineStr">
-        <is>
-          <t>Free parking on premises</t>
-        </is>
-      </c>
+        <v>480</v>
+      </c>
+      <c r="L50" t="inlineStr"/>
+      <c r="M50" t="inlineStr"/>
       <c r="N50" t="inlineStr"/>
       <c r="O50" t="n">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="P50" t="inlineStr">
         <is>
           <t>kitchen</t>
         </is>
       </c>
-      <c r="Q50" t="inlineStr">
-        <is>
-          <t>Dedicated workspace</t>
-        </is>
-      </c>
+      <c r="Q50" t="inlineStr"/>
       <c r="R50" t="inlineStr"/>
-      <c r="S50" t="inlineStr">
-        <is>
-          <t>Patio or balcony, Backyard</t>
-        </is>
-      </c>
-      <c r="T50" t="inlineStr">
-        <is>
-          <t>Safe</t>
-        </is>
-      </c>
+      <c r="S50" t="inlineStr"/>
+      <c r="T50" t="inlineStr"/>
       <c r="U50" t="inlineStr">
         <is>
-          <t>4.74 stars, 19 reviews</t>
+          <t>4.815 stars, 239 reviews</t>
         </is>
       </c>
       <c r="V50" t="inlineStr">
@@ -42533,7 +42540,7 @@
       </c>
       <c r="B51" s="186" t="inlineStr">
         <is>
-          <t>Strategic &amp; Comfy Studio Room#9 - Near Kuta&amp;Canggu</t>
+          <t>Riverside Guest House 2</t>
         </is>
       </c>
       <c r="C51" s="186" t="inlineStr">
@@ -42543,14 +42550,14 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Place</t>
+          <t>Guesthouse</t>
         </is>
       </c>
       <c r="E51" t="n">
         <v>1</v>
       </c>
       <c r="J51" t="n">
-        <v>330</v>
+        <v>450</v>
       </c>
       <c r="L51" t="inlineStr"/>
       <c r="M51" t="inlineStr">
@@ -42562,26 +42569,22 @@
       <c r="O51" t="n">
         <v>1</v>
       </c>
-      <c r="P51" t="inlineStr">
-        <is>
-          <t>kitchen</t>
-        </is>
-      </c>
+      <c r="P51" t="inlineStr"/>
       <c r="Q51" t="inlineStr">
         <is>
           <t>Dedicated workspace</t>
         </is>
       </c>
       <c r="R51" t="inlineStr"/>
-      <c r="S51" t="inlineStr"/>
-      <c r="T51" t="inlineStr">
-        <is>
-          <t>Safe</t>
-        </is>
-      </c>
+      <c r="S51" t="inlineStr">
+        <is>
+          <t>Patio or balcony</t>
+        </is>
+      </c>
+      <c r="T51" t="inlineStr"/>
       <c r="U51" t="inlineStr">
         <is>
-          <t>5.05 stars, 8 reviews</t>
+          <t>4.83 stars, 46 reviews</t>
         </is>
       </c>
       <c r="V51" t="inlineStr">
@@ -42596,7 +42599,7 @@
       </c>
       <c r="B52" s="186" t="inlineStr">
         <is>
-          <t>Balinese Room in Sanur #5 -Kubu Angkangan Homestay</t>
+          <t>Quite Village Lodge on the Rice Field 2</t>
         </is>
       </c>
       <c r="C52" s="186" t="inlineStr">
@@ -42606,45 +42609,33 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Home</t>
+          <t>Villa</t>
         </is>
       </c>
       <c r="E52" t="n">
         <v>1</v>
       </c>
       <c r="J52" t="n">
-        <v>330</v>
+        <v>35520</v>
       </c>
       <c r="L52" t="inlineStr"/>
       <c r="M52" t="inlineStr">
         <is>
-          <t>Free parking on premises, Street parking</t>
+          <t>Free parking on premises</t>
         </is>
       </c>
       <c r="N52" t="inlineStr"/>
       <c r="O52" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="P52" t="inlineStr">
-        <is>
-          <t>kitchen</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="P52" t="inlineStr"/>
       <c r="Q52" t="inlineStr"/>
       <c r="R52" t="inlineStr"/>
-      <c r="S52" t="inlineStr">
-        <is>
-          <t>Backyard</t>
-        </is>
-      </c>
-      <c r="T52" t="inlineStr">
-        <is>
-          <t>Lockbox, Safe</t>
-        </is>
-      </c>
+      <c r="S52" t="inlineStr"/>
+      <c r="T52" t="inlineStr"/>
       <c r="U52" t="inlineStr">
         <is>
-          <t>4.85 stars, 62 reviews</t>
+          <t>1.0 stars, 0 reviews</t>
         </is>
       </c>
       <c r="V52" t="inlineStr">
@@ -42659,7 +42650,7 @@
       </c>
       <c r="B53" s="186" t="inlineStr">
         <is>
-          <t>Self-contained ocean-view room in Lipah!</t>
+          <t>Amed Rustic</t>
         </is>
       </c>
       <c r="C53" s="186" t="inlineStr">
@@ -42669,19 +42660,19 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Place</t>
+          <t>Home</t>
         </is>
       </c>
       <c r="E53" t="n">
+        <v>1</v>
+      </c>
+      <c r="J53" t="n">
         <v>0</v>
-      </c>
-      <c r="J53" t="n">
-        <v>390</v>
       </c>
       <c r="L53" t="inlineStr"/>
       <c r="M53" t="inlineStr">
         <is>
-          <t>Free parking on premises</t>
+          <t>Free parking on premises, Street parking</t>
         </is>
       </c>
       <c r="N53" t="inlineStr"/>
@@ -42693,21 +42684,17 @@
           <t>kitchen</t>
         </is>
       </c>
-      <c r="Q53" t="inlineStr"/>
+      <c r="Q53" t="inlineStr">
+        <is>
+          <t>Dedicated workspace</t>
+        </is>
+      </c>
       <c r="R53" t="inlineStr"/>
-      <c r="S53" t="inlineStr">
-        <is>
-          <t>Patio or balcony</t>
-        </is>
-      </c>
-      <c r="T53" t="inlineStr">
-        <is>
-          <t>Safe</t>
-        </is>
-      </c>
+      <c r="S53" t="inlineStr"/>
+      <c r="T53" t="inlineStr"/>
       <c r="U53" t="inlineStr">
         <is>
-          <t>4.56 stars, 18 reviews</t>
+          <t>0.0 stars, 0 reviews</t>
         </is>
       </c>
       <c r="V53" t="inlineStr">
@@ -42722,7 +42709,7 @@
       </c>
       <c r="B54" s="186" t="inlineStr">
         <is>
-          <t>Mandala Bungalows Ubud (room 1)</t>
+          <t>Guest House | Balinese style room with fan</t>
         </is>
       </c>
       <c r="C54" s="186" t="inlineStr">
@@ -42732,14 +42719,14 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Bungalow</t>
+          <t>House</t>
         </is>
       </c>
       <c r="E54" t="n">
         <v>1</v>
       </c>
       <c r="J54" t="n">
-        <v>34650</v>
+        <v>480</v>
       </c>
       <c r="L54" t="inlineStr"/>
       <c r="M54" t="inlineStr">
@@ -42752,11 +42739,7 @@
         <v>1</v>
       </c>
       <c r="P54" t="inlineStr"/>
-      <c r="Q54" t="inlineStr">
-        <is>
-          <t>Dedicated workspace</t>
-        </is>
-      </c>
+      <c r="Q54" t="inlineStr"/>
       <c r="R54" t="inlineStr"/>
       <c r="S54" t="inlineStr"/>
       <c r="T54" t="inlineStr">
@@ -42766,7 +42749,7 @@
       </c>
       <c r="U54" t="inlineStr">
         <is>
-          <t>4.73 stars, 84 reviews</t>
+          <t>4.75 stars, 56 reviews</t>
         </is>
       </c>
       <c r="V54" t="inlineStr">
@@ -42781,7 +42764,7 @@
       </c>
       <c r="B55" s="186" t="inlineStr">
         <is>
-          <t>Private room queen size bed* with garden view</t>
+          <t>MM4 HOUSE. quiet garden &amp; rice field view 75MBPS</t>
         </is>
       </c>
       <c r="C55" s="186" t="inlineStr">
@@ -42791,29 +42774,33 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Guesthouse</t>
+          <t>House</t>
         </is>
       </c>
       <c r="E55" t="n">
         <v>1</v>
       </c>
       <c r="J55" t="n">
-        <v>390</v>
+        <v>41310</v>
       </c>
       <c r="L55" t="inlineStr"/>
-      <c r="M55" t="inlineStr">
-        <is>
-          <t>Free parking on premises</t>
-        </is>
-      </c>
+      <c r="M55" t="inlineStr"/>
       <c r="N55" t="inlineStr"/>
       <c r="O55" t="n">
-        <v>1</v>
-      </c>
-      <c r="P55" t="inlineStr"/>
+        <v>1.5</v>
+      </c>
+      <c r="P55" t="inlineStr">
+        <is>
+          <t>kitchen</t>
+        </is>
+      </c>
       <c r="Q55" t="inlineStr"/>
       <c r="R55" t="inlineStr"/>
-      <c r="S55" t="inlineStr"/>
+      <c r="S55" t="inlineStr">
+        <is>
+          <t>Patio or balcony, Backyard</t>
+        </is>
+      </c>
       <c r="T55" t="inlineStr">
         <is>
           <t>Safe</t>
@@ -42821,7 +42808,7 @@
       </c>
       <c r="U55" t="inlineStr">
         <is>
-          <t>4.83 stars, 36 reviews</t>
+          <t>4.935 stars, 80 reviews</t>
         </is>
       </c>
       <c r="V55" t="inlineStr">
@@ -42836,7 +42823,7 @@
       </c>
       <c r="B56" s="186" t="inlineStr">
         <is>
-          <t>Rumah Pelangi- Taman Mesari</t>
+          <t>1br valey ricefield view, with kitchen, pool ubud.</t>
         </is>
       </c>
       <c r="C56" s="186" t="inlineStr">
@@ -42846,33 +42833,53 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Guesthouse</t>
+          <t>Apartment</t>
         </is>
       </c>
       <c r="E56" t="n">
         <v>1</v>
       </c>
       <c r="J56" t="n">
-        <v>390</v>
-      </c>
-      <c r="L56" t="inlineStr"/>
-      <c r="M56" t="inlineStr"/>
+        <v>37020</v>
+      </c>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>Valley view, Pool view</t>
+        </is>
+      </c>
+      <c r="M56" t="inlineStr">
+        <is>
+          <t>Free parking on premises</t>
+        </is>
+      </c>
       <c r="N56" t="inlineStr"/>
       <c r="O56" t="n">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="P56" t="inlineStr">
         <is>
           <t>kitchen</t>
         </is>
       </c>
-      <c r="Q56" t="inlineStr"/>
+      <c r="Q56" t="inlineStr">
+        <is>
+          <t>Dedicated workspace</t>
+        </is>
+      </c>
       <c r="R56" t="inlineStr"/>
-      <c r="S56" t="inlineStr"/>
-      <c r="T56" t="inlineStr"/>
+      <c r="S56" t="inlineStr">
+        <is>
+          <t>Outdoor dining area, Patio or balcony</t>
+        </is>
+      </c>
+      <c r="T56" t="inlineStr">
+        <is>
+          <t>Safe</t>
+        </is>
+      </c>
       <c r="U56" t="inlineStr">
         <is>
-          <t>4.53 stars, 86 reviews</t>
+          <t>4.43 stars, 14 reviews</t>
         </is>
       </c>
       <c r="V56" t="inlineStr">
@@ -42887,7 +42894,7 @@
       </c>
       <c r="B57" s="186" t="inlineStr">
         <is>
-          <t>Sedana Apartemen</t>
+          <t>Kadek homeatay on the beach</t>
         </is>
       </c>
       <c r="C57" s="186" t="inlineStr">
@@ -42897,14 +42904,26 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Place</t>
+          <t>Home</t>
         </is>
       </c>
       <c r="E57" t="n">
-        <v>1</v>
+        <v>4</v>
+      </c>
+      <c r="F57" t="n">
+        <v>353</v>
+      </c>
+      <c r="G57" t="n">
+        <v>3176158</v>
+      </c>
+      <c r="H57" t="n">
+        <v>82.44</v>
+      </c>
+      <c r="I57" t="n">
+        <v>924263640</v>
       </c>
       <c r="J57" t="n">
-        <v>390</v>
+        <v>27540</v>
       </c>
       <c r="L57" t="inlineStr"/>
       <c r="M57" t="inlineStr">
@@ -42914,7 +42933,7 @@
       </c>
       <c r="N57" t="inlineStr"/>
       <c r="O57" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="P57" t="inlineStr">
         <is>
@@ -42927,11 +42946,19 @@
         </is>
       </c>
       <c r="R57" t="inlineStr"/>
-      <c r="S57" t="inlineStr"/>
-      <c r="T57" t="inlineStr"/>
+      <c r="S57" t="inlineStr">
+        <is>
+          <t>Outdoor dining area</t>
+        </is>
+      </c>
+      <c r="T57" t="inlineStr">
+        <is>
+          <t>Safe</t>
+        </is>
+      </c>
       <c r="U57" t="inlineStr">
         <is>
-          <t>0.0 stars, 0 reviews</t>
+          <t>2.33 stars, 3 reviews</t>
         </is>
       </c>
       <c r="V57" t="inlineStr">
@@ -42946,7 +42973,8 @@
       </c>
       <c r="B58" s="186" t="inlineStr">
         <is>
-          <t>Jungle House - Budget Double room</t>
+          <t>Reserved Corner
+Family Tegal homestay</t>
         </is>
       </c>
       <c r="C58" s="186" t="inlineStr">
@@ -42956,7 +42984,7 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>House</t>
+          <t>Home</t>
         </is>
       </c>
       <c r="E58" t="n">
@@ -42965,36 +42993,28 @@
       <c r="J58" t="n">
         <v>390</v>
       </c>
-      <c r="L58" t="inlineStr"/>
-      <c r="M58" t="inlineStr">
-        <is>
-          <t>Free parking on premises, Street parking</t>
-        </is>
-      </c>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>Mountain view</t>
+        </is>
+      </c>
+      <c r="M58" t="inlineStr"/>
       <c r="N58" t="inlineStr"/>
       <c r="O58" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="P58" t="inlineStr">
-        <is>
-          <t>kitchen</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="P58" t="inlineStr"/>
       <c r="Q58" t="inlineStr"/>
       <c r="R58" t="inlineStr"/>
       <c r="S58" t="inlineStr">
         <is>
-          <t>Outdoor dining area, Patio or balcony, Backyard</t>
-        </is>
-      </c>
-      <c r="T58" t="inlineStr">
-        <is>
-          <t>Safe</t>
-        </is>
-      </c>
+          <t>Outdoor dining area</t>
+        </is>
+      </c>
+      <c r="T58" t="inlineStr"/>
       <c r="U58" t="inlineStr">
         <is>
-          <t>4.5 stars, 10 reviews</t>
+          <t>0.0 stars, 0 reviews</t>
         </is>
       </c>
       <c r="V58" t="inlineStr">
@@ -43009,7 +43029,7 @@
       </c>
       <c r="B59" s="186" t="inlineStr">
         <is>
-          <t>Green sadri with wifi ,AC and kitchen</t>
+          <t>OSA Guest House (1)</t>
         </is>
       </c>
       <c r="C59" s="186" t="inlineStr">
@@ -43019,20 +43039,16 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>Bungalow</t>
+          <t>Guesthouse</t>
         </is>
       </c>
       <c r="E59" t="n">
         <v>1</v>
       </c>
       <c r="J59" t="n">
-        <v>390</v>
-      </c>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>Courtyard view</t>
-        </is>
-      </c>
+        <v>38100</v>
+      </c>
+      <c r="L59" t="inlineStr"/>
       <c r="M59" t="inlineStr">
         <is>
           <t>Free parking on premises</t>
@@ -43040,13 +43056,9 @@
       </c>
       <c r="N59" t="inlineStr"/>
       <c r="O59" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="P59" t="inlineStr">
-        <is>
-          <t>kitchen</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="P59" t="inlineStr"/>
       <c r="Q59" t="inlineStr">
         <is>
           <t>Dedicated workspace</t>
@@ -43061,7 +43073,7 @@
       </c>
       <c r="U59" t="inlineStr">
         <is>
-          <t>4.71 stars, 21 reviews</t>
+          <t>4.67 stars, 18 reviews</t>
         </is>
       </c>
       <c r="V59" t="inlineStr">
@@ -43076,7 +43088,7 @@
       </c>
       <c r="B60" s="186" t="inlineStr">
         <is>
-          <t>Seaside Villa Bungallow Seraya</t>
+          <t>SARASWATI HOME STAY 1</t>
         </is>
       </c>
       <c r="C60" s="186" t="inlineStr">
@@ -43086,17 +43098,21 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Guesthouse</t>
+          <t>Bungalow</t>
         </is>
       </c>
       <c r="E60" t="n">
         <v>1</v>
       </c>
       <c r="J60" t="n">
-        <v>34230</v>
+        <v>480</v>
       </c>
       <c r="L60" t="inlineStr"/>
-      <c r="M60" t="inlineStr"/>
+      <c r="M60" t="inlineStr">
+        <is>
+          <t>Free parking on premises</t>
+        </is>
+      </c>
       <c r="N60" t="inlineStr"/>
       <c r="O60" t="n">
         <v>1</v>
@@ -43108,15 +43124,15 @@
       </c>
       <c r="Q60" t="inlineStr"/>
       <c r="R60" t="inlineStr"/>
-      <c r="S60" t="inlineStr">
-        <is>
-          <t>Outdoor dining area</t>
-        </is>
-      </c>
-      <c r="T60" t="inlineStr"/>
+      <c r="S60" t="inlineStr"/>
+      <c r="T60" t="inlineStr">
+        <is>
+          <t>Safe</t>
+        </is>
+      </c>
       <c r="U60" t="inlineStr">
         <is>
-          <t>1.0 stars, 0 reviews</t>
+          <t>4.36 stars, 11 reviews</t>
         </is>
       </c>
       <c r="V60" t="inlineStr">
@@ -43131,7 +43147,7 @@
       </c>
       <c r="B61" s="186" t="inlineStr">
         <is>
-          <t>Svaka Homestay Room No.1</t>
+          <t>Sunset Hill Penida Resort Ocean View</t>
         </is>
       </c>
       <c r="C61" s="186" t="inlineStr">
@@ -43141,35 +43157,31 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Home</t>
+          <t>Bungalow</t>
         </is>
       </c>
       <c r="E61" t="n">
         <v>1</v>
       </c>
       <c r="J61" t="n">
-        <v>390</v>
+        <v>49380</v>
       </c>
       <c r="L61" t="inlineStr"/>
-      <c r="M61" t="inlineStr"/>
+      <c r="M61" t="inlineStr">
+        <is>
+          <t>Free parking on premises</t>
+        </is>
+      </c>
       <c r="N61" t="inlineStr"/>
       <c r="O61" t="n">
-        <v>1</v>
-      </c>
-      <c r="P61" t="inlineStr">
-        <is>
-          <t>kitchen</t>
-        </is>
-      </c>
-      <c r="Q61" t="inlineStr">
-        <is>
-          <t>Dedicated workspace</t>
-        </is>
-      </c>
+        <v>1.5</v>
+      </c>
+      <c r="P61" t="inlineStr"/>
+      <c r="Q61" t="inlineStr"/>
       <c r="R61" t="inlineStr"/>
       <c r="S61" t="inlineStr">
         <is>
-          <t>Outdoor dining area</t>
+          <t>Patio or balcony, Backyard</t>
         </is>
       </c>
       <c r="T61" t="inlineStr">
@@ -43179,7 +43191,7 @@
       </c>
       <c r="U61" t="inlineStr">
         <is>
-          <t>1.0 stars, 0 reviews</t>
+          <t>4.38 stars, 121 reviews</t>
         </is>
       </c>
       <c r="V61" t="inlineStr">
@@ -43194,7 +43206,7 @@
       </c>
       <c r="B62" s="186" t="inlineStr">
         <is>
-          <t>Private Guest House Near GWK</t>
+          <t>Exclusive Studio Room in Kuta (302)</t>
         </is>
       </c>
       <c r="C62" s="186" t="inlineStr">
@@ -43204,36 +43216,36 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Guesthouse</t>
+          <t>Place</t>
         </is>
       </c>
       <c r="E62" t="n">
         <v>1</v>
       </c>
       <c r="J62" t="n">
-        <v>390</v>
+        <v>43290</v>
       </c>
       <c r="K62" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>45</t>
         </is>
       </c>
       <c r="L62" t="inlineStr"/>
       <c r="M62" t="inlineStr">
         <is>
-          <t>Free parking on premises</t>
+          <t>Free parking on premises, Street parking</t>
         </is>
       </c>
       <c r="N62" t="inlineStr"/>
       <c r="O62" t="n">
         <v>1</v>
       </c>
-      <c r="P62" t="inlineStr"/>
-      <c r="Q62" t="inlineStr">
-        <is>
-          <t>Dedicated workspace</t>
-        </is>
-      </c>
+      <c r="P62" t="inlineStr">
+        <is>
+          <t>kitchen</t>
+        </is>
+      </c>
+      <c r="Q62" t="inlineStr"/>
       <c r="R62" t="inlineStr"/>
       <c r="S62" t="inlineStr"/>
       <c r="T62" t="inlineStr">
@@ -43243,7 +43255,7 @@
       </c>
       <c r="U62" t="inlineStr">
         <is>
-          <t>5.05 stars, 7 reviews</t>
+          <t>4.63 stars, 16 reviews</t>
         </is>
       </c>
       <c r="V62" t="inlineStr">
@@ -43258,7 +43270,7 @@
       </c>
       <c r="B63" s="186" t="inlineStr">
         <is>
-          <t>Coliving in Seminyak Oberoi</t>
+          <t>SARASWATI HOME STAY 2</t>
         </is>
       </c>
       <c r="C63" s="186" t="inlineStr">
@@ -43268,21 +43280,21 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Place</t>
+          <t>Bungalow</t>
         </is>
       </c>
       <c r="E63" t="n">
         <v>1</v>
       </c>
       <c r="J63" t="n">
-        <v>34650</v>
-      </c>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>Garden view</t>
-        </is>
-      </c>
-      <c r="M63" t="inlineStr"/>
+        <v>43290</v>
+      </c>
+      <c r="L63" t="inlineStr"/>
+      <c r="M63" t="inlineStr">
+        <is>
+          <t>Free parking on premises</t>
+        </is>
+      </c>
       <c r="N63" t="inlineStr"/>
       <c r="O63" t="n">
         <v>1</v>
@@ -43292,25 +43304,13 @@
           <t>kitchen</t>
         </is>
       </c>
-      <c r="Q63" t="inlineStr">
-        <is>
-          <t>Dedicated workspace</t>
-        </is>
-      </c>
+      <c r="Q63" t="inlineStr"/>
       <c r="R63" t="inlineStr"/>
-      <c r="S63" t="inlineStr">
-        <is>
-          <t>Outdoor dining area, Patio or balcony</t>
-        </is>
-      </c>
-      <c r="T63" t="inlineStr">
-        <is>
-          <t>Lockbox, Safe</t>
-        </is>
-      </c>
+      <c r="S63" t="inlineStr"/>
+      <c r="T63" t="inlineStr"/>
       <c r="U63" t="inlineStr">
         <is>
-          <t>1.0 stars, 0 reviews</t>
+          <t>0.0 stars, 0 reviews</t>
         </is>
       </c>
       <c r="V63" t="inlineStr">
@@ -43325,7 +43325,7 @@
       </c>
       <c r="B64" s="186" t="inlineStr">
         <is>
-          <t>Gladak House 2 Pantry and swim-pool</t>
+          <t>Temen Cliff Edge House</t>
         </is>
       </c>
       <c r="C64" s="186" t="inlineStr">
@@ -43342,7 +43342,7 @@
         <v>1</v>
       </c>
       <c r="J64" t="n">
-        <v>390</v>
+        <v>38790</v>
       </c>
       <c r="L64" t="inlineStr"/>
       <c r="M64" t="inlineStr">
@@ -43352,24 +43352,28 @@
       </c>
       <c r="N64" t="inlineStr"/>
       <c r="O64" t="n">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="P64" t="inlineStr">
         <is>
           <t>kitchen</t>
         </is>
       </c>
-      <c r="Q64" t="inlineStr"/>
+      <c r="Q64" t="inlineStr">
+        <is>
+          <t>Dedicated workspace</t>
+        </is>
+      </c>
       <c r="R64" t="inlineStr"/>
       <c r="S64" t="inlineStr">
         <is>
-          <t>Patio or balcony, Backyard</t>
+          <t>Outdoor dining area</t>
         </is>
       </c>
       <c r="T64" t="inlineStr"/>
       <c r="U64" t="inlineStr">
         <is>
-          <t>4.79 stars, 58 reviews</t>
+          <t>0.0 stars, 0 reviews</t>
         </is>
       </c>
       <c r="V64" t="inlineStr">
@@ -43384,7 +43388,7 @@
       </c>
       <c r="B65" s="186" t="inlineStr">
         <is>
-          <t>Apartment cool in Ungassan 2</t>
+          <t>Canggu 77 Cozy Guest House 5</t>
         </is>
       </c>
       <c r="C65" s="186" t="inlineStr">
@@ -43394,14 +43398,14 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Apartment</t>
+          <t>Guesthouse</t>
         </is>
       </c>
       <c r="E65" t="n">
         <v>1</v>
       </c>
       <c r="J65" t="n">
-        <v>34650</v>
+        <v>43290</v>
       </c>
       <c r="L65" t="inlineStr"/>
       <c r="M65" t="inlineStr">
@@ -43418,13 +43422,17 @@
           <t>kitchen</t>
         </is>
       </c>
-      <c r="Q65" t="inlineStr"/>
+      <c r="Q65" t="inlineStr">
+        <is>
+          <t>Dedicated workspace</t>
+        </is>
+      </c>
       <c r="R65" t="inlineStr"/>
       <c r="S65" t="inlineStr"/>
       <c r="T65" t="inlineStr"/>
       <c r="U65" t="inlineStr">
         <is>
-          <t>0.0 stars, 0 reviews</t>
+          <t>1.0 stars, 0 reviews</t>
         </is>
       </c>
       <c r="V65" t="inlineStr">
@@ -43439,7 +43447,7 @@
       </c>
       <c r="B66" s="186" t="inlineStr">
         <is>
-          <t>Double Bedroom with Private Bathroom</t>
+          <t>Stone House Melasti Amed</t>
         </is>
       </c>
       <c r="C66" s="186" t="inlineStr">
@@ -43449,34 +43457,30 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Guesthouse</t>
+          <t>House</t>
         </is>
       </c>
       <c r="E66" t="n">
         <v>1</v>
       </c>
       <c r="J66" t="n">
-        <v>330</v>
+        <v>39840</v>
       </c>
       <c r="L66" t="inlineStr"/>
-      <c r="M66" t="inlineStr">
-        <is>
-          <t>Free parking on premises</t>
-        </is>
-      </c>
+      <c r="M66" t="inlineStr"/>
       <c r="N66" t="inlineStr"/>
       <c r="O66" t="n">
         <v>1</v>
       </c>
-      <c r="P66" t="inlineStr"/>
+      <c r="P66" t="inlineStr">
+        <is>
+          <t>kitchen</t>
+        </is>
+      </c>
       <c r="Q66" t="inlineStr"/>
       <c r="R66" t="inlineStr"/>
       <c r="S66" t="inlineStr"/>
-      <c r="T66" t="inlineStr">
-        <is>
-          <t>Safe</t>
-        </is>
-      </c>
+      <c r="T66" t="inlineStr"/>
       <c r="U66" t="inlineStr">
         <is>
           <t>0.0 stars, 0 reviews</t>
@@ -43494,7 +43498,7 @@
       </c>
       <c r="B67" s="186" t="inlineStr">
         <is>
-          <t>Reiko's small private house</t>
+          <t>Daily/Monthly 1 Room No 5</t>
         </is>
       </c>
       <c r="C67" s="186" t="inlineStr">
@@ -43504,36 +43508,4992 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>House</t>
+          <t>Place</t>
         </is>
       </c>
       <c r="E67" t="n">
         <v>1</v>
       </c>
       <c r="J67" t="n">
-        <v>360</v>
+        <v>38970</v>
       </c>
       <c r="L67" t="inlineStr"/>
-      <c r="M67" t="inlineStr"/>
+      <c r="M67" t="inlineStr">
+        <is>
+          <t>Free parking on premises</t>
+        </is>
+      </c>
       <c r="N67" t="inlineStr"/>
       <c r="O67" t="n">
         <v>1</v>
       </c>
-      <c r="P67" t="inlineStr">
-        <is>
-          <t>kitchen</t>
-        </is>
-      </c>
+      <c r="P67" t="inlineStr"/>
       <c r="Q67" t="inlineStr"/>
       <c r="R67" t="inlineStr"/>
       <c r="S67" t="inlineStr"/>
-      <c r="T67" t="inlineStr"/>
+      <c r="T67" t="inlineStr">
+        <is>
+          <t>Safe</t>
+        </is>
+      </c>
       <c r="U67" t="inlineStr">
         <is>
+          <t>0.0 stars, 0 reviews</t>
+        </is>
+      </c>
+      <c r="V67" t="inlineStr">
+        <is>
+          <t>Источник данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>58</v>
+      </c>
+      <c r="B68" s="186" t="inlineStr">
+        <is>
+          <t>Elly House Sidemen</t>
+        </is>
+      </c>
+      <c r="C68" s="186" t="inlineStr">
+        <is>
+          <t>map</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>House</t>
+        </is>
+      </c>
+      <c r="E68" t="n">
+        <v>1</v>
+      </c>
+      <c r="J68" t="n">
+        <v>43290</v>
+      </c>
+      <c r="L68" t="inlineStr"/>
+      <c r="M68" t="inlineStr">
+        <is>
+          <t>Free parking on premises</t>
+        </is>
+      </c>
+      <c r="N68" t="inlineStr"/>
+      <c r="O68" t="n">
+        <v>1</v>
+      </c>
+      <c r="P68" t="inlineStr">
+        <is>
+          <t>kitchen</t>
+        </is>
+      </c>
+      <c r="Q68" t="inlineStr">
+        <is>
+          <t>Dedicated workspace</t>
+        </is>
+      </c>
+      <c r="R68" t="inlineStr"/>
+      <c r="S68" t="inlineStr">
+        <is>
+          <t>Outdoor dining area</t>
+        </is>
+      </c>
+      <c r="T68" t="inlineStr"/>
+      <c r="U68" t="inlineStr">
+        <is>
+          <t>2.0 stars, 2 reviews</t>
+        </is>
+      </c>
+      <c r="V68" t="inlineStr">
+        <is>
+          <t>Источник данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>59</v>
+      </c>
+      <c r="B69" s="186" t="inlineStr">
+        <is>
+          <t>Comfy small place in sanur</t>
+        </is>
+      </c>
+      <c r="C69" s="186" t="inlineStr">
+        <is>
+          <t>map</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>Place</t>
+        </is>
+      </c>
+      <c r="E69" t="n">
+        <v>1</v>
+      </c>
+      <c r="J69" t="n">
+        <v>34410</v>
+      </c>
+      <c r="L69" t="inlineStr"/>
+      <c r="M69" t="inlineStr"/>
+      <c r="N69" t="inlineStr"/>
+      <c r="O69" t="n">
+        <v>1</v>
+      </c>
+      <c r="P69" t="inlineStr"/>
+      <c r="Q69" t="inlineStr">
+        <is>
+          <t>Dedicated workspace</t>
+        </is>
+      </c>
+      <c r="R69" t="inlineStr"/>
+      <c r="S69" t="inlineStr">
+        <is>
+          <t>Patio or balcony</t>
+        </is>
+      </c>
+      <c r="T69" t="inlineStr">
+        <is>
+          <t>Safe</t>
+        </is>
+      </c>
+      <c r="U69" t="inlineStr">
+        <is>
+          <t>5.0 stars, 4 reviews</t>
+        </is>
+      </c>
+      <c r="V69" t="inlineStr">
+        <is>
+          <t>Источник данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>60</v>
+      </c>
+      <c r="B70" s="186" t="inlineStr">
+        <is>
+          <t>mini apartment near Padma beach</t>
+        </is>
+      </c>
+      <c r="C70" s="186" t="inlineStr">
+        <is>
+          <t>map</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>Apartment</t>
+        </is>
+      </c>
+      <c r="E70" t="n">
+        <v>1</v>
+      </c>
+      <c r="J70" t="n">
+        <v>390</v>
+      </c>
+      <c r="L70" t="inlineStr"/>
+      <c r="M70" t="inlineStr">
+        <is>
+          <t>Free parking on premises</t>
+        </is>
+      </c>
+      <c r="N70" t="inlineStr"/>
+      <c r="O70" t="n">
+        <v>1</v>
+      </c>
+      <c r="P70" t="inlineStr">
+        <is>
+          <t>kitchen</t>
+        </is>
+      </c>
+      <c r="Q70" t="inlineStr">
+        <is>
+          <t>Dedicated workspace</t>
+        </is>
+      </c>
+      <c r="R70" t="inlineStr"/>
+      <c r="S70" t="inlineStr">
+        <is>
+          <t>Outdoor dining area, Patio or balcony</t>
+        </is>
+      </c>
+      <c r="T70" t="inlineStr"/>
+      <c r="U70" t="inlineStr">
+        <is>
+          <t>0.0 stars, 0 reviews</t>
+        </is>
+      </c>
+      <c r="V70" t="inlineStr">
+        <is>
+          <t>Источник данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>61</v>
+      </c>
+      <c r="B71" s="186" t="inlineStr">
+        <is>
+          <t>D’Yoga Bamboo House Standard Room 2</t>
+        </is>
+      </c>
+      <c r="C71" s="186" t="inlineStr">
+        <is>
+          <t>map</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>House</t>
+        </is>
+      </c>
+      <c r="E71" t="n">
+        <v>1</v>
+      </c>
+      <c r="J71" t="n">
+        <v>390</v>
+      </c>
+      <c r="L71" t="inlineStr"/>
+      <c r="M71" t="inlineStr">
+        <is>
+          <t>Free parking on premises</t>
+        </is>
+      </c>
+      <c r="N71" t="inlineStr"/>
+      <c r="O71" t="n">
+        <v>1</v>
+      </c>
+      <c r="P71" t="inlineStr"/>
+      <c r="Q71" t="inlineStr">
+        <is>
+          <t>Dedicated workspace</t>
+        </is>
+      </c>
+      <c r="R71" t="inlineStr"/>
+      <c r="S71" t="inlineStr">
+        <is>
+          <t>Outdoor dining area</t>
+        </is>
+      </c>
+      <c r="T71" t="inlineStr">
+        <is>
+          <t>Safe</t>
+        </is>
+      </c>
+      <c r="U71" t="inlineStr">
+        <is>
           <t>4.13 stars, 8 reviews</t>
         </is>
       </c>
-      <c r="V67" t="inlineStr">
+      <c r="V71" t="inlineStr">
+        <is>
+          <t>Источник данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>62</v>
+      </c>
+      <c r="B72" s="186" t="inlineStr">
+        <is>
+          <t>PROMO! New Private Guest House at Jimbaran</t>
+        </is>
+      </c>
+      <c r="C72" s="186" t="inlineStr">
+        <is>
+          <t>map</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>Guesthouse</t>
+        </is>
+      </c>
+      <c r="E72" t="n">
+        <v>1</v>
+      </c>
+      <c r="J72" t="n">
+        <v>390</v>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="L72" t="inlineStr"/>
+      <c r="M72" t="inlineStr">
+        <is>
+          <t>Free parking on premises</t>
+        </is>
+      </c>
+      <c r="N72" t="inlineStr"/>
+      <c r="O72" t="n">
+        <v>1</v>
+      </c>
+      <c r="P72" t="inlineStr"/>
+      <c r="Q72" t="inlineStr"/>
+      <c r="R72" t="inlineStr"/>
+      <c r="S72" t="inlineStr"/>
+      <c r="T72" t="inlineStr">
+        <is>
+          <t>Safe</t>
+        </is>
+      </c>
+      <c r="U72" t="inlineStr">
+        <is>
+          <t>4.6 stars, 10 reviews</t>
+        </is>
+      </c>
+      <c r="V72" t="inlineStr">
+        <is>
+          <t>Источник данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>63</v>
+      </c>
+      <c r="B73" s="186" t="inlineStr">
+        <is>
+          <t>"Deehomes" singaraja bali</t>
+        </is>
+      </c>
+      <c r="C73" s="186" t="inlineStr">
+        <is>
+          <t>map</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>Home</t>
+        </is>
+      </c>
+      <c r="E73" t="n">
+        <v>2</v>
+      </c>
+      <c r="J73" t="n">
+        <v>390</v>
+      </c>
+      <c r="L73" t="inlineStr">
+        <is>
+          <t>Ocean view</t>
+        </is>
+      </c>
+      <c r="M73" t="inlineStr">
+        <is>
+          <t>Free parking on premises, Street parking</t>
+        </is>
+      </c>
+      <c r="N73" t="inlineStr"/>
+      <c r="O73" t="n">
+        <v>1</v>
+      </c>
+      <c r="P73" t="inlineStr">
+        <is>
+          <t>kitchen</t>
+        </is>
+      </c>
+      <c r="Q73" t="inlineStr"/>
+      <c r="R73" t="inlineStr"/>
+      <c r="S73" t="inlineStr">
+        <is>
+          <t>Backyard</t>
+        </is>
+      </c>
+      <c r="T73" t="inlineStr">
+        <is>
+          <t>Safe</t>
+        </is>
+      </c>
+      <c r="U73" t="inlineStr">
+        <is>
+          <t>1.0 stars, 0 reviews</t>
+        </is>
+      </c>
+      <c r="V73" t="inlineStr">
+        <is>
+          <t>Источник данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>64</v>
+      </c>
+      <c r="B74" s="186" t="inlineStr">
+        <is>
+          <t>Tranquility in Personal Studio near Kuta &amp; Canggu</t>
+        </is>
+      </c>
+      <c r="C74" s="186" t="inlineStr">
+        <is>
+          <t>map</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>Guesthouse</t>
+        </is>
+      </c>
+      <c r="E74" t="n">
+        <v>1</v>
+      </c>
+      <c r="J74" t="n">
+        <v>38970</v>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="L74" t="inlineStr"/>
+      <c r="M74" t="inlineStr">
+        <is>
+          <t>Free parking on premises</t>
+        </is>
+      </c>
+      <c r="N74" t="inlineStr"/>
+      <c r="O74" t="n">
+        <v>1</v>
+      </c>
+      <c r="P74" t="inlineStr">
+        <is>
+          <t>kitchen</t>
+        </is>
+      </c>
+      <c r="Q74" t="inlineStr">
+        <is>
+          <t>Dedicated workspace</t>
+        </is>
+      </c>
+      <c r="R74" t="inlineStr"/>
+      <c r="S74" t="inlineStr">
+        <is>
+          <t>Patio or balcony</t>
+        </is>
+      </c>
+      <c r="T74" t="inlineStr">
+        <is>
+          <t>Safe</t>
+        </is>
+      </c>
+      <c r="U74" t="inlineStr">
+        <is>
+          <t>5.0 stars, 4 reviews</t>
+        </is>
+      </c>
+      <c r="V74" t="inlineStr">
+        <is>
+          <t>Источник данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>65</v>
+      </c>
+      <c r="B75" s="186" t="inlineStr">
+        <is>
+          <t>Comfortable Studio Room in Kuta (208)</t>
+        </is>
+      </c>
+      <c r="C75" s="186" t="inlineStr">
+        <is>
+          <t>map</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>Place</t>
+        </is>
+      </c>
+      <c r="E75" t="n">
+        <v>1</v>
+      </c>
+      <c r="J75" t="n">
+        <v>43290</v>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="L75" t="inlineStr"/>
+      <c r="M75" t="inlineStr">
+        <is>
+          <t>Free parking on premises, Street parking</t>
+        </is>
+      </c>
+      <c r="N75" t="inlineStr"/>
+      <c r="O75" t="n">
+        <v>1</v>
+      </c>
+      <c r="P75" t="inlineStr">
+        <is>
+          <t>kitchen</t>
+        </is>
+      </c>
+      <c r="Q75" t="inlineStr"/>
+      <c r="R75" t="inlineStr"/>
+      <c r="S75" t="inlineStr"/>
+      <c r="T75" t="inlineStr">
+        <is>
+          <t>Safe</t>
+        </is>
+      </c>
+      <c r="U75" t="inlineStr">
+        <is>
+          <t>4.76 stars, 21 reviews</t>
+        </is>
+      </c>
+      <c r="V75" t="inlineStr">
+        <is>
+          <t>Источник данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>66</v>
+      </c>
+      <c r="B76" s="186" t="inlineStr">
+        <is>
+          <t>Tiny House in a flower garden</t>
+        </is>
+      </c>
+      <c r="C76" s="186" t="inlineStr">
+        <is>
+          <t>map</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>House</t>
+        </is>
+      </c>
+      <c r="E76" t="n">
+        <v>1</v>
+      </c>
+      <c r="J76" t="n">
+        <v>41580</v>
+      </c>
+      <c r="L76" t="inlineStr">
+        <is>
+          <t>Garden view</t>
+        </is>
+      </c>
+      <c r="M76" t="inlineStr">
+        <is>
+          <t>Free parking on premises</t>
+        </is>
+      </c>
+      <c r="N76" t="inlineStr"/>
+      <c r="O76" t="n">
+        <v>1</v>
+      </c>
+      <c r="P76" t="inlineStr"/>
+      <c r="Q76" t="inlineStr">
+        <is>
+          <t>Dedicated workspace</t>
+        </is>
+      </c>
+      <c r="R76" t="inlineStr"/>
+      <c r="S76" t="inlineStr">
+        <is>
+          <t>Backyard</t>
+        </is>
+      </c>
+      <c r="T76" t="inlineStr"/>
+      <c r="U76" t="inlineStr">
+        <is>
+          <t>2.0 stars, 2 reviews</t>
+        </is>
+      </c>
+      <c r="V76" t="inlineStr">
+        <is>
+          <t>Источник данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>67</v>
+      </c>
+      <c r="B77" s="186" t="inlineStr">
+        <is>
+          <t>Jungle temple apartment</t>
+        </is>
+      </c>
+      <c r="C77" s="186" t="inlineStr">
+        <is>
+          <t>map</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>Apartment</t>
+        </is>
+      </c>
+      <c r="E77" t="n">
+        <v>1</v>
+      </c>
+      <c r="J77" t="n">
+        <v>390</v>
+      </c>
+      <c r="L77" t="inlineStr"/>
+      <c r="M77" t="inlineStr"/>
+      <c r="N77" t="inlineStr"/>
+      <c r="O77" t="n">
+        <v>1</v>
+      </c>
+      <c r="P77" t="inlineStr">
+        <is>
+          <t>kitchen</t>
+        </is>
+      </c>
+      <c r="Q77" t="inlineStr">
+        <is>
+          <t>Dedicated workspace</t>
+        </is>
+      </c>
+      <c r="R77" t="inlineStr"/>
+      <c r="S77" t="inlineStr"/>
+      <c r="T77" t="inlineStr"/>
+      <c r="U77" t="inlineStr">
+        <is>
+          <t>0.0 stars, 0 reviews</t>
+        </is>
+      </c>
+      <c r="V77" t="inlineStr">
+        <is>
+          <t>Источник данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>68</v>
+      </c>
+      <c r="B78" s="186" t="inlineStr">
+        <is>
+          <t>trisna garden room upstair 2</t>
+        </is>
+      </c>
+      <c r="C78" s="186" t="inlineStr">
+        <is>
+          <t>map</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>Place</t>
+        </is>
+      </c>
+      <c r="E78" t="n">
+        <v>1</v>
+      </c>
+      <c r="J78" t="n">
+        <v>300</v>
+      </c>
+      <c r="L78" t="inlineStr">
+        <is>
+          <t>Courtyard view, Garden view, Park view</t>
+        </is>
+      </c>
+      <c r="M78" t="inlineStr">
+        <is>
+          <t>Free parking on premises</t>
+        </is>
+      </c>
+      <c r="N78" t="inlineStr"/>
+      <c r="O78" t="n">
+        <v>1</v>
+      </c>
+      <c r="P78" t="inlineStr">
+        <is>
+          <t>kitchen</t>
+        </is>
+      </c>
+      <c r="Q78" t="inlineStr">
+        <is>
+          <t>Dedicated workspace</t>
+        </is>
+      </c>
+      <c r="R78" t="inlineStr"/>
+      <c r="S78" t="inlineStr">
+        <is>
+          <t>Outdoor dining area, Patio or balcony, Backyard</t>
+        </is>
+      </c>
+      <c r="T78" t="inlineStr">
+        <is>
+          <t>Safe</t>
+        </is>
+      </c>
+      <c r="U78" t="inlineStr">
+        <is>
+          <t>3.67 stars, 3 reviews</t>
+        </is>
+      </c>
+      <c r="V78" t="inlineStr">
+        <is>
+          <t>Источник данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>69</v>
+      </c>
+      <c r="B79" s="186" t="inlineStr">
+        <is>
+          <t>Budget Studio Apartment in Kerobokan Bali</t>
+        </is>
+      </c>
+      <c r="C79" s="186" t="inlineStr">
+        <is>
+          <t>map</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>Apartment</t>
+        </is>
+      </c>
+      <c r="E79" t="n">
+        <v>1</v>
+      </c>
+      <c r="J79" t="n">
+        <v>390</v>
+      </c>
+      <c r="L79" t="inlineStr"/>
+      <c r="M79" t="inlineStr"/>
+      <c r="N79" t="inlineStr"/>
+      <c r="P79" t="inlineStr">
+        <is>
+          <t>kitchen</t>
+        </is>
+      </c>
+      <c r="Q79" t="inlineStr">
+        <is>
+          <t>Dedicated workspace</t>
+        </is>
+      </c>
+      <c r="R79" t="inlineStr"/>
+      <c r="S79" t="inlineStr"/>
+      <c r="T79" t="inlineStr"/>
+      <c r="U79" t="inlineStr">
+        <is>
+          <t>0.0 stars, 0 reviews</t>
+        </is>
+      </c>
+      <c r="V79" t="inlineStr">
+        <is>
+          <t>Источник данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>70</v>
+      </c>
+      <c r="B80" s="186" t="inlineStr">
+        <is>
+          <t>Rajapala Garden Bamboo Bungalow #2</t>
+        </is>
+      </c>
+      <c r="C80" s="186" t="inlineStr">
+        <is>
+          <t>map</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>Bungalow</t>
+        </is>
+      </c>
+      <c r="E80" t="n">
+        <v>2</v>
+      </c>
+      <c r="J80" t="n">
+        <v>330</v>
+      </c>
+      <c r="L80" t="inlineStr"/>
+      <c r="M80" t="inlineStr">
+        <is>
+          <t>Free parking on premises</t>
+        </is>
+      </c>
+      <c r="N80" t="inlineStr"/>
+      <c r="O80" t="n">
+        <v>1</v>
+      </c>
+      <c r="P80" t="inlineStr">
+        <is>
+          <t>kitchen</t>
+        </is>
+      </c>
+      <c r="Q80" t="inlineStr">
+        <is>
+          <t>Dedicated workspace</t>
+        </is>
+      </c>
+      <c r="R80" t="inlineStr"/>
+      <c r="S80" t="inlineStr">
+        <is>
+          <t>Patio or balcony, Backyard</t>
+        </is>
+      </c>
+      <c r="T80" t="inlineStr"/>
+      <c r="U80" t="inlineStr">
+        <is>
+          <t>4.72 stars, 36 reviews</t>
+        </is>
+      </c>
+      <c r="V80" t="inlineStr">
+        <is>
+          <t>Источник данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>71</v>
+      </c>
+      <c r="B81" s="186" t="inlineStr">
+        <is>
+          <t>Secret Garden Ubud Loft</t>
+        </is>
+      </c>
+      <c r="C81" s="186" t="inlineStr">
+        <is>
+          <t>map</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>Place</t>
+        </is>
+      </c>
+      <c r="E81" t="n">
+        <v>1</v>
+      </c>
+      <c r="J81" t="n">
+        <v>420</v>
+      </c>
+      <c r="L81" t="inlineStr"/>
+      <c r="M81" t="inlineStr">
+        <is>
+          <t>Free parking on premises, Street parking</t>
+        </is>
+      </c>
+      <c r="N81" t="inlineStr"/>
+      <c r="O81" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="P81" t="inlineStr">
+        <is>
+          <t>kitchen</t>
+        </is>
+      </c>
+      <c r="Q81" t="inlineStr"/>
+      <c r="R81" t="inlineStr"/>
+      <c r="S81" t="inlineStr"/>
+      <c r="T81" t="inlineStr"/>
+      <c r="U81" t="inlineStr">
+        <is>
+          <t>4.41 stars, 193 reviews</t>
+        </is>
+      </c>
+      <c r="V81" t="inlineStr">
+        <is>
+          <t>Источник данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>72</v>
+      </c>
+      <c r="B82" s="186" t="inlineStr">
+        <is>
+          <t>Sunset Garden Cabin near the beach</t>
+        </is>
+      </c>
+      <c r="C82" s="186" t="inlineStr">
+        <is>
+          <t>map</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>Cabin</t>
+        </is>
+      </c>
+      <c r="E82" t="n">
+        <v>1</v>
+      </c>
+      <c r="J82" t="n">
+        <v>38100</v>
+      </c>
+      <c r="L82" t="inlineStr"/>
+      <c r="M82" t="inlineStr">
+        <is>
+          <t>Free parking on premises</t>
+        </is>
+      </c>
+      <c r="N82" t="inlineStr"/>
+      <c r="O82" t="n">
+        <v>1</v>
+      </c>
+      <c r="P82" t="inlineStr"/>
+      <c r="Q82" t="inlineStr"/>
+      <c r="R82" t="inlineStr"/>
+      <c r="S82" t="inlineStr"/>
+      <c r="T82" t="inlineStr">
+        <is>
+          <t>Lockbox, Safe</t>
+        </is>
+      </c>
+      <c r="U82" t="inlineStr">
+        <is>
+          <t>1.0 stars, 0 reviews</t>
+        </is>
+      </c>
+      <c r="V82" t="inlineStr">
+        <is>
+          <t>Источник данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>73</v>
+      </c>
+      <c r="B83" s="186" t="inlineStr">
+        <is>
+          <t>Santorini Dalung</t>
+        </is>
+      </c>
+      <c r="C83" s="186" t="inlineStr">
+        <is>
+          <t>map</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>Home</t>
+        </is>
+      </c>
+      <c r="E83" t="n">
+        <v>1</v>
+      </c>
+      <c r="J83" t="n">
+        <v>390</v>
+      </c>
+      <c r="L83" t="inlineStr"/>
+      <c r="M83" t="inlineStr">
+        <is>
+          <t>Free parking on premises</t>
+        </is>
+      </c>
+      <c r="N83" t="inlineStr"/>
+      <c r="O83" t="n">
+        <v>1</v>
+      </c>
+      <c r="P83" t="inlineStr">
+        <is>
+          <t>kitchen</t>
+        </is>
+      </c>
+      <c r="Q83" t="inlineStr"/>
+      <c r="R83" t="inlineStr"/>
+      <c r="S83" t="inlineStr"/>
+      <c r="T83" t="inlineStr"/>
+      <c r="U83" t="inlineStr">
+        <is>
+          <t>0.0 stars, 0 reviews</t>
+        </is>
+      </c>
+      <c r="V83" t="inlineStr">
+        <is>
+          <t>Источник данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>74</v>
+      </c>
+      <c r="B84" s="186" t="inlineStr">
+        <is>
+          <t>Beach Camp Site, Black Sand, Sunset, Sunrise</t>
+        </is>
+      </c>
+      <c r="C84" s="186" t="inlineStr">
+        <is>
+          <t>map</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>Place</t>
+        </is>
+      </c>
+      <c r="E84" t="n">
+        <v>5</v>
+      </c>
+      <c r="J84" t="n">
+        <v>390</v>
+      </c>
+      <c r="L84" t="inlineStr"/>
+      <c r="M84" t="inlineStr"/>
+      <c r="N84" t="inlineStr"/>
+      <c r="O84" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="P84" t="inlineStr"/>
+      <c r="Q84" t="inlineStr"/>
+      <c r="R84" t="inlineStr"/>
+      <c r="S84" t="inlineStr">
+        <is>
+          <t>Outdoor dining area</t>
+        </is>
+      </c>
+      <c r="T84" t="inlineStr">
+        <is>
+          <t>Safe</t>
+        </is>
+      </c>
+      <c r="U84" t="inlineStr">
+        <is>
+          <t>0.0 stars, 0 reviews</t>
+        </is>
+      </c>
+      <c r="V84" t="inlineStr">
+        <is>
+          <t>Источник данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>75</v>
+      </c>
+      <c r="B85" s="186" t="inlineStr">
+        <is>
+          <t>Clean Twin Room at Sari Indah Cottages</t>
+        </is>
+      </c>
+      <c r="C85" s="186" t="inlineStr">
+        <is>
+          <t>map</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>Guesthouse</t>
+        </is>
+      </c>
+      <c r="E85" t="n">
+        <v>1</v>
+      </c>
+      <c r="J85" t="n">
+        <v>450</v>
+      </c>
+      <c r="L85" t="inlineStr"/>
+      <c r="M85" t="inlineStr">
+        <is>
+          <t>Free parking on premises</t>
+        </is>
+      </c>
+      <c r="N85" t="inlineStr"/>
+      <c r="O85" t="n">
+        <v>1</v>
+      </c>
+      <c r="P85" t="inlineStr"/>
+      <c r="Q85" t="inlineStr">
+        <is>
+          <t>Dedicated workspace</t>
+        </is>
+      </c>
+      <c r="R85" t="inlineStr"/>
+      <c r="S85" t="inlineStr">
+        <is>
+          <t>Patio or balcony</t>
+        </is>
+      </c>
+      <c r="T85" t="inlineStr">
+        <is>
+          <t>Safe</t>
+        </is>
+      </c>
+      <c r="U85" t="inlineStr">
+        <is>
+          <t>4.19 stars, 36 reviews</t>
+        </is>
+      </c>
+      <c r="V85" t="inlineStr">
+        <is>
+          <t>Источник данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>76</v>
+      </c>
+      <c r="B86" s="186" t="inlineStr">
+        <is>
+          <t>Secret Garden Ubud 2 Loft</t>
+        </is>
+      </c>
+      <c r="C86" s="186" t="inlineStr">
+        <is>
+          <t>map</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>Place</t>
+        </is>
+      </c>
+      <c r="E86" t="n">
+        <v>1</v>
+      </c>
+      <c r="J86" t="n">
+        <v>38550</v>
+      </c>
+      <c r="L86" t="inlineStr"/>
+      <c r="M86" t="inlineStr">
+        <is>
+          <t>Free parking on premises, Street parking</t>
+        </is>
+      </c>
+      <c r="N86" t="inlineStr"/>
+      <c r="O86" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="P86" t="inlineStr">
+        <is>
+          <t>kitchen</t>
+        </is>
+      </c>
+      <c r="Q86" t="inlineStr"/>
+      <c r="R86" t="inlineStr"/>
+      <c r="S86" t="inlineStr"/>
+      <c r="T86" t="inlineStr"/>
+      <c r="U86" t="inlineStr">
+        <is>
+          <t>4.37 stars, 68 reviews</t>
+        </is>
+      </c>
+      <c r="V86" t="inlineStr">
+        <is>
+          <t>Источник данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>77</v>
+      </c>
+      <c r="B87" s="186" t="inlineStr">
+        <is>
+          <t>Radya confortable homestay w/fan</t>
+        </is>
+      </c>
+      <c r="C87" s="186" t="inlineStr">
+        <is>
+          <t>map</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>Home</t>
+        </is>
+      </c>
+      <c r="E87" t="n">
+        <v>1</v>
+      </c>
+      <c r="J87" t="n">
+        <v>36390</v>
+      </c>
+      <c r="L87" t="inlineStr"/>
+      <c r="M87" t="inlineStr">
+        <is>
+          <t>Free parking on premises</t>
+        </is>
+      </c>
+      <c r="N87" t="inlineStr"/>
+      <c r="O87" t="n">
+        <v>1</v>
+      </c>
+      <c r="P87" t="inlineStr"/>
+      <c r="Q87" t="inlineStr"/>
+      <c r="R87" t="inlineStr"/>
+      <c r="S87" t="inlineStr"/>
+      <c r="T87" t="inlineStr"/>
+      <c r="U87" t="inlineStr">
+        <is>
+          <t>4.69 stars, 49 reviews</t>
+        </is>
+      </c>
+      <c r="V87" t="inlineStr">
+        <is>
+          <t>Источник данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>78</v>
+      </c>
+      <c r="B88" s="186" t="inlineStr">
+        <is>
+          <t>Special guest house and stay in Balinese compound</t>
+        </is>
+      </c>
+      <c r="C88" s="186" t="inlineStr">
+        <is>
+          <t>map</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>House</t>
+        </is>
+      </c>
+      <c r="E88" t="n">
+        <v>1</v>
+      </c>
+      <c r="J88" t="n">
+        <v>330</v>
+      </c>
+      <c r="L88" t="inlineStr"/>
+      <c r="M88" t="inlineStr">
+        <is>
+          <t>Free parking on premises, Street parking</t>
+        </is>
+      </c>
+      <c r="N88" t="inlineStr"/>
+      <c r="O88" t="n">
+        <v>1</v>
+      </c>
+      <c r="P88" t="inlineStr">
+        <is>
+          <t>kitchen</t>
+        </is>
+      </c>
+      <c r="Q88" t="inlineStr">
+        <is>
+          <t>Dedicated workspace</t>
+        </is>
+      </c>
+      <c r="R88" t="inlineStr"/>
+      <c r="S88" t="inlineStr">
+        <is>
+          <t>Patio or balcony, Backyard</t>
+        </is>
+      </c>
+      <c r="T88" t="inlineStr"/>
+      <c r="U88" t="inlineStr">
+        <is>
+          <t>4.945 stars, 17 reviews</t>
+        </is>
+      </c>
+      <c r="V88" t="inlineStr">
+        <is>
+          <t>Источник данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>79</v>
+      </c>
+      <c r="B89" s="186" t="inlineStr">
+        <is>
+          <t>Promo Superior Room near GWK</t>
+        </is>
+      </c>
+      <c r="C89" s="186" t="inlineStr">
+        <is>
+          <t>map</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>Guesthouse</t>
+        </is>
+      </c>
+      <c r="E89" t="n">
+        <v>1</v>
+      </c>
+      <c r="J89" t="n">
+        <v>34650</v>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="L89" t="inlineStr"/>
+      <c r="M89" t="inlineStr">
+        <is>
+          <t>Free parking on premises</t>
+        </is>
+      </c>
+      <c r="N89" t="inlineStr"/>
+      <c r="O89" t="n">
+        <v>1</v>
+      </c>
+      <c r="P89" t="inlineStr"/>
+      <c r="Q89" t="inlineStr">
+        <is>
+          <t>Dedicated workspace</t>
+        </is>
+      </c>
+      <c r="R89" t="inlineStr"/>
+      <c r="S89" t="inlineStr"/>
+      <c r="T89" t="inlineStr">
+        <is>
+          <t>Safe</t>
+        </is>
+      </c>
+      <c r="U89" t="inlineStr">
+        <is>
+          <t>5.05 stars, 5 reviews</t>
+        </is>
+      </c>
+      <c r="V89" t="inlineStr">
+        <is>
+          <t>Источник данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>80</v>
+      </c>
+      <c r="B90" s="186" t="inlineStr">
+        <is>
+          <t>Bahtera guest house 3</t>
+        </is>
+      </c>
+      <c r="C90" s="186" t="inlineStr">
+        <is>
+          <t>map</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>Guesthouse</t>
+        </is>
+      </c>
+      <c r="E90" t="n">
+        <v>1</v>
+      </c>
+      <c r="J90" t="n">
+        <v>360</v>
+      </c>
+      <c r="L90" t="inlineStr"/>
+      <c r="M90" t="inlineStr"/>
+      <c r="N90" t="inlineStr"/>
+      <c r="O90" t="n">
+        <v>1</v>
+      </c>
+      <c r="P90" t="inlineStr"/>
+      <c r="Q90" t="inlineStr">
+        <is>
+          <t>Dedicated workspace</t>
+        </is>
+      </c>
+      <c r="R90" t="inlineStr"/>
+      <c r="S90" t="inlineStr"/>
+      <c r="T90" t="inlineStr">
+        <is>
+          <t>Safe</t>
+        </is>
+      </c>
+      <c r="U90" t="inlineStr">
+        <is>
+          <t>0.0 stars, 0 reviews</t>
+        </is>
+      </c>
+      <c r="V90" t="inlineStr">
+        <is>
+          <t>Источник данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>81</v>
+      </c>
+      <c r="B91" s="186" t="inlineStr">
+        <is>
+          <t>Linda's House</t>
+        </is>
+      </c>
+      <c r="C91" s="186" t="inlineStr">
+        <is>
+          <t>map</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>House</t>
+        </is>
+      </c>
+      <c r="E91" t="n">
+        <v>1</v>
+      </c>
+      <c r="J91" t="n">
+        <v>390</v>
+      </c>
+      <c r="L91" t="inlineStr"/>
+      <c r="M91" t="inlineStr">
+        <is>
+          <t>Free parking on premises</t>
+        </is>
+      </c>
+      <c r="N91" t="inlineStr"/>
+      <c r="O91" t="n">
+        <v>1</v>
+      </c>
+      <c r="P91" t="inlineStr"/>
+      <c r="Q91" t="inlineStr"/>
+      <c r="R91" t="inlineStr"/>
+      <c r="S91" t="inlineStr"/>
+      <c r="T91" t="inlineStr"/>
+      <c r="U91" t="inlineStr">
+        <is>
+          <t>1.0 stars, 0 reviews</t>
+        </is>
+      </c>
+      <c r="V91" t="inlineStr">
+        <is>
+          <t>Источник данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>82</v>
+      </c>
+      <c r="B92" s="186" t="inlineStr">
+        <is>
+          <t>Hotel Indra Pura Lovina-Bali</t>
+        </is>
+      </c>
+      <c r="C92" s="186" t="inlineStr">
+        <is>
+          <t>map</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>Hotel</t>
+        </is>
+      </c>
+      <c r="E92" t="n">
+        <v>1</v>
+      </c>
+      <c r="J92" t="n">
+        <v>390</v>
+      </c>
+      <c r="L92" t="inlineStr"/>
+      <c r="M92" t="inlineStr">
+        <is>
+          <t>Free parking on premises</t>
+        </is>
+      </c>
+      <c r="N92" t="inlineStr"/>
+      <c r="O92" t="n">
+        <v>1</v>
+      </c>
+      <c r="P92" t="inlineStr">
+        <is>
+          <t>kitchen</t>
+        </is>
+      </c>
+      <c r="Q92" t="inlineStr"/>
+      <c r="R92" t="inlineStr"/>
+      <c r="S92" t="inlineStr"/>
+      <c r="T92" t="inlineStr"/>
+      <c r="U92" t="inlineStr">
+        <is>
+          <t>0.0 stars, 0 reviews</t>
+        </is>
+      </c>
+      <c r="V92" t="inlineStr">
+        <is>
+          <t>Источник данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>83</v>
+      </c>
+      <c r="B93" s="186" t="inlineStr">
+        <is>
+          <t>1BR standard near harbour</t>
+        </is>
+      </c>
+      <c r="C93" s="186" t="inlineStr">
+        <is>
+          <t>map</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>Place</t>
+        </is>
+      </c>
+      <c r="E93" t="n">
+        <v>1</v>
+      </c>
+      <c r="J93" t="n">
+        <v>420</v>
+      </c>
+      <c r="L93" t="inlineStr"/>
+      <c r="M93" t="inlineStr">
+        <is>
+          <t>Free parking on premises</t>
+        </is>
+      </c>
+      <c r="N93" t="inlineStr"/>
+      <c r="O93" t="n">
+        <v>1</v>
+      </c>
+      <c r="P93" t="inlineStr"/>
+      <c r="Q93" t="inlineStr"/>
+      <c r="R93" t="inlineStr"/>
+      <c r="S93" t="inlineStr">
+        <is>
+          <t>Patio or balcony, Backyard</t>
+        </is>
+      </c>
+      <c r="T93" t="inlineStr">
+        <is>
+          <t>Safe</t>
+        </is>
+      </c>
+      <c r="U93" t="inlineStr">
+        <is>
+          <t>4.33 stars, 3 reviews</t>
+        </is>
+      </c>
+      <c r="V93" t="inlineStr">
+        <is>
+          <t>Источник данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>84</v>
+      </c>
+      <c r="B94" s="186" t="inlineStr">
+        <is>
+          <t>Nook studio renon</t>
+        </is>
+      </c>
+      <c r="C94" s="186" t="inlineStr">
+        <is>
+          <t>map</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>Guesthouse</t>
+        </is>
+      </c>
+      <c r="E94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>38100</v>
+      </c>
+      <c r="L94" t="inlineStr"/>
+      <c r="M94" t="inlineStr">
+        <is>
+          <t>Free parking on premises</t>
+        </is>
+      </c>
+      <c r="N94" t="inlineStr"/>
+      <c r="O94" t="n">
+        <v>1</v>
+      </c>
+      <c r="P94" t="inlineStr">
+        <is>
+          <t>kitchen</t>
+        </is>
+      </c>
+      <c r="Q94" t="inlineStr"/>
+      <c r="R94" t="inlineStr"/>
+      <c r="S94" t="inlineStr">
+        <is>
+          <t>Outdoor dining area</t>
+        </is>
+      </c>
+      <c r="T94" t="inlineStr">
+        <is>
+          <t>Safe</t>
+        </is>
+      </c>
+      <c r="U94" t="inlineStr">
+        <is>
+          <t>0.0 stars, 0 reviews</t>
+        </is>
+      </c>
+      <c r="V94" t="inlineStr">
+        <is>
+          <t>Источник данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>85</v>
+      </c>
+      <c r="B95" s="186" t="inlineStr">
+        <is>
+          <t>Private Room with in Denpasar</t>
+        </is>
+      </c>
+      <c r="C95" s="186" t="inlineStr">
+        <is>
+          <t>map</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>Villa</t>
+        </is>
+      </c>
+      <c r="E95" t="n">
+        <v>0</v>
+      </c>
+      <c r="J95" t="n">
+        <v>27540</v>
+      </c>
+      <c r="L95" t="inlineStr"/>
+      <c r="M95" t="inlineStr">
+        <is>
+          <t>Free parking on premises</t>
+        </is>
+      </c>
+      <c r="N95" t="inlineStr"/>
+      <c r="O95" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="P95" t="inlineStr">
+        <is>
+          <t>kitchen</t>
+        </is>
+      </c>
+      <c r="Q95" t="inlineStr"/>
+      <c r="R95" t="inlineStr"/>
+      <c r="S95" t="inlineStr"/>
+      <c r="T95" t="inlineStr"/>
+      <c r="U95" t="inlineStr">
+        <is>
+          <t>0.0 stars, 0 reviews</t>
+        </is>
+      </c>
+      <c r="V95" t="inlineStr">
+        <is>
+          <t>Источник данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>86</v>
+      </c>
+      <c r="B96" s="186" t="inlineStr">
+        <is>
+          <t>East Star Bungalow 1</t>
+        </is>
+      </c>
+      <c r="C96" s="186" t="inlineStr">
+        <is>
+          <t>map</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>Bungalow</t>
+        </is>
+      </c>
+      <c r="E96" t="n">
+        <v>1</v>
+      </c>
+      <c r="J96" t="n">
+        <v>34650</v>
+      </c>
+      <c r="L96" t="inlineStr"/>
+      <c r="M96" t="inlineStr">
+        <is>
+          <t>Free parking on premises</t>
+        </is>
+      </c>
+      <c r="N96" t="inlineStr"/>
+      <c r="O96" t="n">
+        <v>1</v>
+      </c>
+      <c r="P96" t="inlineStr"/>
+      <c r="Q96" t="inlineStr">
+        <is>
+          <t>Dedicated workspace</t>
+        </is>
+      </c>
+      <c r="R96" t="inlineStr"/>
+      <c r="S96" t="inlineStr"/>
+      <c r="T96" t="inlineStr"/>
+      <c r="U96" t="inlineStr">
+        <is>
+          <t>3.67 stars, 6 reviews</t>
+        </is>
+      </c>
+      <c r="V96" t="inlineStr">
+        <is>
+          <t>Источник данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>87</v>
+      </c>
+      <c r="B97" s="186" t="inlineStr">
+        <is>
+          <t>Brand New Residence At Jimbaran</t>
+        </is>
+      </c>
+      <c r="C97" s="186" t="inlineStr">
+        <is>
+          <t>map</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>Guesthouse</t>
+        </is>
+      </c>
+      <c r="E97" t="n">
+        <v>1</v>
+      </c>
+      <c r="J97" t="n">
+        <v>34650</v>
+      </c>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="L97" t="inlineStr"/>
+      <c r="M97" t="inlineStr">
+        <is>
+          <t>Free parking on premises</t>
+        </is>
+      </c>
+      <c r="N97" t="inlineStr"/>
+      <c r="O97" t="n">
+        <v>1</v>
+      </c>
+      <c r="P97" t="inlineStr"/>
+      <c r="Q97" t="inlineStr"/>
+      <c r="R97" t="inlineStr"/>
+      <c r="S97" t="inlineStr"/>
+      <c r="T97" t="inlineStr">
+        <is>
+          <t>Safe</t>
+        </is>
+      </c>
+      <c r="U97" t="inlineStr">
+        <is>
+          <t>1.0 stars, 0 reviews</t>
+        </is>
+      </c>
+      <c r="V97" t="inlineStr">
+        <is>
+          <t>Источник данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>88</v>
+      </c>
+      <c r="B98" s="186" t="inlineStr">
+        <is>
+          <t>Swasti House</t>
+        </is>
+      </c>
+      <c r="C98" s="186" t="inlineStr">
+        <is>
+          <t>map</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>House</t>
+        </is>
+      </c>
+      <c r="E98" t="n">
+        <v>1</v>
+      </c>
+      <c r="J98" t="n">
+        <v>31170</v>
+      </c>
+      <c r="L98" t="inlineStr"/>
+      <c r="M98" t="inlineStr">
+        <is>
+          <t>Free parking on premises</t>
+        </is>
+      </c>
+      <c r="N98" t="inlineStr"/>
+      <c r="O98" t="n">
+        <v>1</v>
+      </c>
+      <c r="P98" t="inlineStr"/>
+      <c r="Q98" t="inlineStr">
+        <is>
+          <t>Dedicated workspace</t>
+        </is>
+      </c>
+      <c r="R98" t="inlineStr"/>
+      <c r="S98" t="inlineStr"/>
+      <c r="T98" t="inlineStr">
+        <is>
+          <t>Safe</t>
+        </is>
+      </c>
+      <c r="U98" t="inlineStr">
+        <is>
+          <t>1.0 stars, 0 reviews</t>
+        </is>
+      </c>
+      <c r="V98" t="inlineStr">
+        <is>
+          <t>Источник данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>89</v>
+      </c>
+      <c r="B99" s="186" t="inlineStr">
+        <is>
+          <t>homestay at Jimbaran</t>
+        </is>
+      </c>
+      <c r="C99" s="186" t="inlineStr">
+        <is>
+          <t>map</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>Home</t>
+        </is>
+      </c>
+      <c r="E99" t="n">
+        <v>2</v>
+      </c>
+      <c r="J99" t="n">
+        <v>34650</v>
+      </c>
+      <c r="L99" t="inlineStr"/>
+      <c r="M99" t="inlineStr">
+        <is>
+          <t>Free parking on premises</t>
+        </is>
+      </c>
+      <c r="N99" t="inlineStr"/>
+      <c r="O99" t="n">
+        <v>2</v>
+      </c>
+      <c r="P99" t="inlineStr">
+        <is>
+          <t>kitchen</t>
+        </is>
+      </c>
+      <c r="Q99" t="inlineStr"/>
+      <c r="R99" t="inlineStr"/>
+      <c r="S99" t="inlineStr"/>
+      <c r="T99" t="inlineStr"/>
+      <c r="U99" t="inlineStr">
+        <is>
+          <t>4.2 stars, 5 reviews</t>
+        </is>
+      </c>
+      <c r="V99" t="inlineStr">
+        <is>
+          <t>Источник данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>90</v>
+      </c>
+      <c r="B100" s="186" t="inlineStr">
+        <is>
+          <t>Rajapala Garden Bungalow #7</t>
+        </is>
+      </c>
+      <c r="C100" s="186" t="inlineStr">
+        <is>
+          <t>map</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>Bungalow</t>
+        </is>
+      </c>
+      <c r="E100" t="n">
+        <v>1</v>
+      </c>
+      <c r="J100" t="n">
+        <v>37530</v>
+      </c>
+      <c r="L100" t="inlineStr">
+        <is>
+          <t>Courtyard view, Garden view, Beach view, Park view, Ocean view</t>
+        </is>
+      </c>
+      <c r="M100" t="inlineStr">
+        <is>
+          <t>Free parking on premises</t>
+        </is>
+      </c>
+      <c r="N100" t="inlineStr"/>
+      <c r="O100" t="n">
+        <v>1</v>
+      </c>
+      <c r="P100" t="inlineStr">
+        <is>
+          <t>kitchen</t>
+        </is>
+      </c>
+      <c r="Q100" t="inlineStr">
+        <is>
+          <t>Dedicated workspace</t>
+        </is>
+      </c>
+      <c r="R100" t="inlineStr"/>
+      <c r="S100" t="inlineStr">
+        <is>
+          <t>Outdoor dining area, Patio or balcony, Backyard</t>
+        </is>
+      </c>
+      <c r="T100" t="inlineStr"/>
+      <c r="U100" t="inlineStr">
+        <is>
+          <t>4.77 stars, 39 reviews</t>
+        </is>
+      </c>
+      <c r="V100" t="inlineStr">
+        <is>
+          <t>Источник данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>91</v>
+      </c>
+      <c r="B101" s="186" t="inlineStr">
+        <is>
+          <t>Upstairs Room - Swimming pool</t>
+        </is>
+      </c>
+      <c r="C101" s="186" t="inlineStr">
+        <is>
+          <t>map</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>Home</t>
+        </is>
+      </c>
+      <c r="E101" t="n">
+        <v>1</v>
+      </c>
+      <c r="J101" t="n">
+        <v>35250</v>
+      </c>
+      <c r="L101" t="inlineStr"/>
+      <c r="M101" t="inlineStr">
+        <is>
+          <t>Free parking on premises</t>
+        </is>
+      </c>
+      <c r="N101" t="inlineStr"/>
+      <c r="O101" t="n">
+        <v>1</v>
+      </c>
+      <c r="P101" t="inlineStr">
+        <is>
+          <t>kitchen</t>
+        </is>
+      </c>
+      <c r="Q101" t="inlineStr"/>
+      <c r="R101" t="inlineStr"/>
+      <c r="S101" t="inlineStr"/>
+      <c r="T101" t="inlineStr">
+        <is>
+          <t>Safe</t>
+        </is>
+      </c>
+      <c r="U101" t="inlineStr">
+        <is>
+          <t>5.0 stars, 8 reviews</t>
+        </is>
+      </c>
+      <c r="V101" t="inlineStr">
+        <is>
+          <t>Источник данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="n">
+        <v>92</v>
+      </c>
+      <c r="B102" s="186" t="inlineStr">
+        <is>
+          <t>Ginanthi Cottage</t>
+        </is>
+      </c>
+      <c r="C102" s="186" t="inlineStr">
+        <is>
+          <t>map</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>Bungalow</t>
+        </is>
+      </c>
+      <c r="E102" t="n">
+        <v>1</v>
+      </c>
+      <c r="J102" t="n">
+        <v>37230</v>
+      </c>
+      <c r="L102" t="inlineStr"/>
+      <c r="M102" t="inlineStr">
+        <is>
+          <t>Free parking on premises, Street parking</t>
+        </is>
+      </c>
+      <c r="N102" t="inlineStr"/>
+      <c r="O102" t="n">
+        <v>1</v>
+      </c>
+      <c r="P102" t="inlineStr"/>
+      <c r="Q102" t="inlineStr"/>
+      <c r="R102" t="inlineStr"/>
+      <c r="S102" t="inlineStr">
+        <is>
+          <t>Patio or balcony</t>
+        </is>
+      </c>
+      <c r="T102" t="inlineStr"/>
+      <c r="U102" t="inlineStr">
+        <is>
+          <t>4.44 stars, 27 reviews</t>
+        </is>
+      </c>
+      <c r="V102" t="inlineStr">
+        <is>
+          <t>Источник данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="n">
+        <v>93</v>
+      </c>
+      <c r="B103" s="186" t="inlineStr">
+        <is>
+          <t>Sinar Bali</t>
+        </is>
+      </c>
+      <c r="C103" s="186" t="inlineStr">
+        <is>
+          <t>map</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>Home</t>
+        </is>
+      </c>
+      <c r="E103" t="n">
+        <v>1</v>
+      </c>
+      <c r="J103" t="n">
+        <v>39840</v>
+      </c>
+      <c r="L103" t="inlineStr">
+        <is>
+          <t>Garden view, Sea view, Beach view, Ocean view</t>
+        </is>
+      </c>
+      <c r="M103" t="inlineStr">
+        <is>
+          <t>Free parking on premises, Street parking</t>
+        </is>
+      </c>
+      <c r="N103" t="inlineStr"/>
+      <c r="O103" t="n">
+        <v>1</v>
+      </c>
+      <c r="P103" t="inlineStr"/>
+      <c r="Q103" t="inlineStr"/>
+      <c r="R103" t="inlineStr"/>
+      <c r="S103" t="inlineStr">
+        <is>
+          <t>Patio or balcony, Backyard</t>
+        </is>
+      </c>
+      <c r="T103" t="inlineStr"/>
+      <c r="U103" t="inlineStr">
+        <is>
+          <t>5.0 stars, 3 reviews</t>
+        </is>
+      </c>
+      <c r="V103" t="inlineStr">
+        <is>
+          <t>Источник данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="n">
+        <v>94</v>
+      </c>
+      <c r="B104" s="186" t="inlineStr">
+        <is>
+          <t>Comfy Double Room at Sari Indah Cottages</t>
+        </is>
+      </c>
+      <c r="C104" s="186" t="inlineStr">
+        <is>
+          <t>map</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>Guesthouse</t>
+        </is>
+      </c>
+      <c r="E104" t="n">
+        <v>1</v>
+      </c>
+      <c r="J104" t="n">
+        <v>44340</v>
+      </c>
+      <c r="L104" t="inlineStr"/>
+      <c r="M104" t="inlineStr">
+        <is>
+          <t>Free parking on premises</t>
+        </is>
+      </c>
+      <c r="N104" t="inlineStr"/>
+      <c r="O104" t="n">
+        <v>1</v>
+      </c>
+      <c r="P104" t="inlineStr"/>
+      <c r="Q104" t="inlineStr"/>
+      <c r="R104" t="inlineStr"/>
+      <c r="S104" t="inlineStr"/>
+      <c r="T104" t="inlineStr"/>
+      <c r="U104" t="inlineStr">
+        <is>
+          <t>4.32 stars, 248 reviews</t>
+        </is>
+      </c>
+      <c r="V104" t="inlineStr">
+        <is>
+          <t>Источник данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="n">
+        <v>95</v>
+      </c>
+      <c r="B105" s="186" t="inlineStr">
+        <is>
+          <t>Homey place in Ubud</t>
+        </is>
+      </c>
+      <c r="C105" s="186" t="inlineStr">
+        <is>
+          <t>map</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>Home</t>
+        </is>
+      </c>
+      <c r="E105" t="n">
+        <v>1</v>
+      </c>
+      <c r="J105" t="n">
+        <v>360</v>
+      </c>
+      <c r="L105" t="inlineStr">
+        <is>
+          <t>Garden view</t>
+        </is>
+      </c>
+      <c r="M105" t="inlineStr">
+        <is>
+          <t>Free parking on premises</t>
+        </is>
+      </c>
+      <c r="N105" t="inlineStr"/>
+      <c r="O105" t="n">
+        <v>1</v>
+      </c>
+      <c r="P105" t="inlineStr">
+        <is>
+          <t>kitchen</t>
+        </is>
+      </c>
+      <c r="Q105" t="inlineStr">
+        <is>
+          <t>Dedicated workspace</t>
+        </is>
+      </c>
+      <c r="R105" t="inlineStr"/>
+      <c r="S105" t="inlineStr">
+        <is>
+          <t>Outdoor dining area, Patio or balcony</t>
+        </is>
+      </c>
+      <c r="T105" t="inlineStr">
+        <is>
+          <t>Safe</t>
+        </is>
+      </c>
+      <c r="U105" t="inlineStr">
+        <is>
+          <t>5.05 stars, 10 reviews</t>
+        </is>
+      </c>
+      <c r="V105" t="inlineStr">
+        <is>
+          <t>Источник данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="n">
+        <v>96</v>
+      </c>
+      <c r="B106" s="186" t="inlineStr">
+        <is>
+          <t>Lumbung Sari Sekumpul Fiji Waterfalls</t>
+        </is>
+      </c>
+      <c r="C106" s="186" t="inlineStr">
+        <is>
+          <t>map</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>Barn</t>
+        </is>
+      </c>
+      <c r="E106" t="n">
+        <v>1</v>
+      </c>
+      <c r="J106" t="n">
+        <v>270</v>
+      </c>
+      <c r="L106" t="inlineStr"/>
+      <c r="M106" t="inlineStr">
+        <is>
+          <t>Free parking on premises</t>
+        </is>
+      </c>
+      <c r="N106" t="inlineStr"/>
+      <c r="P106" t="inlineStr">
+        <is>
+          <t>kitchen</t>
+        </is>
+      </c>
+      <c r="Q106" t="inlineStr"/>
+      <c r="R106" t="inlineStr"/>
+      <c r="S106" t="inlineStr"/>
+      <c r="T106" t="inlineStr">
+        <is>
+          <t>Safe</t>
+        </is>
+      </c>
+      <c r="U106" t="inlineStr">
+        <is>
+          <t>0.0 stars, 0 reviews</t>
+        </is>
+      </c>
+      <c r="V106" t="inlineStr">
+        <is>
+          <t>Источник данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="n">
+        <v>97</v>
+      </c>
+      <c r="B107" s="186" t="inlineStr">
+        <is>
+          <t>Low price guest house, comfy, relaxing</t>
+        </is>
+      </c>
+      <c r="C107" s="186" t="inlineStr">
+        <is>
+          <t>map</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>House</t>
+        </is>
+      </c>
+      <c r="E107" t="n">
+        <v>1</v>
+      </c>
+      <c r="J107" t="n">
+        <v>27720</v>
+      </c>
+      <c r="L107" t="inlineStr">
+        <is>
+          <t>Garden view, Mountain view</t>
+        </is>
+      </c>
+      <c r="M107" t="inlineStr">
+        <is>
+          <t>Free parking on premises</t>
+        </is>
+      </c>
+      <c r="N107" t="inlineStr"/>
+      <c r="O107" t="n">
+        <v>1</v>
+      </c>
+      <c r="P107" t="inlineStr">
+        <is>
+          <t>kitchen</t>
+        </is>
+      </c>
+      <c r="Q107" t="inlineStr">
+        <is>
+          <t>Dedicated workspace</t>
+        </is>
+      </c>
+      <c r="R107" t="inlineStr"/>
+      <c r="S107" t="inlineStr">
+        <is>
+          <t>Outdoor dining area, Patio or balcony</t>
+        </is>
+      </c>
+      <c r="T107" t="inlineStr">
+        <is>
+          <t>Lockbox, Safe</t>
+        </is>
+      </c>
+      <c r="U107" t="inlineStr">
+        <is>
+          <t>1.0 stars, 0 reviews</t>
+        </is>
+      </c>
+      <c r="V107" t="inlineStr">
+        <is>
+          <t>Источник данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="n">
+        <v>98</v>
+      </c>
+      <c r="B108" s="186" t="inlineStr">
+        <is>
+          <t>Lumbung Taman Sekumpul  Hidden Waterfall</t>
+        </is>
+      </c>
+      <c r="C108" s="186" t="inlineStr">
+        <is>
+          <t>map</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>Barn</t>
+        </is>
+      </c>
+      <c r="E108" t="n">
+        <v>1</v>
+      </c>
+      <c r="J108" t="n">
+        <v>240</v>
+      </c>
+      <c r="L108" t="inlineStr"/>
+      <c r="M108" t="inlineStr">
+        <is>
+          <t>Free parking on premises</t>
+        </is>
+      </c>
+      <c r="N108" t="inlineStr"/>
+      <c r="P108" t="inlineStr">
+        <is>
+          <t>kitchen</t>
+        </is>
+      </c>
+      <c r="Q108" t="inlineStr"/>
+      <c r="R108" t="inlineStr"/>
+      <c r="S108" t="inlineStr"/>
+      <c r="T108" t="inlineStr">
+        <is>
+          <t>Safe</t>
+        </is>
+      </c>
+      <c r="U108" t="inlineStr">
+        <is>
+          <t>1.0 stars, 0 reviews</t>
+        </is>
+      </c>
+      <c r="V108" t="inlineStr">
+        <is>
+          <t>Источник данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="n">
+        <v>99</v>
+      </c>
+      <c r="B109" s="186" t="inlineStr">
+        <is>
+          <t>Near Batu Bolong Beach Only 350M</t>
+        </is>
+      </c>
+      <c r="C109" s="186" t="inlineStr">
+        <is>
+          <t>map</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>Home</t>
+        </is>
+      </c>
+      <c r="E109" t="n">
+        <v>10</v>
+      </c>
+      <c r="J109" t="n">
+        <v>330</v>
+      </c>
+      <c r="L109" t="inlineStr"/>
+      <c r="M109" t="inlineStr">
+        <is>
+          <t>Free parking on premises</t>
+        </is>
+      </c>
+      <c r="N109" t="inlineStr"/>
+      <c r="O109" t="n">
+        <v>10</v>
+      </c>
+      <c r="P109" t="inlineStr">
+        <is>
+          <t>kitchen</t>
+        </is>
+      </c>
+      <c r="Q109" t="inlineStr"/>
+      <c r="R109" t="inlineStr"/>
+      <c r="S109" t="inlineStr">
+        <is>
+          <t>Outdoor dining area</t>
+        </is>
+      </c>
+      <c r="T109" t="inlineStr"/>
+      <c r="U109" t="inlineStr">
+        <is>
+          <t>0.0 stars, 0 reviews</t>
+        </is>
+      </c>
+      <c r="V109" t="inlineStr">
+        <is>
+          <t>Источник данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="n">
+        <v>100</v>
+      </c>
+      <c r="B110" s="186" t="inlineStr">
+        <is>
+          <t>apartament (Ungasan) kecamatan kuta selatam.</t>
+        </is>
+      </c>
+      <c r="C110" s="186" t="inlineStr">
+        <is>
+          <t>map</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>Place</t>
+        </is>
+      </c>
+      <c r="E110" t="n">
+        <v>1</v>
+      </c>
+      <c r="J110" t="n">
+        <v>300</v>
+      </c>
+      <c r="L110" t="inlineStr"/>
+      <c r="M110" t="inlineStr">
+        <is>
+          <t>Free parking on premises</t>
+        </is>
+      </c>
+      <c r="N110" t="inlineStr"/>
+      <c r="O110" t="n">
+        <v>1</v>
+      </c>
+      <c r="P110" t="inlineStr">
+        <is>
+          <t>kitchen</t>
+        </is>
+      </c>
+      <c r="Q110" t="inlineStr"/>
+      <c r="R110" t="inlineStr"/>
+      <c r="S110" t="inlineStr"/>
+      <c r="T110" t="inlineStr"/>
+      <c r="U110" t="inlineStr">
+        <is>
+          <t>4.67 stars, 3 reviews</t>
+        </is>
+      </c>
+      <c r="V110" t="inlineStr">
+        <is>
+          <t>Источник данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="n">
+        <v>101</v>
+      </c>
+      <c r="B111" s="186" t="inlineStr">
+        <is>
+          <t>Munduktemu guest house</t>
+        </is>
+      </c>
+      <c r="C111" s="186" t="inlineStr">
+        <is>
+          <t>map</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>House</t>
+        </is>
+      </c>
+      <c r="E111" t="n">
+        <v>1</v>
+      </c>
+      <c r="J111" t="n">
+        <v>300</v>
+      </c>
+      <c r="L111" t="inlineStr"/>
+      <c r="M111" t="inlineStr">
+        <is>
+          <t>Free parking on premises</t>
+        </is>
+      </c>
+      <c r="N111" t="inlineStr"/>
+      <c r="O111" t="n">
+        <v>1</v>
+      </c>
+      <c r="P111" t="inlineStr"/>
+      <c r="Q111" t="inlineStr"/>
+      <c r="R111" t="inlineStr"/>
+      <c r="S111" t="inlineStr"/>
+      <c r="T111" t="inlineStr"/>
+      <c r="U111" t="inlineStr">
+        <is>
+          <t>0.0 stars, 0 reviews</t>
+        </is>
+      </c>
+      <c r="V111" t="inlineStr">
+        <is>
+          <t>Источник данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="n">
+        <v>102</v>
+      </c>
+      <c r="B112" s="186" t="inlineStr">
+        <is>
+          <t>Ubud Snug 1BR Studio</t>
+        </is>
+      </c>
+      <c r="C112" s="186" t="inlineStr">
+        <is>
+          <t>map</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>Place</t>
+        </is>
+      </c>
+      <c r="E112" t="n">
+        <v>1</v>
+      </c>
+      <c r="J112" t="n">
+        <v>27030</v>
+      </c>
+      <c r="L112" t="inlineStr"/>
+      <c r="M112" t="inlineStr">
+        <is>
+          <t>Free parking on premises</t>
+        </is>
+      </c>
+      <c r="N112" t="inlineStr"/>
+      <c r="O112" t="n">
+        <v>1</v>
+      </c>
+      <c r="P112" t="inlineStr">
+        <is>
+          <t>kitchen</t>
+        </is>
+      </c>
+      <c r="Q112" t="inlineStr">
+        <is>
+          <t>Dedicated workspace</t>
+        </is>
+      </c>
+      <c r="R112" t="inlineStr"/>
+      <c r="S112" t="inlineStr"/>
+      <c r="T112" t="inlineStr"/>
+      <c r="U112" t="inlineStr">
+        <is>
+          <t>0.0 stars, 0 reviews</t>
+        </is>
+      </c>
+      <c r="V112" t="inlineStr">
+        <is>
+          <t>Источник данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="n">
+        <v>103</v>
+      </c>
+      <c r="B113" s="186" t="inlineStr">
+        <is>
+          <t>Backpacker Homestay Denpasar</t>
+        </is>
+      </c>
+      <c r="C113" s="186" t="inlineStr">
+        <is>
+          <t>map</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>Home</t>
+        </is>
+      </c>
+      <c r="E113" t="n">
+        <v>1</v>
+      </c>
+      <c r="J113" t="n">
+        <v>300</v>
+      </c>
+      <c r="L113" t="inlineStr"/>
+      <c r="M113" t="inlineStr"/>
+      <c r="N113" t="inlineStr"/>
+      <c r="O113" t="n">
+        <v>2</v>
+      </c>
+      <c r="P113" t="inlineStr">
+        <is>
+          <t>kitchen</t>
+        </is>
+      </c>
+      <c r="Q113" t="inlineStr"/>
+      <c r="R113" t="inlineStr"/>
+      <c r="S113" t="inlineStr"/>
+      <c r="T113" t="inlineStr"/>
+      <c r="U113" t="inlineStr">
+        <is>
+          <t>0.0 stars, 0 reviews</t>
+        </is>
+      </c>
+      <c r="V113" t="inlineStr">
+        <is>
+          <t>Источник данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="n">
+        <v>104</v>
+      </c>
+      <c r="B114" s="186" t="inlineStr">
+        <is>
+          <t>Nike house</t>
+        </is>
+      </c>
+      <c r="C114" s="186" t="inlineStr">
+        <is>
+          <t>map</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>Guesthouse</t>
+        </is>
+      </c>
+      <c r="E114" t="n">
+        <v>1</v>
+      </c>
+      <c r="J114" t="n">
+        <v>300</v>
+      </c>
+      <c r="L114" t="inlineStr"/>
+      <c r="M114" t="inlineStr">
+        <is>
+          <t>Street parking</t>
+        </is>
+      </c>
+      <c r="N114" t="inlineStr"/>
+      <c r="O114" t="n">
+        <v>1</v>
+      </c>
+      <c r="P114" t="inlineStr"/>
+      <c r="Q114" t="inlineStr"/>
+      <c r="R114" t="inlineStr"/>
+      <c r="S114" t="inlineStr"/>
+      <c r="T114" t="inlineStr"/>
+      <c r="U114" t="inlineStr">
+        <is>
+          <t>4.43 stars, 21 reviews</t>
+        </is>
+      </c>
+      <c r="V114" t="inlineStr">
+        <is>
+          <t>Источник данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="n">
+        <v>105</v>
+      </c>
+      <c r="B115" s="186" t="inlineStr">
+        <is>
+          <t>not avaible</t>
+        </is>
+      </c>
+      <c r="C115" s="186" t="inlineStr">
+        <is>
+          <t>map</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>Guesthouse</t>
+        </is>
+      </c>
+      <c r="E115" t="n">
+        <v>1</v>
+      </c>
+      <c r="J115" t="n">
+        <v>300</v>
+      </c>
+      <c r="L115" t="inlineStr"/>
+      <c r="M115" t="inlineStr">
+        <is>
+          <t>Free parking on premises</t>
+        </is>
+      </c>
+      <c r="N115" t="inlineStr"/>
+      <c r="O115" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="P115" t="inlineStr">
+        <is>
+          <t>kitchen</t>
+        </is>
+      </c>
+      <c r="Q115" t="inlineStr">
+        <is>
+          <t>Dedicated workspace</t>
+        </is>
+      </c>
+      <c r="R115" t="inlineStr"/>
+      <c r="S115" t="inlineStr"/>
+      <c r="T115" t="inlineStr"/>
+      <c r="U115" t="inlineStr">
+        <is>
+          <t>0.0 stars, 0 reviews</t>
+        </is>
+      </c>
+      <c r="V115" t="inlineStr">
+        <is>
+          <t>Источник данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="n">
+        <v>106</v>
+      </c>
+      <c r="B116" s="186" t="inlineStr">
+        <is>
+          <t>Head Priest and Balinese Healer</t>
+        </is>
+      </c>
+      <c r="C116" s="186" t="inlineStr">
+        <is>
+          <t>map</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>Guesthouse</t>
+        </is>
+      </c>
+      <c r="E116" t="n">
+        <v>1</v>
+      </c>
+      <c r="J116" t="n">
+        <v>300</v>
+      </c>
+      <c r="L116" t="inlineStr"/>
+      <c r="M116" t="inlineStr">
+        <is>
+          <t>Free parking on premises</t>
+        </is>
+      </c>
+      <c r="N116" t="inlineStr"/>
+      <c r="O116" t="n">
+        <v>1</v>
+      </c>
+      <c r="P116" t="inlineStr">
+        <is>
+          <t>kitchen</t>
+        </is>
+      </c>
+      <c r="Q116" t="inlineStr"/>
+      <c r="R116" t="inlineStr"/>
+      <c r="S116" t="inlineStr"/>
+      <c r="T116" t="inlineStr">
+        <is>
+          <t>Safe</t>
+        </is>
+      </c>
+      <c r="U116" t="inlineStr">
+        <is>
+          <t>0.0 stars, 0 reviews</t>
+        </is>
+      </c>
+      <c r="V116" t="inlineStr">
+        <is>
+          <t>Источник данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="n">
+        <v>107</v>
+      </c>
+      <c r="B117" s="186" t="inlineStr">
+        <is>
+          <t>camping</t>
+        </is>
+      </c>
+      <c r="C117" s="186" t="inlineStr">
+        <is>
+          <t>map</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>Tent</t>
+        </is>
+      </c>
+      <c r="E117" t="n">
+        <v>0</v>
+      </c>
+      <c r="J117" t="n">
+        <v>300</v>
+      </c>
+      <c r="L117" t="inlineStr"/>
+      <c r="M117" t="inlineStr"/>
+      <c r="N117" t="inlineStr"/>
+      <c r="O117" t="n">
+        <v>1</v>
+      </c>
+      <c r="P117" t="inlineStr"/>
+      <c r="Q117" t="inlineStr"/>
+      <c r="R117" t="inlineStr"/>
+      <c r="S117" t="inlineStr">
+        <is>
+          <t>Outdoor dining area</t>
+        </is>
+      </c>
+      <c r="T117" t="inlineStr">
+        <is>
+          <t>Safe</t>
+        </is>
+      </c>
+      <c r="U117" t="inlineStr">
+        <is>
+          <t>0.0 stars, 0 reviews</t>
+        </is>
+      </c>
+      <c r="V117" t="inlineStr">
+        <is>
+          <t>Источник данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="n">
+        <v>108</v>
+      </c>
+      <c r="B118" s="186" t="inlineStr">
+        <is>
+          <t>BALIÀN JUNGLE  SURF  ACCOMODATION 3</t>
+        </is>
+      </c>
+      <c r="C118" s="186" t="inlineStr">
+        <is>
+          <t>map</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>Bungalow</t>
+        </is>
+      </c>
+      <c r="E118" t="n">
+        <v>1</v>
+      </c>
+      <c r="J118" t="n">
+        <v>300</v>
+      </c>
+      <c r="L118" t="inlineStr"/>
+      <c r="M118" t="inlineStr">
+        <is>
+          <t>Free parking on premises</t>
+        </is>
+      </c>
+      <c r="N118" t="inlineStr"/>
+      <c r="O118" t="n">
+        <v>1</v>
+      </c>
+      <c r="P118" t="inlineStr">
+        <is>
+          <t>kitchen</t>
+        </is>
+      </c>
+      <c r="Q118" t="inlineStr">
+        <is>
+          <t>Dedicated workspace</t>
+        </is>
+      </c>
+      <c r="R118" t="inlineStr"/>
+      <c r="S118" t="inlineStr">
+        <is>
+          <t>Outdoor dining area, Backyard</t>
+        </is>
+      </c>
+      <c r="T118" t="inlineStr">
+        <is>
+          <t>Safe</t>
+        </is>
+      </c>
+      <c r="U118" t="inlineStr">
+        <is>
+          <t>2.0 stars, 2 reviews</t>
+        </is>
+      </c>
+      <c r="V118" t="inlineStr">
+        <is>
+          <t>Источник данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="n">
+        <v>109</v>
+      </c>
+      <c r="B119" s="186" t="inlineStr">
+        <is>
+          <t>Angels Bali Homestay (Andělé Bali)</t>
+        </is>
+      </c>
+      <c r="C119" s="186" t="inlineStr">
+        <is>
+          <t>map</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>Guesthouse</t>
+        </is>
+      </c>
+      <c r="E119" t="n">
+        <v>1</v>
+      </c>
+      <c r="J119" t="n">
+        <v>300</v>
+      </c>
+      <c r="L119" t="inlineStr"/>
+      <c r="M119" t="inlineStr"/>
+      <c r="N119" t="inlineStr"/>
+      <c r="O119" t="n">
+        <v>1</v>
+      </c>
+      <c r="P119" t="inlineStr"/>
+      <c r="Q119" t="inlineStr"/>
+      <c r="R119" t="inlineStr"/>
+      <c r="S119" t="inlineStr"/>
+      <c r="T119" t="inlineStr"/>
+      <c r="U119" t="inlineStr">
+        <is>
+          <t>4.2 stars, 5 reviews</t>
+        </is>
+      </c>
+      <c r="V119" t="inlineStr">
+        <is>
+          <t>Источник данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="n">
+        <v>110</v>
+      </c>
+      <c r="B120" s="186" t="inlineStr">
+        <is>
+          <t>Astiti Graha Cottage</t>
+        </is>
+      </c>
+      <c r="C120" s="186" t="inlineStr">
+        <is>
+          <t>map</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>Guesthouse</t>
+        </is>
+      </c>
+      <c r="E120" t="n">
+        <v>1</v>
+      </c>
+      <c r="F120" t="n">
+        <v>309</v>
+      </c>
+      <c r="G120" t="n">
+        <v>2601461</v>
+      </c>
+      <c r="H120" t="n">
+        <v>99.03</v>
+      </c>
+      <c r="I120" t="n">
+        <v>796064400</v>
+      </c>
+      <c r="J120" t="n">
+        <v>28410</v>
+      </c>
+      <c r="L120" t="inlineStr"/>
+      <c r="M120" t="inlineStr">
+        <is>
+          <t>Free parking on premises</t>
+        </is>
+      </c>
+      <c r="N120" t="inlineStr"/>
+      <c r="O120" t="n">
+        <v>1</v>
+      </c>
+      <c r="P120" t="inlineStr"/>
+      <c r="Q120" t="inlineStr"/>
+      <c r="R120" t="inlineStr"/>
+      <c r="S120" t="inlineStr"/>
+      <c r="T120" t="inlineStr">
+        <is>
+          <t>Safe</t>
+        </is>
+      </c>
+      <c r="U120" t="inlineStr">
+        <is>
+          <t>0.0 stars, 0 reviews</t>
+        </is>
+      </c>
+      <c r="V120" t="inlineStr">
+        <is>
+          <t>Источник данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="n">
+        <v>111</v>
+      </c>
+      <c r="B121" s="186" t="inlineStr">
+        <is>
+          <t>Promo last minute Studio in heart of Denpasar</t>
+        </is>
+      </c>
+      <c r="C121" s="186" t="inlineStr">
+        <is>
+          <t>map</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>Place</t>
+        </is>
+      </c>
+      <c r="E121" t="n">
+        <v>0</v>
+      </c>
+      <c r="J121" t="n">
+        <v>300</v>
+      </c>
+      <c r="L121" t="inlineStr"/>
+      <c r="M121" t="inlineStr">
+        <is>
+          <t>Free parking on premises</t>
+        </is>
+      </c>
+      <c r="N121" t="inlineStr"/>
+      <c r="O121" t="n">
+        <v>1</v>
+      </c>
+      <c r="P121" t="inlineStr"/>
+      <c r="Q121" t="inlineStr"/>
+      <c r="R121" t="inlineStr"/>
+      <c r="S121" t="inlineStr">
+        <is>
+          <t>Patio or balcony</t>
+        </is>
+      </c>
+      <c r="T121" t="inlineStr"/>
+      <c r="U121" t="inlineStr">
+        <is>
+          <t>0.0 stars, 0 reviews</t>
+        </is>
+      </c>
+      <c r="V121" t="inlineStr">
+        <is>
+          <t>Источник данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="n">
+        <v>112</v>
+      </c>
+      <c r="B122" s="186" t="inlineStr">
+        <is>
+          <t>Stay With Pure local People in Balinese community</t>
+        </is>
+      </c>
+      <c r="C122" s="186" t="inlineStr">
+        <is>
+          <t>map</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>Home</t>
+        </is>
+      </c>
+      <c r="E122" t="n">
+        <v>1</v>
+      </c>
+      <c r="J122" t="n">
+        <v>300</v>
+      </c>
+      <c r="L122" t="inlineStr"/>
+      <c r="M122" t="inlineStr"/>
+      <c r="N122" t="inlineStr"/>
+      <c r="O122" t="n">
+        <v>1</v>
+      </c>
+      <c r="P122" t="inlineStr">
+        <is>
+          <t>kitchen</t>
+        </is>
+      </c>
+      <c r="Q122" t="inlineStr">
+        <is>
+          <t>Dedicated workspace</t>
+        </is>
+      </c>
+      <c r="R122" t="inlineStr"/>
+      <c r="S122" t="inlineStr">
+        <is>
+          <t>Patio or balcony, Backyard</t>
+        </is>
+      </c>
+      <c r="T122" t="inlineStr"/>
+      <c r="U122" t="inlineStr">
+        <is>
+          <t>5.0 stars, 5 reviews</t>
+        </is>
+      </c>
+      <c r="V122" t="inlineStr">
+        <is>
+          <t>Источник данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="n">
+        <v>113</v>
+      </c>
+      <c r="B123" s="186" t="inlineStr">
+        <is>
+          <t>kecag kecog guest house no:2</t>
+        </is>
+      </c>
+      <c r="C123" s="186" t="inlineStr">
+        <is>
+          <t>map</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>House</t>
+        </is>
+      </c>
+      <c r="E123" t="n">
+        <v>1</v>
+      </c>
+      <c r="J123" t="n">
+        <v>330</v>
+      </c>
+      <c r="L123" t="inlineStr"/>
+      <c r="M123" t="inlineStr"/>
+      <c r="N123" t="inlineStr"/>
+      <c r="O123" t="n">
+        <v>1</v>
+      </c>
+      <c r="P123" t="inlineStr"/>
+      <c r="Q123" t="inlineStr"/>
+      <c r="R123" t="inlineStr"/>
+      <c r="S123" t="inlineStr"/>
+      <c r="T123" t="inlineStr"/>
+      <c r="U123" t="inlineStr">
+        <is>
+          <t>1.0 stars, 0 reviews</t>
+        </is>
+      </c>
+      <c r="V123" t="inlineStr">
+        <is>
+          <t>Источник данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="n">
+        <v>114</v>
+      </c>
+      <c r="B124" s="186" t="inlineStr">
+        <is>
+          <t>Bahtera Guest House 2</t>
+        </is>
+      </c>
+      <c r="C124" s="186" t="inlineStr">
+        <is>
+          <t>map</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>House</t>
+        </is>
+      </c>
+      <c r="E124" t="n">
+        <v>1</v>
+      </c>
+      <c r="J124" t="n">
+        <v>330</v>
+      </c>
+      <c r="L124" t="inlineStr"/>
+      <c r="M124" t="inlineStr"/>
+      <c r="N124" t="inlineStr"/>
+      <c r="O124" t="n">
+        <v>1</v>
+      </c>
+      <c r="P124" t="inlineStr"/>
+      <c r="Q124" t="inlineStr">
+        <is>
+          <t>Dedicated workspace</t>
+        </is>
+      </c>
+      <c r="R124" t="inlineStr"/>
+      <c r="S124" t="inlineStr"/>
+      <c r="T124" t="inlineStr">
+        <is>
+          <t>Safe</t>
+        </is>
+      </c>
+      <c r="U124" t="inlineStr">
+        <is>
+          <t>5.0 stars, 3 reviews</t>
+        </is>
+      </c>
+      <c r="V124" t="inlineStr">
+        <is>
+          <t>Источник данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="n">
+        <v>115</v>
+      </c>
+      <c r="B125" s="186" t="inlineStr">
+        <is>
+          <t>Canggu 77 Guest House (1)</t>
+        </is>
+      </c>
+      <c r="C125" s="186" t="inlineStr">
+        <is>
+          <t>map</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>House</t>
+        </is>
+      </c>
+      <c r="E125" t="n">
+        <v>1</v>
+      </c>
+      <c r="J125" t="n">
+        <v>31170</v>
+      </c>
+      <c r="L125" t="inlineStr"/>
+      <c r="M125" t="inlineStr">
+        <is>
+          <t>Free parking on premises</t>
+        </is>
+      </c>
+      <c r="N125" t="inlineStr"/>
+      <c r="O125" t="n">
+        <v>1</v>
+      </c>
+      <c r="P125" t="inlineStr">
+        <is>
+          <t>kitchen</t>
+        </is>
+      </c>
+      <c r="Q125" t="inlineStr"/>
+      <c r="R125" t="inlineStr"/>
+      <c r="S125" t="inlineStr"/>
+      <c r="T125" t="inlineStr">
+        <is>
+          <t>Safe</t>
+        </is>
+      </c>
+      <c r="U125" t="inlineStr">
+        <is>
+          <t>3.6 stars, 5 reviews</t>
+        </is>
+      </c>
+      <c r="V125" t="inlineStr">
+        <is>
+          <t>Источник данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="n">
+        <v>116</v>
+      </c>
+      <c r="B126" s="186" t="inlineStr">
+        <is>
+          <t>Private artsy place in sanur</t>
+        </is>
+      </c>
+      <c r="C126" s="186" t="inlineStr">
+        <is>
+          <t>map</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>Place</t>
+        </is>
+      </c>
+      <c r="E126" t="n">
+        <v>1</v>
+      </c>
+      <c r="J126" t="n">
+        <v>330</v>
+      </c>
+      <c r="L126" t="inlineStr"/>
+      <c r="M126" t="inlineStr"/>
+      <c r="N126" t="inlineStr"/>
+      <c r="O126" t="n">
+        <v>1</v>
+      </c>
+      <c r="P126" t="inlineStr"/>
+      <c r="Q126" t="inlineStr">
+        <is>
+          <t>Dedicated workspace</t>
+        </is>
+      </c>
+      <c r="R126" t="inlineStr"/>
+      <c r="S126" t="inlineStr">
+        <is>
+          <t>Patio or balcony</t>
+        </is>
+      </c>
+      <c r="T126" t="inlineStr"/>
+      <c r="U126" t="inlineStr">
+        <is>
+          <t>5.0 stars, 3 reviews</t>
+        </is>
+      </c>
+      <c r="V126" t="inlineStr">
+        <is>
+          <t>Источник данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="n">
+        <v>117</v>
+      </c>
+      <c r="B127" s="186" t="inlineStr">
+        <is>
+          <t>Kamar Murah Tince</t>
+        </is>
+      </c>
+      <c r="C127" s="186" t="inlineStr">
+        <is>
+          <t>map</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>Home</t>
+        </is>
+      </c>
+      <c r="E127" t="n">
+        <v>0</v>
+      </c>
+      <c r="J127" t="n">
+        <v>300</v>
+      </c>
+      <c r="L127" t="inlineStr"/>
+      <c r="M127" t="inlineStr"/>
+      <c r="N127" t="inlineStr"/>
+      <c r="O127" t="n">
+        <v>1</v>
+      </c>
+      <c r="P127" t="inlineStr"/>
+      <c r="Q127" t="inlineStr"/>
+      <c r="R127" t="inlineStr"/>
+      <c r="S127" t="inlineStr"/>
+      <c r="T127" t="inlineStr"/>
+      <c r="U127" t="inlineStr">
+        <is>
+          <t>0.0 stars, 0 reviews</t>
+        </is>
+      </c>
+      <c r="V127" t="inlineStr">
+        <is>
+          <t>Источник данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="n">
+        <v>118</v>
+      </c>
+      <c r="B128" s="186" t="inlineStr">
+        <is>
+          <t>OMAN House - 1 BR house in Balinese compound</t>
+        </is>
+      </c>
+      <c r="C128" s="186" t="inlineStr">
+        <is>
+          <t>map</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>House</t>
+        </is>
+      </c>
+      <c r="E128" t="n">
+        <v>1</v>
+      </c>
+      <c r="J128" t="n">
+        <v>30270</v>
+      </c>
+      <c r="L128" t="inlineStr"/>
+      <c r="M128" t="inlineStr">
+        <is>
+          <t>Free parking on premises, Street parking</t>
+        </is>
+      </c>
+      <c r="N128" t="inlineStr"/>
+      <c r="O128" t="n">
+        <v>1</v>
+      </c>
+      <c r="P128" t="inlineStr">
+        <is>
+          <t>kitchen</t>
+        </is>
+      </c>
+      <c r="Q128" t="inlineStr"/>
+      <c r="R128" t="inlineStr"/>
+      <c r="S128" t="inlineStr">
+        <is>
+          <t>Patio or balcony, Backyard</t>
+        </is>
+      </c>
+      <c r="T128" t="inlineStr">
+        <is>
+          <t>Safe</t>
+        </is>
+      </c>
+      <c r="U128" t="inlineStr">
+        <is>
+          <t>4.56 stars, 39 reviews</t>
+        </is>
+      </c>
+      <c r="V128" t="inlineStr">
+        <is>
+          <t>Источник данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="n">
+        <v>119</v>
+      </c>
+      <c r="B129" s="186" t="inlineStr">
+        <is>
+          <t>Ketut's House</t>
+        </is>
+      </c>
+      <c r="C129" s="186" t="inlineStr">
+        <is>
+          <t>map</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>House</t>
+        </is>
+      </c>
+      <c r="E129" t="n">
+        <v>1</v>
+      </c>
+      <c r="J129" t="n">
+        <v>30270</v>
+      </c>
+      <c r="L129" t="inlineStr"/>
+      <c r="M129" t="inlineStr">
+        <is>
+          <t>Free parking on premises</t>
+        </is>
+      </c>
+      <c r="N129" t="inlineStr"/>
+      <c r="O129" t="n">
+        <v>1</v>
+      </c>
+      <c r="P129" t="inlineStr">
+        <is>
+          <t>kitchen</t>
+        </is>
+      </c>
+      <c r="Q129" t="inlineStr">
+        <is>
+          <t>Dedicated workspace</t>
+        </is>
+      </c>
+      <c r="R129" t="inlineStr"/>
+      <c r="S129" t="inlineStr"/>
+      <c r="T129" t="inlineStr"/>
+      <c r="U129" t="inlineStr">
+        <is>
+          <t>1.0 stars, 0 reviews</t>
+        </is>
+      </c>
+      <c r="V129" t="inlineStr">
+        <is>
+          <t>Источник данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="n">
+        <v>120</v>
+      </c>
+      <c r="B130" s="186" t="inlineStr">
+        <is>
+          <t>Canggu 77 Guest House (2)</t>
+        </is>
+      </c>
+      <c r="C130" s="186" t="inlineStr">
+        <is>
+          <t>map</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>House</t>
+        </is>
+      </c>
+      <c r="E130" t="n">
+        <v>1</v>
+      </c>
+      <c r="J130" t="n">
+        <v>330</v>
+      </c>
+      <c r="L130" t="inlineStr"/>
+      <c r="M130" t="inlineStr">
+        <is>
+          <t>Free parking on premises</t>
+        </is>
+      </c>
+      <c r="N130" t="inlineStr"/>
+      <c r="O130" t="n">
+        <v>1</v>
+      </c>
+      <c r="P130" t="inlineStr">
+        <is>
+          <t>kitchen</t>
+        </is>
+      </c>
+      <c r="Q130" t="inlineStr"/>
+      <c r="R130" t="inlineStr"/>
+      <c r="S130" t="inlineStr"/>
+      <c r="T130" t="inlineStr">
+        <is>
+          <t>Safe</t>
+        </is>
+      </c>
+      <c r="U130" t="inlineStr">
+        <is>
+          <t>3.4 stars, 5 reviews</t>
+        </is>
+      </c>
+      <c r="V130" t="inlineStr">
+        <is>
+          <t>Источник данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="n">
+        <v>121</v>
+      </c>
+      <c r="B131" s="186" t="inlineStr">
+        <is>
+          <t>Rajapala garden bungalow #1</t>
+        </is>
+      </c>
+      <c r="C131" s="186" t="inlineStr">
+        <is>
+          <t>map</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>Bungalow</t>
+        </is>
+      </c>
+      <c r="E131" t="n">
+        <v>1</v>
+      </c>
+      <c r="J131" t="n">
+        <v>360</v>
+      </c>
+      <c r="L131" t="inlineStr">
+        <is>
+          <t>Garden view, Beach view, Ocean view</t>
+        </is>
+      </c>
+      <c r="M131" t="inlineStr">
+        <is>
+          <t>Free parking on premises</t>
+        </is>
+      </c>
+      <c r="N131" t="inlineStr"/>
+      <c r="O131" t="n">
+        <v>1</v>
+      </c>
+      <c r="P131" t="inlineStr">
+        <is>
+          <t>kitchen</t>
+        </is>
+      </c>
+      <c r="Q131" t="inlineStr">
+        <is>
+          <t>Dedicated workspace</t>
+        </is>
+      </c>
+      <c r="R131" t="inlineStr"/>
+      <c r="S131" t="inlineStr">
+        <is>
+          <t>Outdoor dining area, Patio or balcony, Backyard</t>
+        </is>
+      </c>
+      <c r="T131" t="inlineStr"/>
+      <c r="U131" t="inlineStr">
+        <is>
+          <t>4.45 stars, 11 reviews</t>
+        </is>
+      </c>
+      <c r="V131" t="inlineStr">
+        <is>
+          <t>Источник данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="n">
+        <v>122</v>
+      </c>
+      <c r="B132" s="186" t="inlineStr">
+        <is>
+          <t>Sinar Bali 3</t>
+        </is>
+      </c>
+      <c r="C132" s="186" t="inlineStr">
+        <is>
+          <t>map</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>Home</t>
+        </is>
+      </c>
+      <c r="E132" t="n">
+        <v>1</v>
+      </c>
+      <c r="J132" t="n">
+        <v>28680</v>
+      </c>
+      <c r="L132" t="inlineStr">
+        <is>
+          <t>Garden view, Sea view, Beach view, Ocean view</t>
+        </is>
+      </c>
+      <c r="M132" t="inlineStr">
+        <is>
+          <t>Free parking on premises, Street parking</t>
+        </is>
+      </c>
+      <c r="N132" t="inlineStr"/>
+      <c r="O132" t="n">
+        <v>1</v>
+      </c>
+      <c r="P132" t="inlineStr"/>
+      <c r="Q132" t="inlineStr"/>
+      <c r="R132" t="inlineStr"/>
+      <c r="S132" t="inlineStr">
+        <is>
+          <t>Patio or balcony, Backyard</t>
+        </is>
+      </c>
+      <c r="T132" t="inlineStr"/>
+      <c r="U132" t="inlineStr">
+        <is>
+          <t>0.0 stars, 0 reviews</t>
+        </is>
+      </c>
+      <c r="V132" t="inlineStr">
+        <is>
+          <t>Источник данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="n">
+        <v>123</v>
+      </c>
+      <c r="B133" s="186" t="inlineStr">
+        <is>
+          <t>DS Apartment ( under contruction)</t>
+        </is>
+      </c>
+      <c r="C133" s="186" t="inlineStr">
+        <is>
+          <t>map</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>Apartment</t>
+        </is>
+      </c>
+      <c r="E133" t="n">
+        <v>1</v>
+      </c>
+      <c r="J133" t="n">
+        <v>33030</v>
+      </c>
+      <c r="L133" t="inlineStr"/>
+      <c r="M133" t="inlineStr">
+        <is>
+          <t>Free parking on premises</t>
+        </is>
+      </c>
+      <c r="N133" t="inlineStr"/>
+      <c r="O133" t="n">
+        <v>1</v>
+      </c>
+      <c r="P133" t="inlineStr">
+        <is>
+          <t>kitchen</t>
+        </is>
+      </c>
+      <c r="Q133" t="inlineStr"/>
+      <c r="R133" t="inlineStr"/>
+      <c r="S133" t="inlineStr">
+        <is>
+          <t>Outdoor dining area, Patio or balcony</t>
+        </is>
+      </c>
+      <c r="T133" t="inlineStr"/>
+      <c r="U133" t="inlineStr">
+        <is>
+          <t>1.0 stars, 0 reviews</t>
+        </is>
+      </c>
+      <c r="V133" t="inlineStr">
+        <is>
+          <t>Источник данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="n">
+        <v>124</v>
+      </c>
+      <c r="B134" s="186" t="inlineStr">
+        <is>
+          <t>minimalist room with green view</t>
+        </is>
+      </c>
+      <c r="C134" s="186" t="inlineStr">
+        <is>
+          <t>map</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>Home</t>
+        </is>
+      </c>
+      <c r="E134" t="n">
+        <v>1</v>
+      </c>
+      <c r="J134" t="n">
+        <v>360</v>
+      </c>
+      <c r="L134" t="inlineStr"/>
+      <c r="M134" t="inlineStr">
+        <is>
+          <t>Free parking on premises</t>
+        </is>
+      </c>
+      <c r="N134" t="inlineStr"/>
+      <c r="O134" t="n">
+        <v>1</v>
+      </c>
+      <c r="P134" t="inlineStr">
+        <is>
+          <t>kitchen</t>
+        </is>
+      </c>
+      <c r="Q134" t="inlineStr">
+        <is>
+          <t>Dedicated workspace</t>
+        </is>
+      </c>
+      <c r="R134" t="inlineStr"/>
+      <c r="S134" t="inlineStr">
+        <is>
+          <t>Outdoor dining area</t>
+        </is>
+      </c>
+      <c r="T134" t="inlineStr">
+        <is>
+          <t>Lockbox, Safe</t>
+        </is>
+      </c>
+      <c r="U134" t="inlineStr">
+        <is>
+          <t>5.0 stars, 4 reviews</t>
+        </is>
+      </c>
+      <c r="V134" t="inlineStr">
+        <is>
+          <t>Источник данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="n">
+        <v>125</v>
+      </c>
+      <c r="B135" s="186" t="inlineStr">
+        <is>
+          <t>BALIAN JUNGLE SURF ACCOMADATION 1</t>
+        </is>
+      </c>
+      <c r="C135" s="186" t="inlineStr">
+        <is>
+          <t>map</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>Home</t>
+        </is>
+      </c>
+      <c r="E135" t="n">
+        <v>1</v>
+      </c>
+      <c r="J135" t="n">
+        <v>360</v>
+      </c>
+      <c r="L135" t="inlineStr">
+        <is>
+          <t>Garden view, River view, Valley view</t>
+        </is>
+      </c>
+      <c r="M135" t="inlineStr">
+        <is>
+          <t>Free parking on premises</t>
+        </is>
+      </c>
+      <c r="N135" t="inlineStr"/>
+      <c r="O135" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="P135" t="inlineStr">
+        <is>
+          <t>kitchen</t>
+        </is>
+      </c>
+      <c r="Q135" t="inlineStr">
+        <is>
+          <t>Dedicated workspace</t>
+        </is>
+      </c>
+      <c r="R135" t="inlineStr"/>
+      <c r="S135" t="inlineStr">
+        <is>
+          <t>Patio or balcony, Backyard</t>
+        </is>
+      </c>
+      <c r="T135" t="inlineStr">
+        <is>
+          <t>Safe</t>
+        </is>
+      </c>
+      <c r="U135" t="inlineStr">
+        <is>
+          <t>4.74 stars, 19 reviews</t>
+        </is>
+      </c>
+      <c r="V135" t="inlineStr">
+        <is>
+          <t>Источник данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="n">
+        <v>126</v>
+      </c>
+      <c r="B136" s="186" t="inlineStr">
+        <is>
+          <t>Strategic &amp; Comfy Studio Room#9 - Near Kuta&amp;Canggu</t>
+        </is>
+      </c>
+      <c r="C136" s="186" t="inlineStr">
+        <is>
+          <t>map</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>Place</t>
+        </is>
+      </c>
+      <c r="E136" t="n">
+        <v>1</v>
+      </c>
+      <c r="J136" t="n">
+        <v>330</v>
+      </c>
+      <c r="L136" t="inlineStr"/>
+      <c r="M136" t="inlineStr">
+        <is>
+          <t>Free parking on premises</t>
+        </is>
+      </c>
+      <c r="N136" t="inlineStr"/>
+      <c r="O136" t="n">
+        <v>1</v>
+      </c>
+      <c r="P136" t="inlineStr">
+        <is>
+          <t>kitchen</t>
+        </is>
+      </c>
+      <c r="Q136" t="inlineStr">
+        <is>
+          <t>Dedicated workspace</t>
+        </is>
+      </c>
+      <c r="R136" t="inlineStr"/>
+      <c r="S136" t="inlineStr"/>
+      <c r="T136" t="inlineStr">
+        <is>
+          <t>Safe</t>
+        </is>
+      </c>
+      <c r="U136" t="inlineStr">
+        <is>
+          <t>5.05 stars, 8 reviews</t>
+        </is>
+      </c>
+      <c r="V136" t="inlineStr">
+        <is>
+          <t>Источник данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="n">
+        <v>127</v>
+      </c>
+      <c r="B137" s="186" t="inlineStr">
+        <is>
+          <t>Self-contained ocean-view room in Lipah!</t>
+        </is>
+      </c>
+      <c r="C137" s="186" t="inlineStr">
+        <is>
+          <t>map</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>Place</t>
+        </is>
+      </c>
+      <c r="E137" t="n">
+        <v>0</v>
+      </c>
+      <c r="J137" t="n">
+        <v>390</v>
+      </c>
+      <c r="L137" t="inlineStr"/>
+      <c r="M137" t="inlineStr">
+        <is>
+          <t>Free parking on premises</t>
+        </is>
+      </c>
+      <c r="N137" t="inlineStr"/>
+      <c r="O137" t="n">
+        <v>1</v>
+      </c>
+      <c r="P137" t="inlineStr">
+        <is>
+          <t>kitchen</t>
+        </is>
+      </c>
+      <c r="Q137" t="inlineStr"/>
+      <c r="R137" t="inlineStr"/>
+      <c r="S137" t="inlineStr">
+        <is>
+          <t>Patio or balcony</t>
+        </is>
+      </c>
+      <c r="T137" t="inlineStr">
+        <is>
+          <t>Safe</t>
+        </is>
+      </c>
+      <c r="U137" t="inlineStr">
+        <is>
+          <t>4.56 stars, 18 reviews</t>
+        </is>
+      </c>
+      <c r="V137" t="inlineStr">
+        <is>
+          <t>Источник данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="n">
+        <v>128</v>
+      </c>
+      <c r="B138" s="186" t="inlineStr">
+        <is>
+          <t>Mandala Bungalows Ubud (room 1)</t>
+        </is>
+      </c>
+      <c r="C138" s="186" t="inlineStr">
+        <is>
+          <t>map</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>Bungalow</t>
+        </is>
+      </c>
+      <c r="E138" t="n">
+        <v>1</v>
+      </c>
+      <c r="J138" t="n">
+        <v>34650</v>
+      </c>
+      <c r="L138" t="inlineStr"/>
+      <c r="M138" t="inlineStr">
+        <is>
+          <t>Free parking on premises</t>
+        </is>
+      </c>
+      <c r="N138" t="inlineStr"/>
+      <c r="O138" t="n">
+        <v>1</v>
+      </c>
+      <c r="P138" t="inlineStr"/>
+      <c r="Q138" t="inlineStr">
+        <is>
+          <t>Dedicated workspace</t>
+        </is>
+      </c>
+      <c r="R138" t="inlineStr"/>
+      <c r="S138" t="inlineStr"/>
+      <c r="T138" t="inlineStr">
+        <is>
+          <t>Safe</t>
+        </is>
+      </c>
+      <c r="U138" t="inlineStr">
+        <is>
+          <t>4.73 stars, 84 reviews</t>
+        </is>
+      </c>
+      <c r="V138" t="inlineStr">
+        <is>
+          <t>Источник данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="n">
+        <v>129</v>
+      </c>
+      <c r="B139" s="186" t="inlineStr">
+        <is>
+          <t>Sedana Apartemen</t>
+        </is>
+      </c>
+      <c r="C139" s="186" t="inlineStr">
+        <is>
+          <t>map</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>Place</t>
+        </is>
+      </c>
+      <c r="E139" t="n">
+        <v>1</v>
+      </c>
+      <c r="J139" t="n">
+        <v>390</v>
+      </c>
+      <c r="L139" t="inlineStr"/>
+      <c r="M139" t="inlineStr">
+        <is>
+          <t>Free parking on premises</t>
+        </is>
+      </c>
+      <c r="N139" t="inlineStr"/>
+      <c r="O139" t="n">
+        <v>1</v>
+      </c>
+      <c r="P139" t="inlineStr">
+        <is>
+          <t>kitchen</t>
+        </is>
+      </c>
+      <c r="Q139" t="inlineStr">
+        <is>
+          <t>Dedicated workspace</t>
+        </is>
+      </c>
+      <c r="R139" t="inlineStr"/>
+      <c r="S139" t="inlineStr"/>
+      <c r="T139" t="inlineStr"/>
+      <c r="U139" t="inlineStr">
+        <is>
+          <t>0.0 stars, 0 reviews</t>
+        </is>
+      </c>
+      <c r="V139" t="inlineStr">
+        <is>
+          <t>Источник данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="n">
+        <v>130</v>
+      </c>
+      <c r="B140" s="186" t="inlineStr">
+        <is>
+          <t>Balinese Room in Sanur #5 -Kubu Angkangan Homestay</t>
+        </is>
+      </c>
+      <c r="C140" s="186" t="inlineStr">
+        <is>
+          <t>map</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>Home</t>
+        </is>
+      </c>
+      <c r="E140" t="n">
+        <v>1</v>
+      </c>
+      <c r="J140" t="n">
+        <v>330</v>
+      </c>
+      <c r="L140" t="inlineStr"/>
+      <c r="M140" t="inlineStr">
+        <is>
+          <t>Free parking on premises, Street parking</t>
+        </is>
+      </c>
+      <c r="N140" t="inlineStr"/>
+      <c r="O140" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="P140" t="inlineStr">
+        <is>
+          <t>kitchen</t>
+        </is>
+      </c>
+      <c r="Q140" t="inlineStr"/>
+      <c r="R140" t="inlineStr"/>
+      <c r="S140" t="inlineStr">
+        <is>
+          <t>Backyard</t>
+        </is>
+      </c>
+      <c r="T140" t="inlineStr">
+        <is>
+          <t>Lockbox, Safe</t>
+        </is>
+      </c>
+      <c r="U140" t="inlineStr">
+        <is>
+          <t>4.85 stars, 62 reviews</t>
+        </is>
+      </c>
+      <c r="V140" t="inlineStr">
+        <is>
+          <t>Источник данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="n">
+        <v>131</v>
+      </c>
+      <c r="B141" s="186" t="inlineStr">
+        <is>
+          <t>Private room queen size bed* with garden view</t>
+        </is>
+      </c>
+      <c r="C141" s="186" t="inlineStr">
+        <is>
+          <t>map</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>Guesthouse</t>
+        </is>
+      </c>
+      <c r="E141" t="n">
+        <v>1</v>
+      </c>
+      <c r="J141" t="n">
+        <v>390</v>
+      </c>
+      <c r="L141" t="inlineStr"/>
+      <c r="M141" t="inlineStr">
+        <is>
+          <t>Free parking on premises</t>
+        </is>
+      </c>
+      <c r="N141" t="inlineStr"/>
+      <c r="O141" t="n">
+        <v>1</v>
+      </c>
+      <c r="P141" t="inlineStr"/>
+      <c r="Q141" t="inlineStr"/>
+      <c r="R141" t="inlineStr"/>
+      <c r="S141" t="inlineStr"/>
+      <c r="T141" t="inlineStr">
+        <is>
+          <t>Safe</t>
+        </is>
+      </c>
+      <c r="U141" t="inlineStr">
+        <is>
+          <t>4.83 stars, 36 reviews</t>
+        </is>
+      </c>
+      <c r="V141" t="inlineStr">
+        <is>
+          <t>Источник данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="n">
+        <v>132</v>
+      </c>
+      <c r="B142" s="186" t="inlineStr">
+        <is>
+          <t>Rumah Pelangi- Taman Mesari</t>
+        </is>
+      </c>
+      <c r="C142" s="186" t="inlineStr">
+        <is>
+          <t>map</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>Guesthouse</t>
+        </is>
+      </c>
+      <c r="E142" t="n">
+        <v>1</v>
+      </c>
+      <c r="J142" t="n">
+        <v>390</v>
+      </c>
+      <c r="L142" t="inlineStr"/>
+      <c r="M142" t="inlineStr"/>
+      <c r="N142" t="inlineStr"/>
+      <c r="O142" t="n">
+        <v>1</v>
+      </c>
+      <c r="P142" t="inlineStr">
+        <is>
+          <t>kitchen</t>
+        </is>
+      </c>
+      <c r="Q142" t="inlineStr"/>
+      <c r="R142" t="inlineStr"/>
+      <c r="S142" t="inlineStr"/>
+      <c r="T142" t="inlineStr"/>
+      <c r="U142" t="inlineStr">
+        <is>
+          <t>4.53 stars, 86 reviews</t>
+        </is>
+      </c>
+      <c r="V142" t="inlineStr">
+        <is>
+          <t>Источник данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="n">
+        <v>133</v>
+      </c>
+      <c r="B143" s="186" t="inlineStr">
+        <is>
+          <t>Apartment cool in Ungassan 2</t>
+        </is>
+      </c>
+      <c r="C143" s="186" t="inlineStr">
+        <is>
+          <t>map</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>Apartment</t>
+        </is>
+      </c>
+      <c r="E143" t="n">
+        <v>1</v>
+      </c>
+      <c r="J143" t="n">
+        <v>34650</v>
+      </c>
+      <c r="L143" t="inlineStr"/>
+      <c r="M143" t="inlineStr">
+        <is>
+          <t>Free parking on premises</t>
+        </is>
+      </c>
+      <c r="N143" t="inlineStr"/>
+      <c r="O143" t="n">
+        <v>1</v>
+      </c>
+      <c r="P143" t="inlineStr">
+        <is>
+          <t>kitchen</t>
+        </is>
+      </c>
+      <c r="Q143" t="inlineStr"/>
+      <c r="R143" t="inlineStr"/>
+      <c r="S143" t="inlineStr"/>
+      <c r="T143" t="inlineStr"/>
+      <c r="U143" t="inlineStr">
+        <is>
+          <t>0.0 stars, 0 reviews</t>
+        </is>
+      </c>
+      <c r="V143" t="inlineStr">
+        <is>
+          <t>Источник данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="n">
+        <v>134</v>
+      </c>
+      <c r="B144" s="186" t="inlineStr">
+        <is>
+          <t>Reiko's small private house</t>
+        </is>
+      </c>
+      <c r="C144" s="186" t="inlineStr">
+        <is>
+          <t>map</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>House</t>
+        </is>
+      </c>
+      <c r="E144" t="n">
+        <v>1</v>
+      </c>
+      <c r="J144" t="n">
+        <v>360</v>
+      </c>
+      <c r="L144" t="inlineStr"/>
+      <c r="M144" t="inlineStr"/>
+      <c r="N144" t="inlineStr"/>
+      <c r="O144" t="n">
+        <v>1</v>
+      </c>
+      <c r="P144" t="inlineStr">
+        <is>
+          <t>kitchen</t>
+        </is>
+      </c>
+      <c r="Q144" t="inlineStr"/>
+      <c r="R144" t="inlineStr"/>
+      <c r="S144" t="inlineStr"/>
+      <c r="T144" t="inlineStr"/>
+      <c r="U144" t="inlineStr">
+        <is>
+          <t>4.13 stars, 8 reviews</t>
+        </is>
+      </c>
+      <c r="V144" t="inlineStr">
+        <is>
+          <t>Источник данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="n">
+        <v>135</v>
+      </c>
+      <c r="B145" s="186" t="inlineStr">
+        <is>
+          <t>Green sadri with wifi ,AC and kitchen</t>
+        </is>
+      </c>
+      <c r="C145" s="186" t="inlineStr">
+        <is>
+          <t>map</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>Bungalow</t>
+        </is>
+      </c>
+      <c r="E145" t="n">
+        <v>1</v>
+      </c>
+      <c r="J145" t="n">
+        <v>390</v>
+      </c>
+      <c r="L145" t="inlineStr">
+        <is>
+          <t>Courtyard view</t>
+        </is>
+      </c>
+      <c r="M145" t="inlineStr">
+        <is>
+          <t>Free parking on premises</t>
+        </is>
+      </c>
+      <c r="N145" t="inlineStr"/>
+      <c r="O145" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="P145" t="inlineStr">
+        <is>
+          <t>kitchen</t>
+        </is>
+      </c>
+      <c r="Q145" t="inlineStr">
+        <is>
+          <t>Dedicated workspace</t>
+        </is>
+      </c>
+      <c r="R145" t="inlineStr"/>
+      <c r="S145" t="inlineStr"/>
+      <c r="T145" t="inlineStr">
+        <is>
+          <t>Safe</t>
+        </is>
+      </c>
+      <c r="U145" t="inlineStr">
+        <is>
+          <t>4.71 stars, 21 reviews</t>
+        </is>
+      </c>
+      <c r="V145" t="inlineStr">
+        <is>
+          <t>Источник данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="n">
+        <v>136</v>
+      </c>
+      <c r="B146" s="186" t="inlineStr">
+        <is>
+          <t>Seaside Villa Bungallow Seraya</t>
+        </is>
+      </c>
+      <c r="C146" s="186" t="inlineStr">
+        <is>
+          <t>map</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>Guesthouse</t>
+        </is>
+      </c>
+      <c r="E146" t="n">
+        <v>1</v>
+      </c>
+      <c r="J146" t="n">
+        <v>34230</v>
+      </c>
+      <c r="L146" t="inlineStr"/>
+      <c r="M146" t="inlineStr"/>
+      <c r="N146" t="inlineStr"/>
+      <c r="O146" t="n">
+        <v>1</v>
+      </c>
+      <c r="P146" t="inlineStr">
+        <is>
+          <t>kitchen</t>
+        </is>
+      </c>
+      <c r="Q146" t="inlineStr"/>
+      <c r="R146" t="inlineStr"/>
+      <c r="S146" t="inlineStr">
+        <is>
+          <t>Outdoor dining area</t>
+        </is>
+      </c>
+      <c r="T146" t="inlineStr"/>
+      <c r="U146" t="inlineStr">
+        <is>
+          <t>1.0 stars, 0 reviews</t>
+        </is>
+      </c>
+      <c r="V146" t="inlineStr">
+        <is>
+          <t>Источник данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="n">
+        <v>137</v>
+      </c>
+      <c r="B147" s="186" t="inlineStr">
+        <is>
+          <t>Coliving in Seminyak Oberoi</t>
+        </is>
+      </c>
+      <c r="C147" s="186" t="inlineStr">
+        <is>
+          <t>map</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>Place</t>
+        </is>
+      </c>
+      <c r="E147" t="n">
+        <v>1</v>
+      </c>
+      <c r="J147" t="n">
+        <v>34650</v>
+      </c>
+      <c r="L147" t="inlineStr">
+        <is>
+          <t>Garden view</t>
+        </is>
+      </c>
+      <c r="M147" t="inlineStr"/>
+      <c r="N147" t="inlineStr"/>
+      <c r="O147" t="n">
+        <v>1</v>
+      </c>
+      <c r="P147" t="inlineStr">
+        <is>
+          <t>kitchen</t>
+        </is>
+      </c>
+      <c r="Q147" t="inlineStr">
+        <is>
+          <t>Dedicated workspace</t>
+        </is>
+      </c>
+      <c r="R147" t="inlineStr"/>
+      <c r="S147" t="inlineStr">
+        <is>
+          <t>Outdoor dining area, Patio or balcony</t>
+        </is>
+      </c>
+      <c r="T147" t="inlineStr">
+        <is>
+          <t>Lockbox, Safe</t>
+        </is>
+      </c>
+      <c r="U147" t="inlineStr">
+        <is>
+          <t>1.0 stars, 0 reviews</t>
+        </is>
+      </c>
+      <c r="V147" t="inlineStr">
+        <is>
+          <t>Источник данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="n">
+        <v>138</v>
+      </c>
+      <c r="B148" s="186" t="inlineStr">
+        <is>
+          <t>Gladak House 2 Pantry and swim-pool</t>
+        </is>
+      </c>
+      <c r="C148" s="186" t="inlineStr">
+        <is>
+          <t>map</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>House</t>
+        </is>
+      </c>
+      <c r="E148" t="n">
+        <v>1</v>
+      </c>
+      <c r="J148" t="n">
+        <v>390</v>
+      </c>
+      <c r="L148" t="inlineStr"/>
+      <c r="M148" t="inlineStr">
+        <is>
+          <t>Free parking on premises</t>
+        </is>
+      </c>
+      <c r="N148" t="inlineStr"/>
+      <c r="O148" t="n">
+        <v>1</v>
+      </c>
+      <c r="P148" t="inlineStr">
+        <is>
+          <t>kitchen</t>
+        </is>
+      </c>
+      <c r="Q148" t="inlineStr"/>
+      <c r="R148" t="inlineStr"/>
+      <c r="S148" t="inlineStr">
+        <is>
+          <t>Patio or balcony, Backyard</t>
+        </is>
+      </c>
+      <c r="T148" t="inlineStr"/>
+      <c r="U148" t="inlineStr">
+        <is>
+          <t>4.79 stars, 58 reviews</t>
+        </is>
+      </c>
+      <c r="V148" t="inlineStr">
+        <is>
+          <t>Источник данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="n">
+        <v>139</v>
+      </c>
+      <c r="B149" s="186" t="inlineStr">
+        <is>
+          <t>Double Bedroom with Private Bathroom</t>
+        </is>
+      </c>
+      <c r="C149" s="186" t="inlineStr">
+        <is>
+          <t>map</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>Guesthouse</t>
+        </is>
+      </c>
+      <c r="E149" t="n">
+        <v>1</v>
+      </c>
+      <c r="J149" t="n">
+        <v>330</v>
+      </c>
+      <c r="L149" t="inlineStr"/>
+      <c r="M149" t="inlineStr">
+        <is>
+          <t>Free parking on premises</t>
+        </is>
+      </c>
+      <c r="N149" t="inlineStr"/>
+      <c r="O149" t="n">
+        <v>1</v>
+      </c>
+      <c r="P149" t="inlineStr"/>
+      <c r="Q149" t="inlineStr"/>
+      <c r="R149" t="inlineStr"/>
+      <c r="S149" t="inlineStr"/>
+      <c r="T149" t="inlineStr">
+        <is>
+          <t>Safe</t>
+        </is>
+      </c>
+      <c r="U149" t="inlineStr">
+        <is>
+          <t>0.0 stars, 0 reviews</t>
+        </is>
+      </c>
+      <c r="V149" t="inlineStr">
+        <is>
+          <t>Источник данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="n">
+        <v>140</v>
+      </c>
+      <c r="B150" s="186" t="inlineStr">
+        <is>
+          <t>Svaka Homestay Room No.1</t>
+        </is>
+      </c>
+      <c r="C150" s="186" t="inlineStr">
+        <is>
+          <t>map</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>Home</t>
+        </is>
+      </c>
+      <c r="E150" t="n">
+        <v>1</v>
+      </c>
+      <c r="J150" t="n">
+        <v>390</v>
+      </c>
+      <c r="L150" t="inlineStr"/>
+      <c r="M150" t="inlineStr"/>
+      <c r="N150" t="inlineStr"/>
+      <c r="O150" t="n">
+        <v>1</v>
+      </c>
+      <c r="P150" t="inlineStr">
+        <is>
+          <t>kitchen</t>
+        </is>
+      </c>
+      <c r="Q150" t="inlineStr">
+        <is>
+          <t>Dedicated workspace</t>
+        </is>
+      </c>
+      <c r="R150" t="inlineStr"/>
+      <c r="S150" t="inlineStr">
+        <is>
+          <t>Outdoor dining area</t>
+        </is>
+      </c>
+      <c r="T150" t="inlineStr">
+        <is>
+          <t>Safe</t>
+        </is>
+      </c>
+      <c r="U150" t="inlineStr">
+        <is>
+          <t>1.0 stars, 0 reviews</t>
+        </is>
+      </c>
+      <c r="V150" t="inlineStr">
+        <is>
+          <t>Источник данных</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="n">
+        <v>141</v>
+      </c>
+      <c r="B151" s="186" t="inlineStr">
+        <is>
+          <t>Poolside Single Room Warung Coco.</t>
+        </is>
+      </c>
+      <c r="C151" s="186" t="inlineStr">
+        <is>
+          <t>map</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>Place</t>
+        </is>
+      </c>
+      <c r="E151" t="n">
+        <v>1</v>
+      </c>
+      <c r="J151" t="n">
+        <v>38970</v>
+      </c>
+      <c r="L151" t="inlineStr"/>
+      <c r="M151" t="inlineStr">
+        <is>
+          <t>Street parking</t>
+        </is>
+      </c>
+      <c r="N151" t="inlineStr"/>
+      <c r="O151" t="n">
+        <v>1</v>
+      </c>
+      <c r="P151" t="inlineStr"/>
+      <c r="Q151" t="inlineStr">
+        <is>
+          <t>Dedicated workspace</t>
+        </is>
+      </c>
+      <c r="R151" t="inlineStr"/>
+      <c r="S151" t="inlineStr">
+        <is>
+          <t>Patio or balcony</t>
+        </is>
+      </c>
+      <c r="T151" t="inlineStr">
+        <is>
+          <t>Safe</t>
+        </is>
+      </c>
+      <c r="U151" t="inlineStr">
+        <is>
+          <t>4.58 stars, 33 reviews</t>
+        </is>
+      </c>
+      <c r="V151" t="inlineStr">
         <is>
           <t>Источник данных</t>
         </is>
@@ -43660,6 +48620,174 @@
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C66" r:id="rId112"/>
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B67" r:id="rId113"/>
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C67" r:id="rId114"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B68" r:id="rId115"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C68" r:id="rId116"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B69" r:id="rId117"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C69" r:id="rId118"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B70" r:id="rId119"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C70" r:id="rId120"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B71" r:id="rId121"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C71" r:id="rId122"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B72" r:id="rId123"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C72" r:id="rId124"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B73" r:id="rId125"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C73" r:id="rId126"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B74" r:id="rId127"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C74" r:id="rId128"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B75" r:id="rId129"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C75" r:id="rId130"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B76" r:id="rId131"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C76" r:id="rId132"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B77" r:id="rId133"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C77" r:id="rId134"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B78" r:id="rId135"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C78" r:id="rId136"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B79" r:id="rId137"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C79" r:id="rId138"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B80" r:id="rId139"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C80" r:id="rId140"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B81" r:id="rId141"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C81" r:id="rId142"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B82" r:id="rId143"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C82" r:id="rId144"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B83" r:id="rId145"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C83" r:id="rId146"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B84" r:id="rId147"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C84" r:id="rId148"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B85" r:id="rId149"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C85" r:id="rId150"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B86" r:id="rId151"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C86" r:id="rId152"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B87" r:id="rId153"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C87" r:id="rId154"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B88" r:id="rId155"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C88" r:id="rId156"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B89" r:id="rId157"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C89" r:id="rId158"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B90" r:id="rId159"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C90" r:id="rId160"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B91" r:id="rId161"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C91" r:id="rId162"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B92" r:id="rId163"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C92" r:id="rId164"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B93" r:id="rId165"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C93" r:id="rId166"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B94" r:id="rId167"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C94" r:id="rId168"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B95" r:id="rId169"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C95" r:id="rId170"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B96" r:id="rId171"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C96" r:id="rId172"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B97" r:id="rId173"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C97" r:id="rId174"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B98" r:id="rId175"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C98" r:id="rId176"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B99" r:id="rId177"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C99" r:id="rId178"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B100" r:id="rId179"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C100" r:id="rId180"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B101" r:id="rId181"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C101" r:id="rId182"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B102" r:id="rId183"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C102" r:id="rId184"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B103" r:id="rId185"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C103" r:id="rId186"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B104" r:id="rId187"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C104" r:id="rId188"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B105" r:id="rId189"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C105" r:id="rId190"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B106" r:id="rId191"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C106" r:id="rId192"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B107" r:id="rId193"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C107" r:id="rId194"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B108" r:id="rId195"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C108" r:id="rId196"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B109" r:id="rId197"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C109" r:id="rId198"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B110" r:id="rId199"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C110" r:id="rId200"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B111" r:id="rId201"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C111" r:id="rId202"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B112" r:id="rId203"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C112" r:id="rId204"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B113" r:id="rId205"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C113" r:id="rId206"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B114" r:id="rId207"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C114" r:id="rId208"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B115" r:id="rId209"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C115" r:id="rId210"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B116" r:id="rId211"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C116" r:id="rId212"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B117" r:id="rId213"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C117" r:id="rId214"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B118" r:id="rId215"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C118" r:id="rId216"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B119" r:id="rId217"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C119" r:id="rId218"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B120" r:id="rId219"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C120" r:id="rId220"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B121" r:id="rId221"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C121" r:id="rId222"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B122" r:id="rId223"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C122" r:id="rId224"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B123" r:id="rId225"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C123" r:id="rId226"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B124" r:id="rId227"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C124" r:id="rId228"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B125" r:id="rId229"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C125" r:id="rId230"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B126" r:id="rId231"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C126" r:id="rId232"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B127" r:id="rId233"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C127" r:id="rId234"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B128" r:id="rId235"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C128" r:id="rId236"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B129" r:id="rId237"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C129" r:id="rId238"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B130" r:id="rId239"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C130" r:id="rId240"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B131" r:id="rId241"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C131" r:id="rId242"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B132" r:id="rId243"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C132" r:id="rId244"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B133" r:id="rId245"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C133" r:id="rId246"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B134" r:id="rId247"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C134" r:id="rId248"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B135" r:id="rId249"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C135" r:id="rId250"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B136" r:id="rId251"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C136" r:id="rId252"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B137" r:id="rId253"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C137" r:id="rId254"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B138" r:id="rId255"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C138" r:id="rId256"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B139" r:id="rId257"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C139" r:id="rId258"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B140" r:id="rId259"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C140" r:id="rId260"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B141" r:id="rId261"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C141" r:id="rId262"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B142" r:id="rId263"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C142" r:id="rId264"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B143" r:id="rId265"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C143" r:id="rId266"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B144" r:id="rId267"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C144" r:id="rId268"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B145" r:id="rId269"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C145" r:id="rId270"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B146" r:id="rId271"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C146" r:id="rId272"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B147" r:id="rId273"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C147" r:id="rId274"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B148" r:id="rId275"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C148" r:id="rId276"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B149" r:id="rId277"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C149" r:id="rId278"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B150" r:id="rId279"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C150" r:id="rId280"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B151" r:id="rId281"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C151" r:id="rId282"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
